--- a/Cephei.XL/Bond1.xlsx
+++ b/Cephei.XL/Bond1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\source\repos\Cephei2\Cephei.XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696E7244-6634-4B43-B294-0C5C27315742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD5A012-7322-464A-A54B-E4AF6F89628C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{1287AFFA-50F8-48B2-8168-E284DC333339}"/>
+    <workbookView xWindow="20" yWindow="120" windowWidth="38380" windowHeight="20880" xr2:uid="{1287AFFA-50F8-48B2-8168-E284DC333339}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
   <si>
     <t>calendar</t>
   </si>
@@ -90,84 +91,239 @@
     <t>tolerance</t>
   </si>
   <si>
+    <t>instruments</t>
+  </si>
+  <si>
+    <t>Rate Helpers</t>
+  </si>
+  <si>
+    <t>couponRates2</t>
+  </si>
+  <si>
+    <t>quote handles</t>
+  </si>
+  <si>
+    <t>libor forcast</t>
+  </si>
+  <si>
+    <t>d1w</t>
+  </si>
+  <si>
+    <t>d1m</t>
+  </si>
+  <si>
+    <t>d3m</t>
+  </si>
+  <si>
+    <t>d6m</t>
+  </si>
+  <si>
+    <t>d9m</t>
+  </si>
+  <si>
+    <t>d1y</t>
+  </si>
+  <si>
+    <t>s2y</t>
+  </si>
+  <si>
+    <t>s3y</t>
+  </si>
+  <si>
+    <t>s5y</t>
+  </si>
+  <si>
+    <t>s10y</t>
+  </si>
+  <si>
+    <t>s15y</t>
+  </si>
+  <si>
+    <t>quote handle</t>
+  </si>
+  <si>
+    <t>rate helpers</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>Time Unit</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Weeks</t>
+  </si>
+  <si>
+    <t>Quote</t>
+  </si>
+  <si>
+    <t>depo Swap Instruments</t>
+  </si>
+  <si>
+    <t>depoSwapTermStructure</t>
+  </si>
+  <si>
+    <t>faceAmount</t>
+  </si>
+  <si>
+    <t>bondEngine</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>perd</t>
+  </si>
+  <si>
+    <t>Deposit rate</t>
+  </si>
+  <si>
+    <t>Globals</t>
+  </si>
+  <si>
     <t>bondDiscountingTermStructure</t>
   </si>
   <si>
-    <t>instruments</t>
-  </si>
-  <si>
-    <t>Rate Helpers</t>
-  </si>
-  <si>
-    <t>couponRates2</t>
-  </si>
-  <si>
-    <t>quote handles</t>
-  </si>
-  <si>
-    <t>libor forcast</t>
-  </si>
-  <si>
-    <t>d1w</t>
-  </si>
-  <si>
-    <t>d1m</t>
-  </si>
-  <si>
-    <t>d3m</t>
-  </si>
-  <si>
-    <t>d6m</t>
-  </si>
-  <si>
-    <t>d9m</t>
-  </si>
-  <si>
-    <t>d1y</t>
-  </si>
-  <si>
-    <t>s2y</t>
-  </si>
-  <si>
-    <t>s3y</t>
-  </si>
-  <si>
-    <t>s5y</t>
-  </si>
-  <si>
-    <t>s10y</t>
-  </si>
-  <si>
-    <t>s15y</t>
-  </si>
-  <si>
-    <t>quote handle</t>
-  </si>
-  <si>
-    <t>rate helpers</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>Time Unit</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Weeks</t>
-  </si>
-  <si>
-    <t>Quote</t>
+    <t>bondInstruments</t>
+  </si>
+  <si>
+    <t>zeroCouponBond</t>
+  </si>
+  <si>
+    <t>Zero Settlement Date</t>
+  </si>
+  <si>
+    <t>Zero Issue Date</t>
+  </si>
+  <si>
+    <t>Remption Amount</t>
+  </si>
+  <si>
+    <t>Zero Bond</t>
+  </si>
+  <si>
+    <t>Fixed 4.5% US Treasury Note</t>
+  </si>
+  <si>
+    <t>Fixed Settlement Datte</t>
+  </si>
+  <si>
+    <t>Fixed Issue Date</t>
+  </si>
+  <si>
+    <t>Fixed Rate Bond</t>
+  </si>
+  <si>
+    <t>fixed Bond Schedule</t>
+  </si>
+  <si>
+    <t>Fixed Rate Coupon</t>
+  </si>
+  <si>
+    <t>Fixed Redemption</t>
+  </si>
+  <si>
+    <t>Floating Rate Bond</t>
+  </si>
+  <si>
+    <t>libor 3m Period</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Fixing</t>
+  </si>
+  <si>
+    <t>USD Libor</t>
+  </si>
+  <si>
+    <t>Float Redemption</t>
+  </si>
+  <si>
+    <t>Float Settlement Datte</t>
+  </si>
+  <si>
+    <t>Float Issue Date</t>
+  </si>
+  <si>
+    <t>Gearing</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>floatingRateBond</t>
+  </si>
+  <si>
+    <t>floating Bond Schedule</t>
+  </si>
+  <si>
+    <t>float coupon pricer</t>
+  </si>
+  <si>
+    <t>optionlet volitility</t>
+  </si>
+  <si>
+    <t>Constant Optionlet Volatility</t>
+  </si>
+  <si>
+    <t>floatingRateBond.cashflows</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Clean Price</t>
+  </si>
+  <si>
+    <t>Dirty Price</t>
+  </si>
+  <si>
+    <t>Accrued coupon</t>
+  </si>
+  <si>
+    <t>Previous coupon</t>
+  </si>
+  <si>
+    <t>Next coupon</t>
+  </si>
+  <si>
+    <t>Yiedl</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Floating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -195,17 +351,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
     </dxf>
@@ -228,7 +416,709 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>ZeroSettlementDate</v>
+        <stp/>
+        <stp>ZeroSettlementDate</stp>
+        <stp>41501</stp>
+        <tr r="B25" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>swFloatingLegIndex</v>
+        <stp/>
+        <stp>swFloatingLegIndex</stp>
+        <stp>0</stp>
+        <tr r="E46" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>swFixedLegDayCounter</v>
+        <stp/>
+        <stp>swFixedLegDayCounter</stp>
+        <stp>2</stp>
+        <tr r="E45" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>floatingRateBond</v>
+        <stp/>
+        <stp>floatingRateBond</stp>
+        <stp>1007976344</stp>
+        <tr r="B45" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>zc3m</v>
+        <stp/>
+        <stp>zc3m</stp>
+        <stp>-2001237243</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>USDLibor1</v>
+        <stp/>
+        <stp>USDLibor1</stp>
+        <stp>710443265</stp>
+        <tr r="J39" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>zeroCouponBond</v>
+        <stp/>
+        <stp>zeroCouponBond</stp>
+        <stp>-1924652648</stp>
+        <tr r="B27" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>+s3yQuote</v>
+        <stp/>
+        <stp>+s3yQuote</stp>
+        <stp>418569665</stp>
+        <tr r="J29" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>zc6mPeriod</v>
+        <stp/>
+        <stp>zc6mPeriod</stp>
+        <stp>98</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d1wratehelpers</v>
+        <stp/>
+        <stp>d1wratehelpers</stp>
+        <stp>392707922</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>zc3mPeriod</v>
+        <stp/>
+        <stp>zc3mPeriod</stp>
+        <stp>50</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>d9mratehelpers</v>
+        <stp/>
+        <stp>d9mratehelpers</stp>
+        <stp>761806674</stp>
+        <tr r="K26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>zc1yPeriod</v>
+        <stp/>
+        <stp>zc1yPeriod</stp>
+        <stp>19</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d1mratehelpers</v>
+        <stp/>
+        <stp>d1mratehelpers</stp>
+        <stp>627588946</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>d6mratehelpers</v>
+        <stp/>
+        <stp>d6mratehelpers</stp>
+        <stp>73940818</stp>
+        <tr r="K25" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>s5yratehelpers</v>
+        <stp/>
+        <stp>s5yratehelpers</stp>
+        <stp>644366162</stp>
+        <tr r="K30" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>+d3mQuote</v>
+        <stp/>
+        <stp>+d3mQuote</stp>
+        <stp>584964208</stp>
+        <tr r="J24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>s2yratehelpers</v>
+        <stp/>
+        <stp>s2yratehelpers</stp>
+        <stp>224935762</stp>
+        <tr r="K28" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>+s15yQuote</v>
+        <stp/>
+        <stp>+s15yQuote</stp>
+        <stp>-663532123</stp>
+        <tr r="J32" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>+s5yQuote</v>
+        <stp/>
+        <stp>+s5yQuote</stp>
+        <stp>611856486</stp>
+        <tr r="J30" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>marketQuotes3</v>
+        <stp/>
+        <stp>marketQuotes3</stp>
+        <stp>1079602176</stp>
+        <tr r="K17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>couponRates21</v>
+        <stp/>
+        <stp>couponRates21</stp>
+        <stp>1079676416</stp>
+        <tr r="J15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>Gearing</v>
+        <stp/>
+        <stp>Gearing</stp>
+        <stp>1072693248</stp>
+        <tr r="B42" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>zc1yRate</v>
+        <stp/>
+        <stp>zc1yRate</stp>
+        <stp>-910641281</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>+d1mQuote</v>
+        <stp/>
+        <stp>+d1mQuote</stp>
+        <stp>-1161893447</stp>
+        <tr r="J23" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FixedRedemption</v>
+        <stp/>
+        <stp>FixedRedemption</stp>
+        <stp>1079574528</stp>
+        <tr r="B30" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>couponRates24</v>
+        <stp/>
+        <stp>couponRates24</stp>
+        <stp>1079609600</stp>
+        <tr r="J18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>d3mratehelpers</v>
+        <stp/>
+        <stp>d3mratehelpers</stp>
+        <stp>-412598446</stp>
+        <tr r="K24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>marketQuotes2</v>
+        <stp/>
+        <stp>marketQuotes2</stp>
+        <stp>1079584256</stp>
+        <tr r="K16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>FixedRateBond</v>
+        <stp/>
+        <stp>FixedRateBond</stp>
+        <stp>166319768</stp>
+        <tr r="B35" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Semiannual</v>
+        <stp/>
+        <stp>Semiannual</stp>
+        <stp>2</stp>
+        <tr r="E39" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>marketQuotes1</v>
+        <stp/>
+        <stp>marketQuotes1</stp>
+        <stp>1079676416</stp>
+        <tr r="K15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>couponRates23</v>
+        <stp/>
+        <stp>couponRates23</stp>
+        <stp>1079602176</stp>
+        <tr r="J17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b403f236440e47f58fcda62a43abc462">
+      <tp t="s">
+        <v>#Specified method is not supported.</v>
+        <stp/>
+        <stp>tt</stp>
+        <stp/>
+        <tr r="B62" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>FloatRedemption</v>
+        <stp/>
+        <stp>FloatRedemption</stp>
+        <stp>1079574528</stp>
+        <tr r="B39" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>+s10yQuote</v>
+        <stp/>
+        <stp>+s10yQuote</stp>
+        <stp>-1500142044</stp>
+        <tr r="J31" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>couponRates22</v>
+        <stp/>
+        <stp>couponRates22</stp>
+        <stp>1079584256</stp>
+        <tr r="J16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>marketQuotes4</v>
+        <stp/>
+        <stp>marketQuotes4</stp>
+        <stp>1079609600</stp>
+        <tr r="K18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FloatSettlementDatte</v>
+        <stp/>
+        <stp>FloatSettlementDatte</stp>
+        <stp>40472</stp>
+        <tr r="B40" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Fixing1</v>
+        <stp/>
+        <stp>Fixing1</stp>
+        <stp>39646</stp>
+        <tr r="J39" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>marketQuotes0</v>
+        <stp/>
+        <stp>marketQuotes0</stp>
+        <stp>1079580928</stp>
+        <tr r="K14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>ZeroIssueDate</v>
+        <stp/>
+        <stp>ZeroIssueDate</stp>
+        <stp>37848</stp>
+        <tr r="B26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>bondInstruments</v>
+        <stp/>
+        <stp>bondInstruments</stp>
+        <stp>-192993751</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>couponRates20</v>
+        <stp/>
+        <stp>couponRates20</stp>
+        <stp>1079580928</stp>
+        <tr r="J14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>+d6mQuote</v>
+        <stp/>
+        <stp>+d6mQuote</stp>
+        <stp>-1169081440</stp>
+        <tr r="J25" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>FixedSettlementDatte</v>
+        <stp/>
+        <stp>FixedSettlementDatte</stp>
+        <stp>42870</stp>
+        <tr r="B31" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>optionletvolitility</v>
+        <stp/>
+        <stp>optionletvolitility</stp>
+        <stp>0</stp>
+        <tr r="B47" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>actual360</v>
+        <stp/>
+        <stp>actual360</stp>
+        <stp>0</stp>
+        <tr r="E48" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FixedRateCoupon</v>
+        <stp/>
+        <stp>FixedRateCoupon</stp>
+        <stp>1325718839</stp>
+        <tr r="B34" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>s15yratehelpers</v>
+        <stp/>
+        <stp>s15yratehelpers</stp>
+        <stp>1600667474</stp>
+        <tr r="K32" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>ConstantOptionletVolatility</v>
+        <stp/>
+        <stp>ConstantOptionletVolatility</stp>
+        <stp>-40481414</stp>
+        <tr r="B48" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d1yratehelpers</v>
+        <stp/>
+        <stp>d1yratehelpers</stp>
+        <stp>-513261742</stp>
+        <tr r="K27" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>s10yratehelpers</v>
+        <stp/>
+        <stp>s10yratehelpers</stp>
+        <stp>-127385774</stp>
+        <tr r="K31" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>RemptionAmount</v>
+        <stp/>
+        <stp>RemptionAmount</stp>
+        <stp>1411892966</stp>
+        <tr r="B23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>Spreads</v>
+        <stp/>
+        <stp>Spreads</stp>
+        <stp>-308163663</stp>
+        <tr r="B43" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>s3yratehelpers</v>
+        <stp/>
+        <stp>s3yratehelpers</stp>
+        <stp>1818771282</stp>
+        <tr r="K29" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>fixingDays</v>
+        <stp/>
+        <stp>fixingDays</stp>
+        <stp>3</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>depoSwapTermStructure</v>
+        <stp/>
+        <stp>depoSwapTermStructure</stp>
+        <stp>1191688077</stp>
+        <tr r="B17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ZeroNPV</v>
+        <stp/>
+        <stp>ZeroNPV</stp>
+        <stp>1001970241</stp>
+        <tr r="B54" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>s15y</v>
+        <stp/>
+        <stp>s15y</stp>
+        <stp>243</stp>
+        <tr r="H32" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>discount</v>
+        <stp/>
+        <stp>discount</stp>
+        <stp>0</stp>
+        <tr r="E42" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>calendar</v>
+        <stp/>
+        <stp>calendar</stp>
+        <stp>0</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>redemption</v>
+        <stp/>
+        <stp>redemption</stp>
+        <stp>1079574528</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>termStructureDayCounter</v>
+        <stp/>
+        <stp>termStructureDayCounter</stp>
+        <stp>920816725</stp>
+        <tr r="E41" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>s10y</v>
+        <stp/>
+        <stp>s10y</stp>
+        <stp>163</stp>
+        <tr r="H31" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>bondhelper3</v>
+        <stp/>
+        <stp>bondhelper3</stp>
+        <stp>2009265153</stp>
+        <tr r="M17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>settlementDays</v>
+        <stp/>
+        <stp>settlementDays</stp>
+        <stp>3</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>bondhelper2</v>
+        <stp/>
+        <stp>bondhelper2</stp>
+        <stp>-1530727423</stp>
+        <tr r="M16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>instruments</v>
+        <stp/>
+        <stp>instruments</stp>
+        <stp>-192993751</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>+d9mQuote</v>
+        <stp/>
+        <stp>+d9mQuote</stp>
+        <stp>80025026</stp>
+        <tr r="J26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>bondhelper1</v>
+        <stp/>
+        <stp>bondhelper1</stp>
+        <stp>1925379073</stp>
+        <tr r="M15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>bondhelper4</v>
+        <stp/>
+        <stp>bondhelper4</stp>
+        <stp>1774384129</stp>
+        <tr r="M18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>bondDiscountingTermStructure</v>
+        <stp/>
+        <stp>bondDiscountingTermStructure</stp>
+        <stp>-531999091</stp>
+        <tr r="B15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>+s2yQuote</v>
+        <stp/>
+        <stp>+s2yQuote</stp>
+        <stp>1131652183</stp>
+        <tr r="J28" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>depoSwapInstruments</v>
+        <stp/>
+        <stp>depoSwapInstruments</stp>
+        <stp>-501517731</stp>
+        <tr r="B16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FloatIssueDate</v>
+        <stp/>
+        <stp>FloatIssueDate</stp>
+        <stp>38646</stp>
+        <tr r="B41" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FixedIssueDate</v>
+        <stp/>
+        <stp>FixedIssueDate</stp>
+        <stp>39217</stp>
+        <tr r="B32" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>d9m</v>
+        <stp/>
+        <stp>d9m</stp>
+        <stp>146</stp>
+        <tr r="H26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>floatingRateBondcashflows</v>
+        <stp/>
+        <stp>floatingRateBondcashflows</stp>
+        <stp>1054474</stp>
+        <tr r="B49" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>+d1wQuote</v>
+        <stp/>
+        <stp>+d1wQuote</stp>
+        <stp>1129030743</stp>
+        <tr r="J22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>bondEngine</v>
+        <stp/>
+        <stp>bondEngine</stp>
+        <stp>-673174127</stp>
+        <tr r="B24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ActualActualBond</v>
+        <stp/>
+        <stp>ActualActualBond</stp>
+        <stp>920816741</stp>
+        <tr r="E40" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule0</v>
+        <stp/>
+        <stp>schedule0</stp>
+        <stp>-390697830</stp>
+        <tr r="L14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule1</v>
+        <stp/>
+        <stp>schedule1</stp>
+        <stp>-390697830</stp>
+        <tr r="L15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule2</v>
+        <stp/>
+        <stp>schedule2</stp>
+        <stp>-390697830</stp>
+        <tr r="L16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule3</v>
+        <stp/>
+        <stp>schedule3</stp>
+        <stp>-390697830</stp>
+        <tr r="L17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule4</v>
+        <stp/>
+        <stp>schedule4</stp>
+        <stp>-390697830</stp>
+        <tr r="L18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>+d1yQuote</v>
+        <stp/>
+        <stp>+d1yQuote</stp>
+        <stp>-660437196</stp>
+        <tr r="J27" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
       <tp t="s">
         <v>zc3mRate</v>
         <stp/>
@@ -236,12 +1126,51 @@
         <stp>265722699</stp>
         <tr r="B8" s="1"/>
       </tp>
-      <tp t="s">
-        <v>+d1wQuote</v>
-        <stp/>
-        <stp>+d1wQuote</stp>
-        <stp>1129030743</stp>
-        <tr r="J22" s="1"/>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>Quarterly</v>
+        <stp/>
+        <stp>Quarterly</stp>
+        <stp>4</stp>
+        <tr r="E49" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>faceAmount</v>
+        <stp/>
+        <stp>faceAmount</stp>
+        <stp>1079574528</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>zc6mRate</v>
+        <stp/>
+        <stp>zc6mRate</stp>
+        <stp>836482612</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>fixedBondSchedule</v>
+        <stp/>
+        <stp>fixedBondSchedule</stp>
+        <stp>-508138342</stp>
+        <tr r="B33" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>s2y</v>
+        <stp/>
+        <stp>s2y</stp>
+        <stp>35</stp>
+        <tr r="H28" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>s3y</v>
+        <stp/>
+        <stp>s3y</stp>
+        <stp>51</stp>
+        <tr r="H29" s="1"/>
       </tp>
       <tp t="s">
         <v>s5y</v>
@@ -251,18 +1180,32 @@
         <tr r="H30" s="1"/>
       </tp>
       <tp t="s">
-        <v>s3y</v>
-        <stp/>
-        <stp>s3y</stp>
-        <stp>51</stp>
-        <tr r="H29" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>s2y</v>
-        <stp/>
-        <stp>s2y</stp>
-        <stp>35</stp>
-        <tr r="H28" s="1"/>
+        <v>d3m</v>
+        <stp/>
+        <stp>d3m</stp>
+        <stp>50</stp>
+        <tr r="H24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d1w</v>
+        <stp/>
+        <stp>d1w</stp>
+        <stp>17</stp>
+        <tr r="H22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d1m</v>
+        <stp/>
+        <stp>d1m</stp>
+        <stp>18</stp>
+        <tr r="H23" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d1y</v>
+        <stp/>
+        <stp>d1y</stp>
+        <stp>19</stp>
+        <tr r="H27" s="1"/>
       </tp>
       <tp t="s">
         <v>d6m</v>
@@ -272,207 +1215,23 @@
         <tr r="H25" s="1"/>
       </tp>
       <tp t="s">
-        <v>d1w</v>
-        <stp/>
-        <stp>d1w</stp>
-        <stp>17</stp>
-        <tr r="H22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d1y</v>
-        <stp/>
-        <stp>d1y</stp>
-        <stp>19</stp>
-        <tr r="H27" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d1m</v>
-        <stp/>
-        <stp>d1m</stp>
-        <stp>18</stp>
-        <tr r="H23" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d3m</v>
-        <stp/>
-        <stp>d3m</stp>
-        <stp>50</stp>
-        <tr r="H24" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>zc6mRate</v>
-        <stp/>
-        <stp>zc6mRate</stp>
-        <stp>836482612</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>ActualActualBond</v>
-        <stp/>
-        <stp>ActualActualBond</stp>
-        <stp>920816741</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>+d1yQuote</v>
-        <stp/>
-        <stp>+d1yQuote</stp>
-        <stp>-660437196</stp>
-        <tr r="J27" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>bondhelper2</v>
-        <stp/>
-        <stp>bondhelper2</stp>
-        <stp>1222917503</stp>
-        <tr r="M16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>zc6mPeriod</v>
-        <stp/>
-        <stp>zc6mPeriod</stp>
-        <stp>98</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>settlementDays</v>
-        <stp/>
-        <stp>settlementDays</stp>
-        <stp>3</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>+d9mQuote</v>
-        <stp/>
-        <stp>+d9mQuote</stp>
-        <stp>80025026</stp>
-        <tr r="J26" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>+d3mQuote</v>
-        <stp/>
-        <stp>+d3mQuote</stp>
-        <stp>584964208</stp>
-        <tr r="J24" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>s10y</v>
-        <stp/>
-        <stp>s10y</stp>
-        <stp>163</stp>
-        <tr r="H31" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>zc1yPeriod</v>
-        <stp/>
-        <stp>zc1yPeriod</stp>
-        <stp>19</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>+s5yQuote</v>
-        <stp/>
-        <stp>+s5yQuote</stp>
-        <stp>611856486</stp>
-        <tr r="J30" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>zc3mPeriod</v>
-        <stp/>
-        <stp>zc3mPeriod</stp>
-        <stp>50</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>s15y</v>
-        <stp/>
-        <stp>s15y</stp>
-        <stp>243</stp>
-        <tr r="H32" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>+s2yQuote</v>
-        <stp/>
-        <stp>+s2yQuote</stp>
-        <stp>1131652183</stp>
-        <tr r="J28" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>+s15yQuote</v>
-        <stp/>
-        <stp>+s15yQuote</stp>
-        <stp>-663532123</stp>
-        <tr r="J32" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>calendar</v>
-        <stp/>
-        <stp>calendar</stp>
-        <stp>0</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>discount</v>
-        <stp/>
-        <stp>discount</stp>
-        <stp>0</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>+s3yQuote</v>
-        <stp/>
-        <stp>+s3yQuote</stp>
-        <stp>418569665</stp>
-        <tr r="J29" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>+d1mQuote</v>
-        <stp/>
-        <stp>+d1mQuote</stp>
-        <stp>-1161893447</stp>
-        <tr r="J23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>+d6mQuote</v>
-        <stp/>
-        <stp>+d6mQuote</stp>
-        <stp>-1169081440</stp>
-        <tr r="J25" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>zc1yRate</v>
-        <stp/>
-        <stp>zc1yRate</stp>
-        <stp>-910641281</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>USgovi</v>
-        <stp/>
-        <stp>USgovi</stp>
-        <stp>2</stp>
-        <tr r="H2" s="1"/>
-      </tp>
+        <v>FixedNPV</v>
+        <stp/>
+        <stp>FixedNPV</stp>
+        <stp>-77321281</stp>
+        <tr r="C54" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>bondhelper0</v>
+        <stp/>
+        <stp>bondhelper0</stp>
+        <stp>801305601</stp>
+        <tr r="M14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
       <tp t="s">
         <v>settlementDate</v>
         <stp/>
@@ -481,115 +1240,55 @@
         <tr r="B3" s="1"/>
       </tp>
       <tp t="s">
-        <v>instruments</v>
-        <stp/>
-        <stp>instruments</stp>
-        <stp>176754705</stp>
-        <tr r="B13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>termStructureDayCounter</v>
-        <stp/>
-        <stp>termStructureDayCounter</stp>
-        <stp>920816725</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>bondhelper4</v>
-        <stp/>
-        <stp>bondhelper4</stp>
-        <stp>-2048639617</stp>
-        <tr r="M18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>redemption</v>
-        <stp/>
-        <stp>redemption</stp>
-        <stp>1079574528</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>bondhelper1</v>
-        <stp/>
-        <stp>bondhelper1</stp>
-        <stp>-1629209217</stp>
-        <tr r="M15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>bondhelper0</v>
-        <stp/>
-        <stp>bondhelper0</stp>
-        <stp>-1008452225</stp>
-        <tr r="M14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>bondhelper3</v>
-        <stp/>
-        <stp>bondhelper3</stp>
-        <stp>-1679540865</stp>
-        <tr r="M17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>d9m</v>
-        <stp/>
-        <stp>d9m</stp>
-        <stp>146</stp>
-        <tr r="H26" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>zc6m</v>
-        <stp/>
-        <stp>zc6m</stp>
-        <stp>-1681391344</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>todaysDate</v>
-        <stp/>
-        <stp>todaysDate</stp>
-        <stp>728662016</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>fixingDays</v>
-        <stp/>
-        <stp>fixingDays</stp>
-        <stp>3</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>zc3m</v>
-        <stp/>
-        <stp>zc3m</stp>
-        <stp>637010192</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>marketQuotes4</v>
-        <stp/>
-        <stp>marketQuotes4</stp>
-        <stp>1079609600</stp>
-        <tr r="K18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>couponRates22</v>
-        <stp/>
-        <stp>couponRates22</stp>
-        <stp>1079584256</stp>
-        <tr r="J16" s="1"/>
-      </tp>
+        <v>floatingBondSchedule</v>
+        <stp/>
+        <stp>floatingBondSchedule</stp>
+        <stp>-508138342</stp>
+        <tr r="B44" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>USDLibor</v>
+        <stp/>
+        <stp>USDLibor</stp>
+        <stp>0</stp>
+        <tr r="J37" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>libor3mPeriod</v>
+        <stp/>
+        <stp>libor3mPeriod</stp>
+        <stp>50</stp>
+        <tr r="B38" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>Actual365Fixed</v>
+        <stp/>
+        <stp>Actual365Fixed</stp>
+        <stp>0</stp>
+        <tr r="E50" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>forwardStart</v>
+        <stp/>
+        <stp>forwardStart</stp>
+        <stp>19</stp>
+        <tr r="E47" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>depositDayCounter</v>
+        <stp/>
+        <stp>depositDayCounter</stp>
+        <stp>0</stp>
+        <tr r="E43" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
       <tp t="s">
         <v>tolerance</v>
         <stp/>
@@ -598,118 +1297,12 @@
         <tr r="B12" s="1"/>
       </tp>
       <tp t="s">
-        <v>marketQuotes1</v>
-        <stp/>
-        <stp>marketQuotes1</stp>
-        <stp>1079676416</stp>
-        <tr r="K15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>couponRates23</v>
-        <stp/>
-        <stp>couponRates23</stp>
-        <stp>1079602176</stp>
-        <tr r="J17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>Semiannual</v>
-        <stp/>
-        <stp>Semiannual</stp>
-        <stp>2</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>marketQuotes2</v>
-        <stp/>
-        <stp>marketQuotes2</stp>
-        <stp>1079584256</stp>
-        <tr r="K16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>couponRates24</v>
-        <stp/>
-        <stp>couponRates24</stp>
-        <stp>1079609600</stp>
-        <tr r="J18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>marketQuotes3</v>
-        <stp/>
-        <stp>marketQuotes3</stp>
-        <stp>1079602176</stp>
-        <tr r="K17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>couponRates21</v>
-        <stp/>
-        <stp>couponRates21</stp>
-        <stp>1079676416</stp>
-        <tr r="J15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>couponRates20</v>
-        <stp/>
-        <stp>couponRates20</stp>
-        <stp>1079580928</stp>
-        <tr r="J14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>schedule0</v>
-        <stp/>
-        <stp>schedule0</stp>
-        <stp>-1984533350</stp>
-        <tr r="L14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>schedule1</v>
-        <stp/>
-        <stp>schedule1</stp>
-        <stp>-1984533350</stp>
-        <tr r="L15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>schedule2</v>
-        <stp/>
-        <stp>schedule2</stp>
-        <stp>-1984533350</stp>
-        <tr r="L16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>schedule3</v>
-        <stp/>
-        <stp>schedule3</stp>
-        <stp>-1984533350</stp>
-        <tr r="L17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>schedule4</v>
-        <stp/>
-        <stp>schedule4</stp>
-        <stp>-1984533350</stp>
-        <tr r="L18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>+s10yQuote</v>
-        <stp/>
-        <stp>+s10yQuote</stp>
-        <stp>-1500142044</stp>
-        <tr r="J31" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
-      <tp t="s">
-        <v>depositDayCounter</v>
-        <stp/>
-        <stp>depositDayCounter</stp>
-        <stp>372029375</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a34ea3028e84882ab351e74240210fc">
+        <v>zc6m</v>
+        <stp/>
+        <stp>zc6m</stp>
+        <stp>-944272635</stp>
+        <tr r="H9" s="1"/>
+      </tp>
       <tp t="s">
         <v>zcBondsDayCounter</v>
         <stp/>
@@ -717,19 +1310,55 @@
         <stp>0</stp>
         <tr r="B7" s="1"/>
       </tp>
-      <tp t="s">
-        <v>marketQuotes0</v>
-        <stp/>
-        <stp>marketQuotes0</stp>
-        <stp>1079580928</stp>
-        <tr r="K14" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
       <tp t="s">
         <v>zc1y</v>
         <stp/>
         <stp>zc1y</stp>
-        <stp>1536688400</stp>
-        <tr r="G10" s="1"/>
+        <stp>1387760389</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>loglinier</v>
+        <stp/>
+        <stp>loglinier</stp>
+        <stp>0</stp>
+        <tr r="E44" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>USgovi</v>
+        <stp/>
+        <stp>USgovi</stp>
+        <stp>2</stp>
+        <tr r="E38" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>todaysDate</v>
+        <stp/>
+        <stp>todaysDate</stp>
+        <stp>1731735552</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a01026187ccf446ca1e7447eb960d32f">
+      <tp t="s">
+        <v>tt</v>
+        <stp/>
+        <stp>tt</stp>
+        <stp>28189627</stp>
+        <tr r="B55" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b403f236440e47f58fcda62a43abc462">
+      <tp t="s">
+        <v>#...ZeroNPV</v>
+        <stp/>
+        <stp>ZeroNPV</stp>
+        <stp/>
+        <tr r="B61" s="1"/>
       </tp>
     </main>
   </volType>
@@ -743,8 +1372,8 @@
     <tableColumn id="1" xr3:uid="{30624216-2A4A-4FB2-A438-A0E893FBF475}" name="Rate Helpers">
       <calculatedColumnFormula>E13+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{831E9FA0-88E0-49E0-AE96-CF9D39E3B95D}" name="issueDates" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{4A29C6AD-AA3B-48FC-8C55-759F58CC176A}" name="maturities" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{831E9FA0-88E0-49E0-AE96-CF9D39E3B95D}" name="issueDates" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{4A29C6AD-AA3B-48FC-8C55-759F58CC176A}" name="maturities" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{AAB7FA55-69AA-45E9-85B3-8C110E226A99}" name="couponRates"/>
     <tableColumn id="5" xr3:uid="{61096845-8F07-47BD-ACF4-B1BC41C41CC0}" name="marketQuotes"/>
     <tableColumn id="6" xr3:uid="{595DB301-65EB-4BF3-B019-508BB193E0E1}" name="couponRates2">
@@ -754,10 +1383,73 @@
       <calculatedColumnFormula>+_xll._SimpleQuote1($I$13&amp;E14,I14)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{2059FAF2-3C1F-4396-A8A0-6E26F9063B24}" name="schedule">
-      <calculatedColumnFormula>+_xll._Schedule($L$13&amp;E14,F14,G14,$H$3,$H$2,"Unadjusted","Unadjusted","Backward",FALSE)</calculatedColumnFormula>
+      <calculatedColumnFormula>+_xll._Schedule($L$13&amp;E14,F14,G14,$E$39,$E$38,"Unadjusted","Unadjusted","Backward",FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{9863F735-7058-4801-B04E-25142018594D}" name="bondhelper">
-      <calculatedColumnFormula>+_xll._FixedRateBondHelper($M$13&amp;E14,K14,$B$5,100,L14,J14,$H$4,"Unadjusted",$B$11,F14,,,,"Unadjusted")</calculatedColumnFormula>
+      <calculatedColumnFormula>+_xll._FixedRateBondHelper($M$13&amp;E14,K14,$B$5,100,L14,J14,$E$40,"Unadjusted",$B$11,F14,,,,"Unadjusted")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{92944E0A-F049-46BC-80C9-7D08FF9324A6}" name="Table2" displayName="Table2" ref="E21:K32" totalsRowShown="0">
+  <autoFilter ref="E21:K32" xr:uid="{A7C54E81-868E-4E07-BF71-3E49304761A1}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{FDEC2EA4-1845-4829-A25C-013CC1581A30}" name="libor forcast"/>
+    <tableColumn id="2" xr3:uid="{B9F9B642-D128-4BC7-AD67-DBEA2817DC64}" name="num"/>
+    <tableColumn id="3" xr3:uid="{4A0E5ACC-CE6E-4084-8811-777D250B88D9}" name="Time Unit"/>
+    <tableColumn id="4" xr3:uid="{DD2CEF86-145A-493F-8FC7-DACA8C429C75}" name="Period">
+      <calculatedColumnFormula>+_xll._Period(E22,F22,G22)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B516845A-48C2-4FB1-9506-06D268946E5B}" name="Quote"/>
+    <tableColumn id="6" xr3:uid="{488D7C35-8385-4EC4-B7F6-06F40505B9A3}" name="quote handle">
+      <calculatedColumnFormula>+_xll._SimpleQuote1("+"&amp;E22&amp;$I$21,I22)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{CD46990C-C7E6-459A-8865-71D0CBE2E5C8}" name="rate helpers">
+      <calculatedColumnFormula>+_xll._DepositRateHelper(E22&amp;$K$21,J22,H22,$B$4,$A$2,"ModifiedFollowing",TRUE,$E$43)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49E649B4-7013-45F8-A17A-EFB74C8CA0CC}" name="Table4" displayName="Table4" ref="E7:H10" totalsRowShown="0">
+  <autoFilter ref="E7:H10" xr:uid="{9E0B7CC8-3E72-4CE7-A238-A5BF9B5E9B3F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{BBC6DF34-E278-4ACE-BE28-51EA65C22E71}" name="Period">
+      <calculatedColumnFormula>+_xll._Period(A8&amp;$E$7,F8,G8)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{04FFB79B-E054-4784-9F3D-84CFF62649AC}" name="n"/>
+    <tableColumn id="3" xr3:uid="{02655EA1-24E0-4A3C-96F8-E6F391BB3A5C}" name="perd"/>
+    <tableColumn id="4" xr3:uid="{BDFFB7BD-FF95-40CF-B8F1-23DF6BA79112}" name="Deposit rate">
+      <calculatedColumnFormula>+_xll._DepositRateHelper(A8,B8,E8,$B$4,$B$2,"ModifiedFollowing",TRUE,$A$7)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{200916CA-8866-4ABB-95C6-E68C015A2407}" name="Table6" displayName="Table6" ref="E37:E51" totalsRowCount="1" totalsRowDxfId="3">
+  <autoFilter ref="E37:E50" xr:uid="{2E13EC85-7DD7-4F51-AA6C-AF7352993588}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{F60E9F8E-FC34-4B66-AB75-67E399A2AD21}" name="Globals" totalsRowDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D5B84346-88C8-4DC9-8558-17A9C98AFC08}" name="Table7" displayName="Table7" ref="H38:J40" totalsRowShown="0">
+  <autoFilter ref="H38:J40" xr:uid="{F4557D5D-5150-47AF-9F4D-5B97D939C9A4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C93234DA-6DED-4059-ACA3-5521557B000C}" name="Date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F661128B-18D1-4711-B09E-F7E26B189E71}" name="Value"/>
+    <tableColumn id="3" xr3:uid="{214FEA24-233F-40C1-A79B-3DD426558BEE}" name="Fixing" dataDxfId="0">
+      <calculatedColumnFormula>+_xll._USDLibor_addFixing($J$37&amp;G39,J37,_xll._Date1(Table7[[#Headers],[Fixing]]&amp;G39,Table7[[#This Row],[Date]]),Table7[[#This Row],[Value]],TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1061,20 +1753,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28025E14-2DBA-4FA2-A060-A0CB22BD8F4F}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.453125" customWidth="1"/>
+    <col min="1" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7265625" customWidth="1"/>
     <col min="10" max="10" width="14.6328125" customWidth="1"/>
@@ -1099,10 +1791,6 @@
         <f>+_xll._TARGET(A2)</f>
         <v>calendar</v>
       </c>
-      <c r="H2" t="str">
-        <f>+_xll._UnitedStates("US govi","GovernmentBond")</f>
-        <v>USgovi</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1115,10 +1803,6 @@
       <c r="C3" s="1">
         <v>39709</v>
       </c>
-      <c r="H3" t="str">
-        <f>+_xll._Period2("Semiannual","Semiannual")</f>
-        <v>Semiannual</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1131,10 +1815,6 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="H4" t="str">
-        <f>+_xll._ActualActual1("ActualActualBond","Bond")</f>
-        <v>ActualActualBond</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1147,10 +1827,6 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="H5" t="str">
-        <f>+_xll._ActualActual1("termStructureDayCounter","ISDA")</f>
-        <v>termStructureDayCounter</v>
-      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1160,10 +1836,6 @@
         <f>+_xll._TARGET_advance1(A6,B2,B3,B4,"Days","Following",FALSE)</f>
         <v>todaysDate</v>
       </c>
-      <c r="H6" t="str">
-        <f>+_xll._Discount("discount")</f>
-        <v>discount</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1173,9 +1845,17 @@
         <f>+_xll._Actual365Fixed(A7)</f>
         <v>zcBondsDayCounter</v>
       </c>
-      <c r="H7" t="str">
-        <f>+_xll._Actual360("depositDayCounter")</f>
-        <v>depositDayCounter</v>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1189,18 +1869,18 @@
       <c r="C8">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="D8" t="str">
-        <f>+_xll._Period(A8&amp;"Period",E8,F8)</f>
+      <c r="E8" t="str">
+        <f>+_xll._Period(A8&amp;$E$7,F8,G8)</f>
         <v>zc3mPeriod</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" t="str">
-        <f>+_xll._DepositRateHelper(A8,B8,D8,$B$4,$B$2,"ModifiedFollowing",TRUE,$A$7)</f>
+      <c r="H8" t="str">
+        <f>+_xll._DepositRateHelper(A8,B8,E8,$B$4,$B$2,"ModifiedFollowing",TRUE,$A$7)</f>
         <v>zc3m</v>
       </c>
     </row>
@@ -1215,18 +1895,18 @@
       <c r="C9">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="D9" t="str">
-        <f>+_xll._Period(A9&amp;"Period",E9,F9)</f>
+      <c r="E9" t="str">
+        <f>+_xll._Period(A9&amp;$E$7,F9,G9)</f>
         <v>zc6mPeriod</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" t="str">
-        <f>+_xll._DepositRateHelper(A9,B9,D9,$B$4,$B$2,"ModifiedFollowing",TRUE,$A$7)</f>
+      <c r="H9" t="str">
+        <f>+_xll._DepositRateHelper(A9,B9,E9,$B$4,$B$2,"ModifiedFollowing",TRUE,$A$7)</f>
         <v>zc6m</v>
       </c>
     </row>
@@ -1241,18 +1921,18 @@
       <c r="C10">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="D10" t="str">
-        <f>+_xll._Period(A10&amp;"Period",E10,F10)</f>
+      <c r="E10" t="str">
+        <f>+_xll._Period(A10&amp;$E$7,F10,G10)</f>
         <v>zc1yPeriod</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" t="str">
-        <f>+_xll._DepositRateHelper(A10,B10,D10,$B$4,$B$2,"ModifiedFollowing",TRUE,$A$7)</f>
+      <c r="H10" t="str">
+        <f>+_xll._DepositRateHelper(A10,B10,E10,$B$4,$B$2,"ModifiedFollowing",TRUE,$A$7)</f>
         <v>zc1y</v>
       </c>
     </row>
@@ -1282,14 +1962,14 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="str">
+        <f>+_xll._RateHelper_Range(A13,H8:H10)</f>
+        <v>instruments</v>
+      </c>
+      <c r="E13" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" t="str">
-        <f>+_xll._RateHelper_Range(A13,G8:G10)</f>
-        <v>instruments</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1304,10 +1984,10 @@
         <v>17</v>
       </c>
       <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
         <v>24</v>
-      </c>
-      <c r="K13" t="s">
-        <v>25</v>
       </c>
       <c r="L13" t="s">
         <v>18</v>
@@ -1317,6 +1997,13 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="str">
+        <f>+_xll._RateHelper_Range(A14,Table4[Deposit rate])</f>
+        <v>bondInstruments</v>
+      </c>
       <c r="E14">
         <v>0</v>
       </c>
@@ -1341,15 +2028,22 @@
         <v>marketQuotes0</v>
       </c>
       <c r="L14" t="str">
-        <f>+_xll._Schedule($L$13&amp;E14,F14,G14,$H$3,$H$2,"Unadjusted","Unadjusted","Backward",FALSE)</f>
+        <f>+_xll._Schedule($L$13&amp;E14,F14,G14,$E$39,$E$38,"Unadjusted","Unadjusted","Backward",FALSE)</f>
         <v>schedule0</v>
       </c>
       <c r="M14" t="str">
-        <f>+_xll._FixedRateBondHelper($M$13&amp;E14,K14,$B$5,100,L14,J14,$H$4,"Unadjusted",$B$11,F14,,,,"Unadjusted")</f>
+        <f>+_xll._FixedRateBondHelper($M$13&amp;E14,K14,$B$5,100,L14,J14,$E$40,"Unadjusted",$B$11,F14,,,,"Unadjusted")</f>
         <v>bondhelper0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="str">
+        <f>+_xll._PiecewiseYieldCurve(A15,E42,B3,B14,E41,,,B12,E44)</f>
+        <v>bondDiscountingTermStructure</v>
+      </c>
       <c r="E15">
         <f>E14+1</f>
         <v>1</v>
@@ -1375,15 +2069,22 @@
         <v>marketQuotes1</v>
       </c>
       <c r="L15" t="str">
-        <f>+_xll._Schedule($L$13&amp;E15,F15,G15,$H$3,$H$2,"Unadjusted","Unadjusted","Backward",FALSE)</f>
+        <f>+_xll._Schedule($L$13&amp;E15,F15,G15,$E$39,$E$38,"Unadjusted","Unadjusted","Backward",FALSE)</f>
         <v>schedule1</v>
       </c>
       <c r="M15" t="str">
-        <f>+_xll._FixedRateBondHelper($M$13&amp;E15,K15,$B$5,100,L15,J15,$H$4,"Unadjusted",$B$11,F15,,,,"Unadjusted")</f>
+        <f>+_xll._FixedRateBondHelper($M$13&amp;E15,K15,$B$5,100,L15,J15,$E$40,"Unadjusted",$B$11,F15,,,,"Unadjusted")</f>
         <v>bondhelper1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="str">
+        <f>+_xll._RateHelper_Range(A16,K22:K32)</f>
+        <v>depoSwapInstruments</v>
+      </c>
       <c r="E16">
         <f>E15+1</f>
         <v>2</v>
@@ -1409,15 +2110,22 @@
         <v>marketQuotes2</v>
       </c>
       <c r="L16" t="str">
-        <f>+_xll._Schedule($L$13&amp;E16,F16,G16,$H$3,$H$2,"Unadjusted","Unadjusted","Backward",FALSE)</f>
+        <f>+_xll._Schedule($L$13&amp;E16,F16,G16,$E$39,$E$38,"Unadjusted","Unadjusted","Backward",FALSE)</f>
         <v>schedule2</v>
       </c>
       <c r="M16" t="str">
-        <f>+_xll._FixedRateBondHelper($M$13&amp;E16,K16,$B$5,100,L16,J16,$H$4,"Unadjusted",$B$11,F16,,,,"Unadjusted")</f>
+        <f>+_xll._FixedRateBondHelper($M$13&amp;E16,K16,$B$5,100,L16,J16,$E$40,"Unadjusted",$B$11,F16,,,,"Unadjusted")</f>
         <v>bondhelper2</v>
       </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="str">
+        <f>+_xll._PiecewiseYieldCurve(A17,E42,B3,B16,E41,,,B12,E44)</f>
+        <v>depoSwapTermStructure</v>
+      </c>
       <c r="E17">
         <f>E16+1</f>
         <v>3</v>
@@ -1443,15 +2151,15 @@
         <v>marketQuotes3</v>
       </c>
       <c r="L17" t="str">
-        <f>+_xll._Schedule($L$13&amp;E17,F17,G17,$H$3,$H$2,"Unadjusted","Unadjusted","Backward",FALSE)</f>
+        <f>+_xll._Schedule($L$13&amp;E17,F17,G17,$E$39,$E$38,"Unadjusted","Unadjusted","Backward",FALSE)</f>
         <v>schedule3</v>
       </c>
       <c r="M17" t="str">
-        <f>+_xll._FixedRateBondHelper($M$13&amp;E17,K17,$B$5,100,L17,J17,$H$4,"Unadjusted",$B$11,F17,,,,"Unadjusted")</f>
+        <f>+_xll._FixedRateBondHelper($M$13&amp;E17,K17,$B$5,100,L17,J17,$E$40,"Unadjusted",$B$11,F17,,,,"Unadjusted")</f>
         <v>bondhelper3</v>
       </c>
     </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E18">
         <f>E17+1</f>
         <v>4</v>
@@ -1477,46 +2185,59 @@
         <v>marketQuotes4</v>
       </c>
       <c r="L18" t="str">
-        <f>+_xll._Schedule($L$13&amp;E18,F18,G18,$H$3,$H$2,"Unadjusted","Unadjusted","Backward",FALSE)</f>
+        <f>+_xll._Schedule($L$13&amp;E18,F18,G18,$E$39,$E$38,"Unadjusted","Unadjusted","Backward",FALSE)</f>
         <v>schedule4</v>
       </c>
       <c r="M18" t="str">
-        <f>+_xll._FixedRateBondHelper($M$13&amp;E18,K18,$B$5,100,L18,J18,$H$4,"Unadjusted",$B$11,F18,,,,"Unadjusted")</f>
+        <f>+_xll._FixedRateBondHelper($M$13&amp;E18,K18,$B$5,100,L18,J18,$E$40,"Unadjusted",$B$11,F18,,,,"Unadjusted")</f>
         <v>bondhelper4</v>
       </c>
     </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="str">
+        <f>+_xll._Double(A22,C22)</f>
+        <v>faceAmount</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
         <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E22" t="s">
-        <v>27</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" t="str">
         <f>+_xll._Period(E22,F22,G22)</f>
@@ -1530,13 +2251,23 @@
         <v>+d1wQuote</v>
       </c>
       <c r="K22" t="str">
-        <f>+_xll._DepositRateHelper(E22,J22,H22,H7,A2,"ModifiedFollowing",TRUE,H7)</f>
-        <v>#Specified cast is not valid.</v>
-      </c>
-    </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.35">
+        <f>+_xll._DepositRateHelper(E22&amp;$K$21,J22,H22,$B$4,$A$2,"ModifiedFollowing",TRUE,$E$43)</f>
+        <v>d1wratehelpers</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="str">
+        <f>+_xll._Double(A23,C23)</f>
+        <v>RemptionAmount</v>
+      </c>
+      <c r="C23">
+        <v>116.62</v>
+      </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1555,10 +2286,21 @@
         <f>+_xll._SimpleQuote1("+"&amp;E23&amp;$I$21,I23)</f>
         <v>+d1mQuote</v>
       </c>
-    </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="K23" t="str">
+        <f>+_xll._DepositRateHelper(E23&amp;$K$21,J23,H23,$B$4,$A$2,"ModifiedFollowing",TRUE,$E$43)</f>
+        <v>d1mratehelpers</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="str">
+        <f>+_xll._DiscountingBondEngine(A24,B15,TRUE)</f>
+        <v>bondEngine</v>
+      </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -1577,10 +2319,24 @@
         <f>+_xll._SimpleQuote1("+"&amp;E24&amp;$I$21,I24)</f>
         <v>+d3mQuote</v>
       </c>
-    </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="K24" t="str">
+        <f>+_xll._DepositRateHelper(E24&amp;$K$21,J24,H24,$B$4,$A$2,"ModifiedFollowing",TRUE,$E$43)</f>
+        <v>d3mratehelpers</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="str">
+        <f>+_xll._Date1(A25,C25)</f>
+        <v>ZeroSettlementDate</v>
+      </c>
+      <c r="C25" s="2">
+        <v>41501</v>
+      </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -1599,10 +2355,24 @@
         <f>+_xll._SimpleQuote1("+"&amp;E25&amp;$I$21,I25)</f>
         <v>+d6mQuote</v>
       </c>
-    </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="K25" t="str">
+        <f>+_xll._DepositRateHelper(E25&amp;$K$21,J25,H25,$B$4,$A$2,"ModifiedFollowing",TRUE,$E$43)</f>
+        <v>d6mratehelpers</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="str">
+        <f>+_xll._Date1(A26,C26)</f>
+        <v>ZeroIssueDate</v>
+      </c>
+      <c r="C26" s="2">
+        <v>37848</v>
+      </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26">
         <v>9</v>
@@ -1621,10 +2391,21 @@
         <f>+_xll._SimpleQuote1("+"&amp;E26&amp;$I$21,I26)</f>
         <v>+d9mQuote</v>
       </c>
-    </row>
-    <row r="27" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="K26" t="str">
+        <f>+_xll._DepositRateHelper(E26&amp;$K$21,J26,H26,$B$4,$A$2,"ModifiedFollowing",TRUE,$E$43)</f>
+        <v>d9mratehelpers</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="str">
+        <f>+_xll._ZeroCouponBond(A27,B5,B2,B22,B25,"Following",B23,C26,B24,B6)</f>
+        <v>zeroCouponBond</v>
+      </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1643,10 +2424,14 @@
         <f>+_xll._SimpleQuote1("+"&amp;E27&amp;$I$21,I27)</f>
         <v>+d1yQuote</v>
       </c>
-    </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="K27" t="str">
+        <f>+_xll._DepositRateHelper(E27&amp;$K$21,J27,H27,$B$4,$A$2,"ModifiedFollowing",TRUE,$E$43)</f>
+        <v>d1yratehelpers</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1665,10 +2450,17 @@
         <f>+_xll._SimpleQuote1("+"&amp;E28&amp;$I$21,I28)</f>
         <v>+s2yQuote</v>
       </c>
-    </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="K28" t="str">
+        <f>+_xll._DepositRateHelper(E28&amp;$K$21,J28,H28,$B$4,$A$2,"ModifiedFollowing",TRUE,$E$43)</f>
+        <v>s2yratehelpers</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -1687,10 +2479,24 @@
         <f>+_xll._SimpleQuote1("+"&amp;E29&amp;$I$21,I29)</f>
         <v>+s3yQuote</v>
       </c>
-    </row>
-    <row r="30" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="K29" t="str">
+        <f>+_xll._DepositRateHelper(E29&amp;$K$21,J29,H29,$B$4,$A$2,"ModifiedFollowing",TRUE,$E$43)</f>
+        <v>s3yratehelpers</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="str">
+        <f>+_xll._Double(A30,C30)</f>
+        <v>FixedRedemption</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -1709,10 +2515,24 @@
         <f>+_xll._SimpleQuote1("+"&amp;E30&amp;$I$21,I30)</f>
         <v>+s5yQuote</v>
       </c>
-    </row>
-    <row r="31" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="K30" t="str">
+        <f>+_xll._DepositRateHelper(E30&amp;$K$21,J30,H30,$B$4,$A$2,"ModifiedFollowing",TRUE,$E$43)</f>
+        <v>s5yratehelpers</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="str">
+        <f>+_xll._Date1(A31,C31)</f>
+        <v>FixedSettlementDatte</v>
+      </c>
+      <c r="C31" s="2">
+        <v>42870</v>
+      </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -1731,10 +2551,24 @@
         <f>+_xll._SimpleQuote1("+"&amp;E31&amp;$I$21,I31)</f>
         <v>+s10yQuote</v>
       </c>
-    </row>
-    <row r="32" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="K31" t="str">
+        <f>+_xll._DepositRateHelper(E31&amp;$K$21,J31,H31,$B$4,$A$2,"ModifiedFollowing",TRUE,$E$43)</f>
+        <v>s10yratehelpers</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="str">
+        <f>+_xll._Date1(A32,C32)</f>
+        <v>FixedIssueDate</v>
+      </c>
+      <c r="C32" s="2">
+        <v>39217</v>
+      </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32">
         <v>15</v>
@@ -1753,20 +2587,372 @@
         <f>+_xll._SimpleQuote1("+"&amp;E32&amp;$I$21,I32)</f>
         <v>+s15yQuote</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="K32" t="str">
+        <f>+_xll._DepositRateHelper(E32&amp;$K$21,J32,H32,$B$4,$A$2,"ModifiedFollowing",TRUE,$E$43)</f>
+        <v>s15yratehelpers</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="str">
+        <f>+_xll._Schedule(A33,C32,C31,E39,B2,"Unadjusted","Unadjusted","Backward",FALSE)</f>
+        <v>fixedBondSchedule</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="str">
+        <f>+_xll._Double_Range(A34,C34)</f>
+        <v>FixedRateCoupon</v>
+      </c>
+      <c r="C34" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="str">
+        <f>+_xll._FixedRateBond(A35,B5,B22,B33,B34,E40,"ModifiedFollowing",B30,B32,B2,,,,,B24,B6)</f>
+        <v>FixedRateBond</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" t="str">
+        <f>+_xll._USDLibor(H37,B38)</f>
+        <v>USDLibor</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="str">
+        <f>+_xll._Period(A38,3,"Months")</f>
+        <v>libor3mPeriod</v>
+      </c>
+      <c r="E38" t="str">
+        <f>+_xll._UnitedStates("US govi","GovernmentBond")</f>
+        <v>USgovi</v>
+      </c>
+      <c r="H38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="str">
+        <f>+_xll._Double(A39,C39)</f>
+        <v>FloatRedemption</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="E39" t="str">
+        <f>+_xll._Period2("Semiannual","Semiannual")</f>
+        <v>Semiannual</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>39646</v>
+      </c>
+      <c r="I39">
+        <v>2.7862499999999998E-2</v>
+      </c>
+      <c r="J39" t="str">
+        <f>+_xll._USDLibor_addFixing($J$37&amp;G39,J37,_xll._Date1(Table7[[#Headers],[Fixing]]&amp;G39,Table7[[#This Row],[Date]]),Table7[[#This Row],[Value]],TRUE)</f>
+        <v>USDLibor1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B40" t="str">
-        <f>+_xll._PiecewiseYieldCurve(A40,$B$5,B5,B13,H5)</f>
-        <v>#Unable to cast object of type 'Cephei.Cell.Generic.CellFast`1[System.Int32]' to type 'Cephei.Cell.Generic.ICell`1[QLNet.Date]'.</v>
+        <f>+_xll._Date1(A40,C40)</f>
+        <v>FloatSettlementDatte</v>
+      </c>
+      <c r="C40" s="2">
+        <v>40472</v>
+      </c>
+      <c r="E40" t="str">
+        <f>+_xll._ActualActual1("ActualActualBond","Bond")</f>
+        <v>ActualActualBond</v>
+      </c>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="str">
+        <f>+_xll._Date1(A41,C41)</f>
+        <v>FloatIssueDate</v>
+      </c>
+      <c r="C41" s="2">
+        <v>38646</v>
+      </c>
+      <c r="E41" t="str">
+        <f>+_xll._ActualActual1("termStructureDayCounter","ISDA")</f>
+        <v>termStructureDayCounter</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="str">
+        <f>+_xll._Double_Range(A42,C42)</f>
+        <v>Gearing</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="str">
+        <f>+_xll._Discount("discount")</f>
+        <v>discount</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="str">
+        <f>+_xll._Double_Range(A43,C43)</f>
+        <v>Spreads</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="E43" t="str">
+        <f>+_xll._Actual360("depositDayCounter")</f>
+        <v>depositDayCounter</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="str">
+        <f>+_xll._Schedule(A44,B41,B40,E49,B2,"Unadjusted","Unadjusted","Backward",FALSE)</f>
+        <v>floatingBondSchedule</v>
+      </c>
+      <c r="E44" t="str">
+        <f>+_xll._LogLinear("log linier")</f>
+        <v>loglinier</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="str">
+        <f>+_xll._FloatingRateBond2(A45,B5,B22,B44,J39,E48,"ModifiedFollowing",2,+B42,B43,,,TRUE,B39,B41,B24,B6)</f>
+        <v>floatingRateBond</v>
+      </c>
+      <c r="E45" t="str">
+        <f>+_xll._Thirty360("swFixedLegDayCounter","European")</f>
+        <v>swFixedLegDayCounter</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="str">
+        <f>+_xll._BlackIborCouponPricer(A46)</f>
+        <v>#Object reference not set to an instance of an object.</v>
+      </c>
+      <c r="E46" t="str">
+        <f>+_xll._Euribor6M1("swFloatingLegIndex")</f>
+        <v>swFloatingLegIndex</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" t="str">
+        <f>+_xll._Double(A47,C47)</f>
+        <v>optionletvolitility</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <f>+_xll._Period("forwardStart",1,"Years")</f>
+        <v>forwardStart</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" t="str">
+        <f>+_xll._ConstantOptionletVolatility1(A48,B5,B2,"ModifiedFollowing",B47,E50)</f>
+        <v>ConstantOptionletVolatility</v>
+      </c>
+      <c r="E48" t="str">
+        <f>+_xll._Actual360("actual 360")</f>
+        <v>actual360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" t="str">
+        <f>+_xll._FloatingRateBond_cashflows(A49,B45)</f>
+        <v>floatingRateBondcashflows</v>
+      </c>
+      <c r="E49" t="str">
+        <f>+_xll._Period2("Quarterly","Quarterly")</f>
+        <v>Quarterly</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B50" t="str">
+        <f>+_xll._FloatingRateBond_SetCouponPricer(B45&amp;2,B45,B46)</f>
+        <v>#Invalid FloatingRateCouponPricer_x000D_
+Parameter name: #Object reference not set to an instance of an object.</v>
+      </c>
+      <c r="E50" t="str">
+        <f>+_xll._Actual365Fixed("Actual365Fixed")</f>
+        <v>Actual365Fixed</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E51" s="6"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="str">
+        <f>_xll._Instrument_NPV(B$53&amp;$A54,B27)</f>
+        <v>ZeroNPV</v>
+      </c>
+      <c r="C54" t="str">
+        <f>+_xll._Instrument_NPV(C$53&amp;$A54,B35)</f>
+        <v>FixedNPV</v>
+      </c>
+      <c r="D54" t="str">
+        <f>+_xll._Instrument_NPV(D$53&amp;$A54,B50)</f>
+        <v>#Invalid Instrument_x000D_
+Parameter name: #Invalid FloatingRateCouponPricer_x000D_
+Parameter name: #Object reference not set to an instance of an object.</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" t="str">
+        <f>+_xll._ZeroCouponBond_NPV("tt",B27)</f>
+        <v>tt</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B61" t="str">
+        <f>+_xll._Value(B54)</f>
+        <v>#...ZeroNPV</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B62" t="str">
+        <f>+_xll._Value(B55)</f>
+        <v>#Specified method is not supported.</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="5">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843482BC-B240-4698-9706-57ABB6FE50F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C89" workbookViewId="0">
+      <selection activeCell="H131" sqref="H131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="35" width="27.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Cephei.XL/Bond1.xlsx
+++ b/Cephei.XL/Bond1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\source\repos\Cephei2\Cephei.XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE193A81-0AC6-4DB4-B75D-EEF14787E51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9725F6F9-81C8-4B1E-AB37-36537A22119F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{1287AFFA-50F8-48B2-8168-E284DC333339}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{1287AFFA-50F8-48B2-8168-E284DC333339}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>calendar</t>
   </si>
@@ -301,9 +301,6 @@
     <t>bondDiscountingTermStructure</t>
   </si>
   <si>
-    <t>bondEngine</t>
-  </si>
-  <si>
     <t>NPV</t>
   </si>
   <si>
@@ -329,6 +326,15 @@
   </si>
   <si>
     <t>+settlementDate</t>
+  </si>
+  <si>
+    <t>bondEnginez</t>
+  </si>
+  <si>
+    <t>bondEnginefi</t>
+  </si>
+  <si>
+    <t>bondEnginefl</t>
   </si>
 </sst>
 </file>
@@ -552,21 +558,57 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>FloatingNPV</v>
+        <v>marketQuotes4</v>
         <stp/>
-        <stp>FloatingNPV</stp>
-        <stp>588410313</stp>
-        <tr r="D56" s="1"/>
+        <stp>marketQuotes4</stp>
+        <stp>0</stp>
+        <tr r="K18" s="1"/>
       </tp>
       <tp t="s">
-        <v>s2y</v>
+        <v>FixedSettlementDatte</v>
         <stp/>
-        <stp>s2y</stp>
-        <stp>2119925512</stp>
-        <tr r="H28" s="1"/>
+        <stp>FixedSettlementDatte</stp>
+        <stp>-798541351</stp>
+        <tr r="B33" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>Semiannual</v>
+        <stp/>
+        <stp>Semiannual</stp>
+        <stp>1704154923</stp>
+        <tr r="E39" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>marketQuotes1</v>
+        <stp/>
+        <stp>marketQuotes1</stp>
+        <stp>0</stp>
+        <tr r="K15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>marketQuotes0</v>
+        <stp/>
+        <stp>marketQuotes0</stp>
+        <stp>0</stp>
+        <tr r="K14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>zc1y</v>
+        <stp/>
+        <stp>zc1y</stp>
+        <stp>-2050528296</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>couponRate0</v>
         <stp/>
@@ -575,7 +617,7 @@
         <tr r="J14" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>marketQuotes3</v>
         <stp/>
@@ -584,26 +626,14 @@
         <tr r="K17" s="1"/>
       </tp>
       <tp t="s">
-        <v>d1y</v>
+        <v>+settlementDate</v>
         <stp/>
-        <stp>d1y</stp>
-        <stp>2119925464</stp>
-        <tr r="H27" s="1"/>
+        <stp>+settlementDate</stp>
+        <stp>-569911532</stp>
+        <tr r="B3" s="1"/>
       </tp>
-      <tp t="s">
-        <v>s3y</v>
-        <stp/>
-        <stp>s3y</stp>
-        <stp>2119925496</stp>
-        <tr r="H29" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>s5y</v>
-        <stp/>
-        <stp>s5y</stp>
-        <stp>2119925400</stp>
-        <tr r="H30" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>marketQuotes2</v>
         <stp/>
@@ -611,89 +641,44 @@
         <stp>0</stp>
         <tr r="K16" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>FixedRateBond</v>
+        <v>floatcouponpricer2</v>
         <stp/>
-        <stp>FixedRateBond</stp>
-        <stp>-1992100456</stp>
-        <tr r="B37" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>todaysDateSer</v>
-        <stp/>
-        <stp>todaysDateSer</stp>
-        <stp>-1204259704</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>marketQuotes1</v>
-        <stp/>
-        <stp>marketQuotes1</stp>
-        <stp>0</stp>
-        <tr r="K15" s="1"/>
+        <stp>floatcouponpricer2</stp>
+        <stp>1878722209</stp>
+        <tr r="B51" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>marketQuotes0</v>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>0.56211286639560409</v>
         <stp/>
-        <stp>marketQuotes0</stp>
-        <stp>0</stp>
-        <tr r="K14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>s10yratehelpers</v>
+        <stp>FloatingFixedZeroAccruedcoupon</stp>
         <stp/>
-        <stp>s10yratehelpers</stp>
-        <stp>154939048</stp>
-        <tr r="K31" s="1"/>
+        <tr r="D67" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>zc1y</v>
+        <v>FixedZeroPreviouscoupon</v>
         <stp/>
-        <stp>zc1y</stp>
-        <stp>-2050528296</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>s15yratehelpers</v>
-        <stp/>
-        <stp>s15yratehelpers</stp>
-        <stp>-96719192</stp>
-        <tr r="K32" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>zc3mRate</v>
-        <stp/>
-        <stp>zc3mRate</stp>
-        <stp>0</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>zc6mRate</v>
-        <stp/>
-        <stp>zc6mRate</stp>
-        <stp>0</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>FixedSettlementDatte</v>
-        <stp/>
-        <stp>FixedSettlementDatte</stp>
-        <stp>-798541351</stp>
-        <tr r="B33" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>marketQuotes4</v>
-        <stp/>
-        <stp>marketQuotes4</stp>
-        <stp>0</stp>
-        <tr r="K18" s="1"/>
+        <stp>FixedZeroPreviouscoupon</stp>
+        <stp>815396861</stp>
+        <tr r="C60" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>d1mratehelpers</v>
+        <stp/>
+        <stp>d1mratehelpers</stp>
+        <stp>-1371787608</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>swFloatingLegIndex</v>
         <stp/>
@@ -701,6 +686,79 @@
         <stp>0</stp>
         <tr r="E46" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>86.317292342665496</v>
+        <stp/>
+        <stp>ZeroDirtyPrice</stp>
+        <stp/>
+        <tr r="B66" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>zc3m</v>
+        <stp/>
+        <stp>zc3m</stp>
+        <stp>-1010340904</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d9mRate</v>
+        <stp/>
+        <stp>d9mRate</stp>
+        <stp>0</stp>
+        <tr r="J26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d6mRate</v>
+        <stp/>
+        <stp>d6mRate</stp>
+        <stp>0</stp>
+        <tr r="J25" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d3mRate</v>
+        <stp/>
+        <stp>d3mRate</stp>
+        <stp>0</stp>
+        <tr r="J24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d1mRate</v>
+        <stp/>
+        <stp>d1mRate</stp>
+        <stp>0</stp>
+        <tr r="J23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>bondDiscountingTermStructure</v>
+        <stp/>
+        <stp>bondDiscountingTermStructure</stp>
+        <stp>-1358081960</stp>
+        <tr r="B17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FloatingFixedZeroAccruedcoupon</v>
+        <stp/>
+        <stp>FloatingFixedZeroAccruedcoupon</stp>
+        <stp>-1208119139</stp>
+        <tr r="D59" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>#no coupon paid at cashflow date 15/08/2013</v>
+        <stp/>
+        <stp>ZeroNextcoupon</stp>
+        <stp>1029105693#</stp>
+        <tr r="B61" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>FixedRateCashflow</v>
         <stp/>
@@ -708,33 +766,696 @@
         <stp>-77321281</stp>
         <tr r="B38" s="1"/>
       </tp>
+      <tp t="s">
+        <v>+settlementDateAdjustedSer</v>
+        <stp/>
+        <stp>+settlementDateAdjustedSer</stp>
+        <stp>-649169906</stp>
+        <tr r="C4" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>d1w</v>
+        <v>faceAmount</v>
         <stp/>
-        <stp>d1w</stp>
-        <stp>-303078293</stp>
-        <tr r="H22" s="1"/>
+        <stp>faceAmount</stp>
+        <stp>1079574528</stp>
+        <tr r="B24" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>2.8862499999999999E-2</v>
+        <stp/>
+        <stp>FloatingFixedZeroPreviouscoupon</stp>
+        <stp/>
+        <tr r="D68" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>redemption</v>
+        <stp/>
+        <stp>redemption</stp>
+        <stp>1079574528</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>bondhelper4</v>
+        <stp/>
+        <stp>bondhelper4</stp>
+        <stp>-1090572417</stp>
+        <tr r="M18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>4.4999999999999998E-2</v>
+        <stp/>
+        <stp>FixedZeroPreviouscoupon</stp>
+        <stp/>
+        <tr r="C68" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>FixedNextcoupon</v>
+        <stp/>
+        <stp>FixedNextcoupon</stp>
+        <stp>815396861</stp>
+        <tr r="C61" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>d1wRate</v>
+        <stp/>
+        <stp>d1wRate</stp>
+        <stp>0</stp>
+        <tr r="J22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>floatingBondSchedule</v>
+        <stp/>
+        <stp>floatingBondSchedule</stp>
+        <stp>-2089128530</stp>
+        <tr r="B46" s="1"/>
       </tp>
       <tp t="s">
-        <v>bondDiscountingTermStructure</v>
+        <v>ZeroPreviouscoupon</v>
         <stp/>
-        <stp>bondDiscountingTermStructure</stp>
-        <stp>-1358081960</stp>
-        <tr r="B17" s="1"/>
+        <stp>ZeroPreviouscoupon</stp>
+        <stp>1029105693</stp>
+        <tr r="B60" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>s2yratehelpers</v>
+        <stp/>
+        <stp>s2yratehelpers</stp>
+        <stp>-63164760</stp>
+        <tr r="K28" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>zc3m</v>
+        <v>FloatingDirtyPrice</v>
         <stp/>
-        <stp>zc3m</stp>
-        <stp>-1010340904</stp>
-        <tr r="H8" s="1"/>
+        <stp>FloatingDirtyPrice</stp>
+        <stp>588410313</stp>
+        <tr r="D58" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>d1yRate</v>
+        <stp/>
+        <stp>d1yRate</stp>
+        <stp>0</stp>
+        <tr r="J27" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>s5yRate</v>
+        <stp/>
+        <stp>s5yRate</stp>
+        <stp>0</stp>
+        <tr r="J30" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>s2yRate</v>
+        <stp/>
+        <stp>s2yRate</stp>
+        <stp>0</stp>
+        <tr r="J28" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>s3yRate</v>
+        <stp/>
+        <stp>s3yRate</stp>
+        <stp>0</stp>
+        <tr r="J29" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>86.317292342665496</v>
+        <stp/>
+        <stp>ZeroCleanPrice</stp>
+        <stp/>
+        <tr r="B65" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>d3m</v>
+        <stp/>
+        <stp>d3m</stp>
+        <stp>-1226026113</stp>
+        <tr r="H24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d6m</v>
+        <stp/>
+        <stp>d6m</stp>
+        <stp>-1226026161</stp>
+        <tr r="H25" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d1m</v>
+        <stp/>
+        <stp>d1m</stp>
+        <stp>-1226026145</stp>
+        <tr r="H23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>FloatingCleanPrice</v>
+        <stp/>
+        <stp>FloatingCleanPrice</stp>
+        <stp>588410313</stp>
+        <tr r="D57" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>bondhelper2</v>
+        <stp/>
+        <stp>bondhelper2</stp>
+        <stp>-1677774977</stp>
+        <tr r="M16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>FloatSettlementDatte</v>
+        <stp/>
+        <stp>FloatSettlementDatte</stp>
+        <stp>888501985</stp>
+        <tr r="B42" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>d9m</v>
+        <stp/>
+        <stp>d9m</stp>
+        <stp>-1226026273</stp>
+        <tr r="H26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>zc6m</v>
+        <stp/>
+        <stp>zc6m</stp>
+        <stp>-792237096</stp>
+        <tr r="H9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>forwardStart</v>
+        <stp/>
+        <stp>forwardStart</stp>
+        <stp>-223693829</stp>
+        <tr r="E47" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>zcBondsDayCounter</v>
+        <stp/>
+        <stp>zcBondsDayCounter</stp>
+        <stp>0</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>107.66828913260423</v>
+        <stp/>
+        <stp>FixedNPV</stp>
+        <stp/>
+        <tr r="C64" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>tolerance</v>
+        <stp/>
+        <stp>tolerance</stp>
+        <stp>-1573562951</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>FixedCleanPrice</v>
+        <stp/>
+        <stp>FixedCleanPrice</stp>
+        <stp>-77321281</stp>
+        <tr r="C57" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>s10y</v>
+        <stp/>
+        <stp>s10y</stp>
+        <stp>1121190872</stp>
+        <tr r="H31" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>bondInstruments</v>
+        <stp/>
+        <stp>bondInstruments</stp>
+        <stp>1882299273</stp>
+        <tr r="B16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>depositDayCounter</v>
+        <stp/>
+        <stp>depositDayCounter</stp>
+        <stp>372029375</stp>
+        <tr r="E43" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>s15y</v>
+        <stp/>
+        <stp>s15y</stp>
+        <stp>772304968</stp>
+        <tr r="H32" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>FixedDirtyPrice</v>
+        <stp/>
+        <stp>FixedDirtyPrice</stp>
+        <stp>-77321281</stp>
+        <tr r="C58" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>107.66828913260423</v>
+        <stp/>
+        <stp>FixedDirtyPrice</stp>
+        <stp/>
+        <tr r="C66" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>+settlementDateAdjusted</v>
+        <stp/>
+        <stp>+settlementDateAdjusted</stp>
+        <stp>-544419191</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>loglinier</v>
+        <stp/>
+        <stp>loglinier</stp>
+        <stp>0</stp>
+        <tr r="E44" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>fixedBondSchedule</v>
+        <stp/>
+        <stp>fixedBondSchedule</stp>
+        <stp>-2089128530</stp>
+        <tr r="B35" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>39709</v>
+        <stp/>
+        <stp>+settlementDateAdjustedSer</stp>
+        <stp/>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>todaysDate</v>
+        <stp/>
+        <stp>todaysDate</stp>
+        <stp>-111422835</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>86.317292342665496</v>
+        <stp/>
+        <stp>ZeroNPV</stp>
+        <stp/>
+        <tr r="B64" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>swFixedLegDayCounter</v>
+        <stp/>
+        <stp>swFixedLegDayCounter</stp>
+        <stp>-748456025</stp>
+        <tr r="E45" s="1"/>
+        <tr r="E51" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>FloatRedemption</v>
+        <stp/>
+        <stp>FloatRedemption</stp>
+        <stp>1079574528</stp>
+        <tr r="B41" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>Gearing</v>
+        <stp/>
+        <stp>Gearing</stp>
+        <stp>1072693248</stp>
+        <tr r="B44" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>FixedRedemption</v>
+        <stp/>
+        <stp>FixedRedemption</stp>
+        <stp>1079574528</stp>
+        <tr r="B32" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FloatingYield</v>
+        <stp/>
+        <stp>FloatingYield</stp>
+        <stp>-712193011</stp>
+        <tr r="D62" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>termStructureDayCounter</v>
+        <stp/>
+        <stp>termStructureDayCounter</stp>
+        <stp>1443485125</stp>
+        <tr r="E41" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>FixedRateBond</v>
+        <stp/>
+        <stp>FixedRateBond</stp>
+        <stp>1820916808</stp>
+        <tr r="B37" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>Fixing1</v>
+        <stp/>
+        <stp>Fixing1</stp>
+        <stp>1755687198</stp>
+        <tr r="J39" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>bondhelper3</v>
+        <stp/>
+        <stp>bondhelper3</stp>
+        <stp>922693503</stp>
+        <tr r="M17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>ZeroNPV</v>
+        <stp/>
+        <stp>ZeroNPV</stp>
+        <stp>1001970241</stp>
+        <tr r="B56" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>Spreads</v>
+        <stp/>
+        <stp>Spreads</stp>
+        <stp>-308163663</stp>
+        <tr r="B45" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>2.2009365270878184E-2</v>
+        <stp/>
+        <stp>FloatingYield</stp>
+        <stp/>
+        <tr r="D70" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>106.127528263039</v>
+        <stp/>
+        <stp>FixedCleanPrice</stp>
+        <stp/>
+        <tr r="C65" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>fixingDaysNeg</v>
+        <stp/>
+        <stp>fixingDaysNeg</stp>
+        <stp>-3</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>fixingDays</v>
+        <stp/>
+        <stp>fixingDays</stp>
+        <stp>3</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>4.4999999999999998E-2</v>
+        <stp/>
+        <stp>FixedNextcoupon</stp>
+        <stp/>
+        <tr r="C69" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>39706</v>
+        <stp/>
+        <stp>todaysDateSer</stp>
+        <stp/>
+        <tr r="D8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>bondEnginefl</v>
+        <stp/>
+        <stp>bondEnginefl</stp>
+        <stp>246307230</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>1.5407608695652275</v>
+        <stp/>
+        <stp>FixedZeroAccruedcoupon</stp>
+        <stp/>
+        <tr r="C67" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>ZeroYield</v>
+        <stp/>
+        <stp>ZeroYield</stp>
+        <stp>-1391670259</stp>
+        <tr r="B62" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>bondEnginefi</v>
+        <stp/>
+        <stp>bondEnginefi</stp>
+        <stp>246307230</stp>
+        <tr r="B21" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>FixedRateCoupon</v>
+        <stp/>
+        <stp>FixedRateCoupon</stp>
+        <stp>1325718839</stp>
+        <tr r="B36" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>zeroCouponBond</v>
+        <stp/>
+        <stp>zeroCouponBond</stp>
+        <stp>-762789832</stp>
+        <tr r="B29" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>bondhelper0</v>
+        <stp/>
+        <stp>bondhelper0</stp>
+        <stp>1862217599</stp>
+        <tr r="M14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>floatcouponpricer</v>
+        <stp/>
+        <stp>floatcouponpricer</stp>
+        <stp>1741592878</stp>
+        <tr r="B48" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>ActualActualBond</v>
+        <stp/>
+        <stp>ActualActualBond</stp>
+        <stp>1506851973</stp>
+        <tr r="E40" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>FixedZeroAccruedcoupon</v>
+        <stp/>
+        <stp>FixedZeroAccruedcoupon</stp>
+        <stp>815396861</stp>
+        <tr r="C59" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>zc1yPeriod</v>
+        <stp/>
+        <stp>zc1yPeriod</stp>
+        <stp>2119925464</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>couponRate1</v>
+        <stp/>
+        <stp>couponRate1</stp>
+        <stp>1162275258</stp>
+        <tr r="J15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>depoSwapInstruments</v>
+        <stp/>
+        <stp>depoSwapInstruments</stp>
+        <stp>-501517731</stp>
+        <tr r="B18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>ZeroIssueDate</v>
+        <stp/>
+        <stp>ZeroIssueDate</stp>
+        <stp>-12167724</stp>
+        <tr r="B28" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>couponRate3</v>
+        <stp/>
+        <stp>couponRate3</stp>
+        <stp>2013949594</stp>
+        <tr r="J17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>couponRate2</v>
+        <stp/>
+        <stp>couponRate2</stp>
+        <stp>1067450368</stp>
+        <tr r="J16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>3.6475570816152846E-2</v>
+        <stp/>
+        <stp>FixedYield</stp>
+        <stp/>
+        <tr r="C70" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>s10yRate</v>
+        <stp/>
+        <stp>s10yRate</stp>
+        <stp>0</stp>
+        <tr r="J31" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>s15yRate</v>
+        <stp/>
+        <stp>s15yRate</stp>
+        <stp>0</stp>
+        <tr r="J32" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>zc1yRate</v>
+        <stp/>
+        <stp>zc1yRate</stp>
+        <stp>0</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>instruments</v>
         <stp/>
@@ -750,697 +1471,7 @@
         <tr r="M15" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>libor3mPeriod</v>
-        <stp/>
-        <stp>libor3mPeriod</stp>
-        <stp>-1226026113</stp>
-        <tr r="B40" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>couponRate2</v>
-        <stp/>
-        <stp>couponRate2</stp>
-        <stp>1067450368</stp>
-        <tr r="J16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>depoSwapTermStructure</v>
-        <stp/>
-        <stp>depoSwapTermStructure</stp>
-        <stp>-1492299688</stp>
-        <tr r="B19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>s10yRate</v>
-        <stp/>
-        <stp>s10yRate</stp>
-        <stp>0</stp>
-        <tr r="J31" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>s15yRate</v>
-        <stp/>
-        <stp>s15yRate</stp>
-        <stp>0</stp>
-        <tr r="J32" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>zc1yRate</v>
-        <stp/>
-        <stp>zc1yRate</stp>
-        <stp>0</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>bondhelper4</v>
-        <stp/>
-        <stp>bondhelper4</stp>
-        <stp>-1090572417</stp>
-        <tr r="M18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp t="s">
-        <v>zeroCouponBond</v>
-        <stp/>
-        <stp>zeroCouponBond</stp>
-        <stp>RT</stp>
-        <tr r="M88" s="1"/>
-        <tr r="M87" s="1"/>
-        <tr r="E88" s="1"/>
-        <tr r="L88" s="1"/>
-        <tr r="I88" s="1"/>
-        <tr r="K88" s="1"/>
-        <tr r="B88" s="1"/>
-        <tr r="O88" s="1"/>
-        <tr r="F88" s="1"/>
-        <tr r="H88" s="1"/>
-        <tr r="E87" s="1"/>
-        <tr r="P87" s="1"/>
-        <tr r="C87" s="1"/>
-        <tr r="N87" s="1"/>
-        <tr r="N88" s="1"/>
-        <tr r="L87" s="1"/>
-        <tr r="Q87" s="1"/>
-        <tr r="J87" s="1"/>
-        <tr r="B87" s="1"/>
-        <tr r="D88" s="1"/>
-        <tr r="P88" s="1"/>
-        <tr r="F87" s="1"/>
-        <tr r="A87" s="1"/>
-        <tr r="G88" s="1"/>
-        <tr r="I87" s="1"/>
-        <tr r="J88" s="1"/>
-        <tr r="C88" s="1"/>
-        <tr r="O87" s="1"/>
-        <tr r="G87" s="1"/>
-        <tr r="Q88" s="1"/>
-        <tr r="A88" s="1"/>
-        <tr r="K87" s="1"/>
-        <tr r="D87" s="1"/>
-        <tr r="H87" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>couponRate3</v>
-        <stp/>
-        <stp>couponRate3</stp>
-        <stp>2013949594</stp>
-        <tr r="J17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>2.8862499999999996E-2</v>
-        <stp/>
-        <stp>FloatingFixedZeroPreviouscoupon</stp>
-        <stp/>
-        <tr r="D68" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>floatingBondSchedule</v>
-        <stp/>
-        <stp>floatingBondSchedule</stp>
-        <stp>-2089128530</stp>
-        <tr r="B46" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>depoSwapInstruments</v>
-        <stp/>
-        <stp>depoSwapInstruments</stp>
-        <stp>-501517731</stp>
-        <tr r="B18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>s2yratehelpers</v>
-        <stp/>
-        <stp>s2yratehelpers</stp>
-        <stp>-63164760</stp>
-        <tr r="K28" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>couponRate1</v>
-        <stp/>
-        <stp>couponRate1</stp>
-        <stp>1162275258</stp>
-        <tr r="J15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>3.6475570816152846E-2</v>
-        <stp/>
-        <stp>FixedYield</stp>
-        <stp/>
-        <tr r="C70" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>4.4999999999999998E-2</v>
-        <stp/>
-        <stp>FixedZeroPreviouscoupon</stp>
-        <stp/>
-        <tr r="C68" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>bondhelper0</v>
-        <stp/>
-        <stp>bondhelper0</stp>
-        <stp>1862217599</stp>
-        <tr r="M14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>bondhelper2</v>
-        <stp/>
-        <stp>bondhelper2</stp>
-        <stp>-1677774977</stp>
-        <tr r="M16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>couponRate4</v>
-        <stp/>
-        <stp>couponRate4</stp>
-        <stp>1325718839</stp>
-        <tr r="J18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>zc1yPeriod</v>
-        <stp/>
-        <stp>zc1yPeriod</stp>
-        <stp>2119925464</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d9m</v>
-        <stp/>
-        <stp>d9m</stp>
-        <stp>-1226026273</stp>
-        <tr r="H26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>d6m</v>
-        <stp/>
-        <stp>d6m</stp>
-        <stp>-1226026161</stp>
-        <tr r="H25" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d3m</v>
-        <stp/>
-        <stp>d3m</stp>
-        <stp>-1226026113</stp>
-        <tr r="H24" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d1m</v>
-        <stp/>
-        <stp>d1m</stp>
-        <stp>-1226026145</stp>
-        <tr r="H23" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>calendar</v>
-        <stp/>
-        <stp>calendar</stp>
-        <stp>0</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>discount</v>
-        <stp/>
-        <stp>discount</stp>
-        <stp>0</stp>
-        <tr r="E42" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>FloatingDirtyPrice</v>
-        <stp/>
-        <stp>FloatingDirtyPrice</stp>
-        <stp>588410313</stp>
-        <tr r="D58" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>FloatingCleanPrice</v>
-        <stp/>
-        <stp>FloatingCleanPrice</stp>
-        <stp>588410313</stp>
-        <tr r="D57" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>FixedYield</v>
-        <stp/>
-        <stp>FixedYield</stp>
-        <stp>-1293104115</stp>
-        <tr r="C62" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d6mratehelpers</v>
-        <stp/>
-        <stp>d6mratehelpers</stp>
-        <stp>-449040728</stp>
-        <tr r="K25" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>zc3mPeriod</v>
-        <stp/>
-        <stp>zc3mPeriod</stp>
-        <stp>-1226026113</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>zc6mPeriod</v>
-        <stp/>
-        <stp>zc6mPeriod</stp>
-        <stp>-1226026161</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>loglinier</v>
-        <stp/>
-        <stp>loglinier</stp>
-        <stp>0</stp>
-        <tr r="E44" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>d9mratehelpers</v>
-        <stp/>
-        <stp>d9mratehelpers</stp>
-        <stp>-969134424</stp>
-        <tr r="K26" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ZeroSettlementDate</v>
-        <stp/>
-        <stp>ZeroSettlementDate</stp>
-        <stp>-1699218839</stp>
-        <tr r="B27" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>107.10617626620862</v>
-        <stp/>
-        <stp>FloatingCleanPrice</stp>
-        <stp/>
-        <tr r="D65" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>s10y</v>
-        <stp/>
-        <stp>s10y</stp>
-        <stp>1121190872</stp>
-        <tr r="H31" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>depositDayCounter</v>
-        <stp/>
-        <stp>depositDayCounter</stp>
-        <stp>372029375</stp>
-        <tr r="E43" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>floatingRateBondFixedRateBondzeroCouponBondCashflow</v>
-        <stp/>
-        <stp>floatingRateBondFixedRateBondzeroCouponBondCashflow</stp>
-        <stp>588410313</stp>
-        <tr r="D63" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>86.317292342665496</v>
-        <stp/>
-        <stp>ZeroNPV</stp>
-        <stp/>
-        <tr r="B64" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>zc6m</v>
-        <stp/>
-        <stp>zc6m</stp>
-        <stp>-792237096</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>forwardStart</v>
-        <stp/>
-        <stp>forwardStart</stp>
-        <stp>-223693829</stp>
-        <tr r="E47" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>zcBondsDayCounter</v>
-        <stp/>
-        <stp>zcBondsDayCounter</stp>
-        <stp>0</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#no coupon paid at cashflow date 15/08/2013 ,Bond.nextCouponRate</v>
-        <stp/>
-        <stp>ZeroNextcoupon</stp>
-        <stp>1029105693</stp>
-        <tr r="B61" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ZeroDirtyPrice</v>
-        <stp/>
-        <stp>ZeroDirtyPrice</stp>
-        <stp>1001970241</stp>
-        <tr r="B58" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>102.3205245054389</v>
-        <stp/>
-        <stp>FixedDirtyPrice</stp>
-        <stp/>
-        <tr r="C66" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>3.4298412186850417E-2</v>
-        <stp/>
-        <stp>FloatingNextcoupon</stp>
-        <stp/>
-        <tr r="D69" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>bondEngine</v>
-        <stp/>
-        <stp>bondEngine</stp>
-        <stp>246307230</stp>
-        <tr r="B20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>FloatingYield</v>
-        <stp/>
-        <stp>FloatingYield</stp>
-        <stp>-712193011</stp>
-        <tr r="D62" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d3mratehelpers</v>
-        <stp/>
-        <stp>d3mratehelpers</stp>
-        <stp>1144794792</stp>
-        <tr r="K24" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>swFixedLegDayCounter</v>
-        <stp/>
-        <stp>swFixedLegDayCounter</stp>
-        <stp>-748456025</stp>
-        <tr r="E51" s="1"/>
-        <tr r="E45" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>FixedRateBondzeroCouponBondCashflow</v>
-        <stp/>
-        <stp>FixedRateBondzeroCouponBondCashflow</stp>
-        <stp>-77321281</stp>
-        <tr r="C63" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>ZeroCleanPrice</v>
-        <stp/>
-        <stp>ZeroCleanPrice</stp>
-        <stp>1001970241</stp>
-        <tr r="B57" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>2.201069345427796E-2</v>
-        <stp/>
-        <stp>FloatingYield</stp>
-        <stp/>
-        <tr r="D70" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>d1yratehelpers</v>
-        <stp/>
-        <stp>d1yratehelpers</stp>
-        <stp>-499372376</stp>
-        <tr r="K27" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>FloatingNextcoupon</v>
-        <stp/>
-        <stp>FloatingNextcoupon</stp>
-        <stp>-1208119139</stp>
-        <tr r="D61" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>107.66828913260423</v>
-        <stp/>
-        <stp>FloatingDirtyPrice</stp>
-        <stp/>
-        <tr r="D66" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>fixingDays</v>
-        <stp/>
-        <stp>fixingDays</stp>
-        <stp>3</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>zeroCouponBondCashflow</v>
-        <stp/>
-        <stp>zeroCouponBondCashflow</stp>
-        <stp>1001970241</stp>
-        <tr r="B63" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>fixingDaysNeg</v>
-        <stp/>
-        <stp>fixingDaysNeg</stp>
-        <stp>-3</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>d1wratehelpers</v>
-        <stp/>
-        <stp>d1wratehelpers</stp>
-        <stp>1144794792</stp>
-        <tr r="K22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>RemptionAmount</v>
-        <stp/>
-        <stp>RemptionAmount</stp>
-        <stp>1079574528</stp>
-        <tr r="B25" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>USDLibor</v>
-        <stp/>
-        <stp>USDLibor</stp>
-        <stp>172051658</stp>
-        <tr r="J37" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>ZeroPreviouscoupon</stp>
-        <stp/>
-        <tr r="B68" s="1"/>
-      </tp>
-      <tp>
-        <v>100.77866082195537</v>
-        <stp/>
-        <stp>FixedCleanPrice</stp>
-        <stp/>
-        <tr r="C65" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>ConstantOptionletVolatility</v>
-        <stp/>
-        <stp>ConstantOptionletVolatility</stp>
-        <stp>315382730</stp>
-        <tr r="B50" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>optionletvolitility</v>
-        <stp/>
-        <stp>optionletvolitility</stp>
-        <stp>0</stp>
-        <tr r="B49" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>4.4999999999999998E-2</v>
-        <stp/>
-        <stp>FixedNextcoupon</stp>
-        <stp/>
-        <tr r="C69" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>FixedNPV</v>
-        <stp/>
-        <stp>FixedNPV</stp>
-        <stp>-77321281</stp>
-        <tr r="C56" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>s3yratehelpers</v>
-        <stp/>
-        <stp>s3yratehelpers</stp>
-        <stp>-751030616</stp>
-        <tr r="K29" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>s5yratehelpers</v>
-        <stp/>
-        <stp>s5yratehelpers</stp>
-        <stp>1362898600</stp>
-        <tr r="K30" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>39706</v>
-        <stp/>
-        <stp>todaysDateSer</stp>
-        <stp/>
-        <tr r="D8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>d1yRate</v>
-        <stp/>
-        <stp>d1yRate</stp>
-        <stp>0</stp>
-        <tr r="J27" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>s5yRate</v>
-        <stp/>
-        <stp>s5yRate</stp>
-        <stp>0</stp>
-        <tr r="J30" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>s3yRate</v>
-        <stp/>
-        <stp>s3yRate</stp>
-        <stp>0</stp>
-        <tr r="J29" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>s2yRate</v>
-        <stp/>
-        <stp>s2yRate</stp>
-        <stp>0</stp>
-        <tr r="J28" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>ZeroIssueDate</v>
-        <stp/>
-        <stp>ZeroIssueDate</stp>
-        <stp>-12167724</stp>
-        <tr r="B28" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>FixedZeroAccruedcoupon</v>
-        <stp/>
-        <stp>FixedZeroAccruedcoupon</stp>
-        <stp>815396861</stp>
-        <tr r="C59" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>zeroCouponBond</v>
-        <stp/>
-        <stp>zeroCouponBond</stp>
-        <stp>582632856</stp>
-        <tr r="B29" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>floatcouponpricer</v>
-        <stp/>
-        <stp>floatcouponpricer</stp>
-        <stp>1741592878</stp>
-        <tr r="B48" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
       <tp>
         <v>102.3194216915206</v>
         <stp/>
@@ -1449,47 +1480,31 @@
         <tr r="D64" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>ActualActualBond</v>
+        <v>depoSwapTermStructure</v>
         <stp/>
-        <stp>ActualActualBond</stp>
-        <stp>1506851973</stp>
-        <tr r="E40" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>FloatSettlementDatte</v>
-        <stp/>
-        <stp>FloatSettlementDatte</stp>
-        <stp>888501985</stp>
-        <tr r="B42" s="1"/>
+        <stp>depoSwapTermStructure</stp>
+        <stp>-1492299688</stp>
+        <tr r="B19" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>redemption</v>
+        <v>libor3mPeriod</v>
         <stp/>
-        <stp>redemption</stp>
-        <stp>1079574528</stp>
-        <tr r="B13" s="1"/>
+        <stp>libor3mPeriod</stp>
+        <stp>-1226026113</stp>
+        <tr r="B40" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>86.317292342665496</v>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>discount</v>
         <stp/>
-        <stp>ZeroCleanPrice</stp>
-        <stp/>
-        <tr r="B65" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>FixedNextcoupon</v>
-        <stp/>
-        <stp>FixedNextcoupon</stp>
-        <stp>815396861</stp>
-        <tr r="C61" s="1"/>
+        <stp>discount</stp>
+        <stp>0</stp>
+        <tr r="E42" s="1"/>
       </tp>
       <tp t="s">
         <v>settlementDays</v>
@@ -1498,106 +1513,82 @@
         <stp>3</stp>
         <tr r="B6" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>ZeroPreviouscoupon</v>
+        <v>calendar</v>
         <stp/>
-        <stp>ZeroPreviouscoupon</stp>
-        <stp>1029105693</stp>
-        <tr r="B60" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d1wRate</v>
-        <stp/>
-        <stp>d1wRate</stp>
+        <stp>calendar</stp>
         <stp>0</stp>
-        <tr r="J22" s="1"/>
+        <tr r="B2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>couponRate4</v>
+        <stp/>
+        <stp>couponRate4</stp>
+        <stp>1325718839</stp>
+        <tr r="J18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>floatingRateBond</v>
         <stp/>
         <stp>floatingRateBond</stp>
-        <stp>-544951848</stp>
+        <stp>-922790952</stp>
         <tr r="B47" s="1"/>
       </tp>
-      <tp t="s">
-        <v>FixedZeroPreviouscoupon</v>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>0</v>
         <stp/>
-        <stp>FixedZeroPreviouscoupon</stp>
-        <stp>815396861</stp>
-        <tr r="C60" s="1"/>
+        <stp>ZeroAccruedcoupon</stp>
+        <stp/>
+        <tr r="B67" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>floatcouponpricer2</v>
+        <v>zc3mRate</v>
         <stp/>
-        <stp>floatcouponpricer2</stp>
-        <stp>1878722209</stp>
-        <tr r="B51" s="1"/>
+        <stp>zc3mRate</stp>
+        <stp>0</stp>
+        <tr r="B10" s="1"/>
       </tp>
       <tp t="s">
-        <v>+settlementDate</v>
+        <v>zc6mRate</v>
         <stp/>
-        <stp>+settlementDate</stp>
-        <stp>-569911532</stp>
-        <tr r="B3" s="1"/>
+        <stp>zc6mRate</stp>
+        <stp>0</stp>
+        <tr r="B11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>d9mRate</v>
+        <v>Quarterly</v>
         <stp/>
-        <stp>d9mRate</stp>
-        <stp>0</stp>
-        <tr r="J26" s="1"/>
+        <stp>Quarterly</stp>
+        <stp>-302169631</stp>
+        <tr r="E49" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>schedule3</v>
+        <stp/>
+        <stp>schedule3</stp>
+        <stp>1913417000</stp>
+        <tr r="L17" s="1"/>
       </tp>
       <tp t="s">
-        <v>d6mRate</v>
+        <v>schedule2</v>
         <stp/>
-        <stp>d6mRate</stp>
-        <stp>0</stp>
-        <tr r="J25" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d1mRate</v>
-        <stp/>
-        <stp>d1mRate</stp>
-        <stp>0</stp>
-        <tr r="J23" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d3mRate</v>
-        <stp/>
-        <stp>d3mRate</stp>
-        <stp>0</stp>
-        <tr r="J24" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>+settlementDateAdjustedSer</v>
-        <stp/>
-        <stp>+settlementDateAdjustedSer</stp>
-        <stp>-649169906</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>faceAmount</v>
-        <stp/>
-        <stp>faceAmount</stp>
-        <stp>1079574528</stp>
-        <tr r="B24" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>schedule4</v>
-        <stp/>
-        <stp>schedule4</stp>
+        <stp>schedule2</stp>
         <stp>1913417000</stp>
-        <tr r="L18" s="1"/>
+        <tr r="L16" s="1"/>
       </tp>
       <tp t="s">
         <v>schedule1</v>
@@ -1614,93 +1605,57 @@
         <tr r="L14" s="1"/>
       </tp>
       <tp t="s">
-        <v>schedule3</v>
+        <v>schedule4</v>
         <stp/>
-        <stp>schedule3</stp>
+        <stp>schedule4</stp>
         <stp>1913417000</stp>
-        <tr r="L17" s="1"/>
+        <tr r="L18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>d1y</v>
+        <stp/>
+        <stp>d1y</stp>
+        <stp>2119925464</stp>
+        <tr r="H27" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>s3y</v>
+        <stp/>
+        <stp>s3y</stp>
+        <stp>2119925496</stp>
+        <tr r="H29" s="1"/>
       </tp>
       <tp t="s">
-        <v>schedule2</v>
+        <v>s5y</v>
         <stp/>
-        <stp>schedule2</stp>
-        <stp>1913417000</stp>
-        <tr r="L16" s="1"/>
+        <stp>s5y</stp>
+        <stp>2119925400</stp>
+        <tr r="H30" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>0</v>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>s2y</v>
         <stp/>
-        <stp>ZeroAccruedcoupon</stp>
-        <stp/>
-        <tr r="B67" s="1"/>
+        <stp>s2y</stp>
+        <stp>2119925512</stp>
+        <tr r="H28" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>Quarterly</v>
+        <v>todaysDateSer</v>
         <stp/>
-        <stp>Quarterly</stp>
-        <stp>-302169631</stp>
-        <tr r="E49" s="1"/>
+        <stp>todaysDateSer</stp>
+        <stp>-1204259704</stp>
+        <tr r="C8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>Semiannual</v>
-        <stp/>
-        <stp>Semiannual</stp>
-        <stp>1704154923</stp>
-        <tr r="E39" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>0.56211286639560409</v>
-        <stp/>
-        <stp>FloatingFixedZeroAccruedcoupon</stp>
-        <stp/>
-        <tr r="D67" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>FloatingFixedZeroAccruedcoupon</v>
-        <stp/>
-        <stp>FloatingFixedZeroAccruedcoupon</stp>
-        <stp>-1208119139</stp>
-        <tr r="D59" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>#no coupon paid at cashflow date 15/08/2013 ,Bond.nextCouponRate</v>
-        <stp/>
-        <stp>ZeroNextcoupon</stp>
-        <stp>1029105693/</stp>
-        <tr r="B61" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>ZeroAccruedcoupon</v>
-        <stp/>
-        <stp>ZeroAccruedcoupon</stp>
-        <stp>1029105693</stp>
-        <tr r="B59" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>86.317292342665496</v>
-        <stp/>
-        <stp>ZeroDirtyPrice</stp>
-        <stp/>
-        <tr r="B66" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
       <tp>
         <v>3.0000642156600955E-2</v>
         <stp/>
@@ -1709,53 +1664,77 @@
         <tr r="B70" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>d1mratehelpers</v>
+        <v>ZeroAccruedcoupon</v>
         <stp/>
-        <stp>d1mratehelpers</stp>
-        <stp>-1371787608</stp>
-        <tr r="K23" s="1"/>
+        <stp>ZeroAccruedcoupon</stp>
+        <stp>1029105693</stp>
+        <tr r="B59" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FloatingNPV</v>
+        <stp/>
+        <stp>FloatingNPV</stp>
+        <stp>588410313</stp>
+        <tr r="D56" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>Spreads</v>
+        <v>d1w</v>
         <stp/>
-        <stp>Spreads</stp>
-        <stp>-308163663</stp>
-        <tr r="B45" s="1"/>
+        <stp>d1w</stp>
+        <stp>-303078293</stp>
+        <tr r="H22" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>Actual365Fixed</v>
+        <v>s10yratehelpers</v>
         <stp/>
-        <stp>Actual365Fixed</stp>
+        <stp>s10yratehelpers</stp>
+        <stp>154939048</stp>
+        <tr r="K31" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>s15yratehelpers</v>
+        <stp/>
+        <stp>s15yratehelpers</stp>
+        <stp>-96719192</stp>
+        <tr r="K32" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>ConstantOptionletVolatility</v>
+        <stp/>
+        <stp>ConstantOptionletVolatility</stp>
+        <stp>315382730</stp>
+        <tr r="B50" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>USDLibor</v>
+        <stp/>
+        <stp>USDLibor</stp>
+        <stp>172051658</stp>
+        <tr r="J37" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>optionletvolitility</v>
+        <stp/>
+        <stp>optionletvolitility</stp>
         <stp>0</stp>
-        <tr r="E50" s="1"/>
+        <tr r="B49" s="1"/>
       </tp>
-      <tp t="s">
-        <v>ZeroNPV</v>
-        <stp/>
-        <stp>ZeroNPV</stp>
-        <stp>1001970241</stp>
-        <tr r="B56" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ZeroYield</v>
-        <stp/>
-        <stp>ZeroYield</stp>
-        <stp>-1391670259</stp>
-        <tr r="B62" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Fixing1</v>
-        <stp/>
-        <stp>Fixing1</stp>
-        <stp>1755687198</stp>
-        <tr r="J39" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>actual360</v>
         <stp/>
@@ -1764,93 +1743,61 @@
         <tr r="E48" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>termStructureDayCounter</v>
+        <v>s3yratehelpers</v>
         <stp/>
-        <stp>termStructureDayCounter</stp>
-        <stp>1443485125</stp>
-        <tr r="E41" s="1"/>
+        <stp>s3yratehelpers</stp>
+        <stp>-751030616</stp>
+        <tr r="K29" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp t="s">
-        <v>FixedRateBondzeroCouponBondCashflow</v>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>102.3194216915206</v>
         <stp/>
-        <stp>FixedRateBondzeroCouponBondCashflow</stp>
-        <stp>CT</stp>
-        <tr r="H50" s="1"/>
-        <tr r="I59" s="1"/>
-        <tr r="H59" s="1"/>
-        <tr r="I60" s="1"/>
-        <tr r="I56" s="1"/>
-        <tr r="I45" s="1"/>
-        <tr r="H44" s="1"/>
-        <tr r="I49" s="1"/>
-        <tr r="H45" s="1"/>
-        <tr r="H54" s="1"/>
-        <tr r="I48" s="1"/>
-        <tr r="I54" s="1"/>
-        <tr r="H48" s="1"/>
-        <tr r="H42" s="1"/>
-        <tr r="H61" s="1"/>
-        <tr r="H52" s="1"/>
-        <tr r="I57" s="1"/>
-        <tr r="H57" s="1"/>
-        <tr r="I51" s="1"/>
-        <tr r="I55" s="1"/>
-        <tr r="I53" s="1"/>
-        <tr r="H51" s="1"/>
-        <tr r="I46" s="1"/>
-        <tr r="I63" s="1"/>
-        <tr r="I52" s="1"/>
-        <tr r="H46" s="1"/>
-        <tr r="I50" s="1"/>
-        <tr r="I43" s="1"/>
-        <tr r="H63" s="1"/>
-        <tr r="H53" s="1"/>
-        <tr r="H49" s="1"/>
-        <tr r="H62" s="1"/>
-        <tr r="H60" s="1"/>
-        <tr r="H58" s="1"/>
-        <tr r="I44" s="1"/>
-        <tr r="I61" s="1"/>
-        <tr r="H55" s="1"/>
-        <tr r="H47" s="1"/>
-        <tr r="H56" s="1"/>
-        <tr r="H43" s="1"/>
-        <tr r="I62" s="1"/>
-        <tr r="I47" s="1"/>
-        <tr r="I42" s="1"/>
-        <tr r="I58" s="1"/>
+        <stp>FloatingDirtyPrice</stp>
+        <stp/>
+        <tr r="D66" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>FixedRateCoupon</v>
+        <v>FloatingNextcoupon</v>
         <stp/>
-        <stp>FixedRateCoupon</stp>
-        <stp>1325718839</stp>
-        <tr r="B36" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>bondhelper3</v>
-        <stp/>
-        <stp>bondhelper3</stp>
-        <stp>922693503</stp>
-        <tr r="M17" s="1"/>
+        <stp>FloatingNextcoupon</stp>
+        <stp>-1208119139</stp>
+        <tr r="D61" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>1.5407608695652275</v>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>s5yratehelpers</v>
         <stp/>
-        <stp>FixedZeroAccruedcoupon</stp>
-        <stp/>
-        <tr r="C67" s="1"/>
+        <stp>s5yratehelpers</stp>
+        <stp>1362898600</stp>
+        <tr r="K30" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>Actual365Fixed</v>
+        <stp/>
+        <stp>Actual365Fixed</stp>
+        <stp>0</stp>
+        <tr r="E50" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>ZeroPreviouscoupon</stp>
+        <stp/>
+        <tr r="B68" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>FixedIssueDate</v>
         <stp/>
@@ -1859,53 +1806,93 @@
         <tr r="B34" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>FixedRateBond</v>
+        <v>ZeroCleanPrice</v>
         <stp/>
-        <stp>FixedRateBond</stp>
-        <stp>RT</stp>
-        <tr r="C90" s="1"/>
-        <tr r="M90" s="1"/>
-        <tr r="E89" s="1"/>
-        <tr r="P89" s="1"/>
-        <tr r="Q90" s="1"/>
-        <tr r="R90" s="1"/>
-        <tr r="D90" s="1"/>
-        <tr r="S90" s="1"/>
-        <tr r="R89" s="1"/>
-        <tr r="H90" s="1"/>
-        <tr r="N89" s="1"/>
-        <tr r="G89" s="1"/>
-        <tr r="L89" s="1"/>
-        <tr r="J89" s="1"/>
-        <tr r="Q89" s="1"/>
-        <tr r="K89" s="1"/>
-        <tr r="B90" s="1"/>
-        <tr r="B89" s="1"/>
-        <tr r="O89" s="1"/>
-        <tr r="A90" s="1"/>
-        <tr r="E90" s="1"/>
-        <tr r="O90" s="1"/>
-        <tr r="A89" s="1"/>
-        <tr r="L90" s="1"/>
-        <tr r="K90" s="1"/>
-        <tr r="D89" s="1"/>
-        <tr r="S89" s="1"/>
-        <tr r="M89" s="1"/>
-        <tr r="N90" s="1"/>
-        <tr r="G90" s="1"/>
-        <tr r="C89" s="1"/>
-        <tr r="J90" s="1"/>
-        <tr r="H89" s="1"/>
-        <tr r="I90" s="1"/>
-        <tr r="I89" s="1"/>
-        <tr r="P90" s="1"/>
-        <tr r="F89" s="1"/>
-        <tr r="F90" s="1"/>
+        <stp>ZeroCleanPrice</stp>
+        <stp>1001970241</stp>
+        <tr r="B57" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d1yratehelpers</v>
+        <stp/>
+        <stp>d1yratehelpers</stp>
+        <stp>-499372376</stp>
+        <tr r="K27" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>FixedRateBondzeroCouponBondCashflow</v>
+        <stp/>
+        <stp>FixedRateBondzeroCouponBondCashflow</stp>
+        <stp>-77321281</stp>
+        <tr r="C63" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>zeroCouponBondCashflow</v>
+        <stp/>
+        <stp>zeroCouponBondCashflow</stp>
+        <stp>1001970241</stp>
+        <tr r="B63" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp t="s">
+        <v>FixedRateBondzeroCouponBondCashflow</v>
+        <stp/>
+        <stp>FixedRateBondzeroCouponBondCashflow</stp>
+        <stp>CT</stp>
+        <tr r="I56" s="1"/>
+        <tr r="H63" s="1"/>
+        <tr r="I60" s="1"/>
+        <tr r="H58" s="1"/>
+        <tr r="H47" s="1"/>
+        <tr r="H49" s="1"/>
+        <tr r="I46" s="1"/>
+        <tr r="H56" s="1"/>
+        <tr r="H61" s="1"/>
+        <tr r="H46" s="1"/>
+        <tr r="I52" s="1"/>
+        <tr r="I62" s="1"/>
+        <tr r="H60" s="1"/>
+        <tr r="H44" s="1"/>
+        <tr r="I58" s="1"/>
+        <tr r="H48" s="1"/>
+        <tr r="I55" s="1"/>
+        <tr r="H57" s="1"/>
+        <tr r="H45" s="1"/>
+        <tr r="I42" s="1"/>
+        <tr r="H54" s="1"/>
+        <tr r="H50" s="1"/>
+        <tr r="I44" s="1"/>
+        <tr r="I59" s="1"/>
+        <tr r="H62" s="1"/>
+        <tr r="I47" s="1"/>
+        <tr r="H52" s="1"/>
+        <tr r="H42" s="1"/>
+        <tr r="I57" s="1"/>
+        <tr r="I61" s="1"/>
+        <tr r="I51" s="1"/>
+        <tr r="H53" s="1"/>
+        <tr r="H43" s="1"/>
+        <tr r="I63" s="1"/>
+        <tr r="I45" s="1"/>
+        <tr r="I50" s="1"/>
+        <tr r="H59" s="1"/>
+        <tr r="I53" s="1"/>
+        <tr r="H51" s="1"/>
+        <tr r="H55" s="1"/>
+        <tr r="I49" s="1"/>
+        <tr r="I54" s="1"/>
+        <tr r="I48" s="1"/>
+        <tr r="I43" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>FloatIssueDate</v>
         <stp/>
@@ -1914,28 +1901,34 @@
         <tr r="B43" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>USgovi</v>
+        <v>FixedNPV</v>
         <stp/>
-        <stp>USgovi</stp>
-        <stp>814714544</stp>
-        <tr r="E38" s="1"/>
+        <stp>FixedNPV</stp>
+        <stp>-77321281</stp>
+        <tr r="C56" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>+settlementDateAdjusted</v>
+        <v>RemptionAmount</v>
         <stp/>
-        <stp>+settlementDateAdjusted</stp>
-        <stp>-544419191</stp>
-        <tr r="B4" s="1"/>
+        <stp>RemptionAmount</stp>
+        <stp>1079574528</stp>
+        <tr r="B25" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>s15y</v>
+        <v>d1wratehelpers</v>
         <stp/>
-        <stp>s15y</stp>
-        <stp>772304968</stp>
-        <tr r="H32" s="1"/>
+        <stp>d1wratehelpers</stp>
+        <stp>1144794792</stp>
+        <tr r="K22" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>USDLibor1</v>
         <stp/>
@@ -1944,55 +1937,165 @@
         <tr r="J39" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>bondInstruments</v>
+        <v>USgovi</v>
         <stp/>
-        <stp>bondInstruments</stp>
-        <stp>1882299273</stp>
-        <tr r="B16" s="1"/>
+        <stp>USgovi</stp>
+        <stp>814714544</stp>
+        <tr r="E38" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>39709</v>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>bondEnginez</v>
         <stp/>
-        <stp>+settlementDateAdjustedSer</stp>
-        <stp/>
-        <tr r="D4" s="1"/>
+        <stp>bondEnginez</stp>
+        <stp>246307230</stp>
+        <tr r="B20" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>FixedCleanPrice</v>
+        <v>ZeroSettlementDate</v>
         <stp/>
-        <stp>FixedCleanPrice</stp>
-        <stp>-77321281</stp>
-        <tr r="C57" s="1"/>
+        <stp>ZeroSettlementDate</stp>
+        <stp>-1699218839</stp>
+        <tr r="B27" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>tolerance</v>
+        <v>d3mratehelpers</v>
         <stp/>
-        <stp>tolerance</stp>
-        <stp>-1573562951</stp>
-        <tr r="B14" s="1"/>
+        <stp>d3mratehelpers</stp>
+        <stp>1144794792</stp>
+        <tr r="K24" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>101.75730882512499</v>
+        <stp/>
+        <stp>FloatingCleanPrice</stp>
+        <stp/>
+        <tr r="D65" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>zc6mPeriod</v>
+        <stp/>
+        <stp>zc6mPeriod</stp>
+        <stp>-1226026161</stp>
+        <tr r="E9" s="1"/>
       </tp>
       <tp t="s">
-        <v>FixedRedemption</v>
+        <v>zc3mPeriod</v>
         <stp/>
-        <stp>FixedRedemption</stp>
-        <stp>1079574528</stp>
-        <tr r="B32" s="1"/>
+        <stp>zc3mPeriod</stp>
+        <stp>-1226026113</stp>
+        <tr r="E8" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>Gearing</v>
+        <v>FixedYield</v>
         <stp/>
-        <stp>Gearing</stp>
-        <stp>1072693248</stp>
-        <tr r="B44" s="1"/>
+        <stp>FixedYield</stp>
+        <stp>-1293104115</stp>
+        <tr r="C62" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp>
+        <v>3.4298412186850417E-2</v>
+        <stp/>
+        <stp>FloatingNextcoupon</stp>
+        <stp/>
+        <tr r="D69" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>d6mratehelpers</v>
+        <stp/>
+        <stp>d6mratehelpers</stp>
+        <stp>-449040728</stp>
+        <tr r="K25" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>d9mratehelpers</v>
+        <stp/>
+        <stp>d9mratehelpers</stp>
+        <stp>-969134424</stp>
+        <tr r="K26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+      <tp t="s">
+        <v>floatingRateBondFixedRateBondzeroCouponBondCashflow</v>
+        <stp/>
+        <stp>floatingRateBondFixedRateBondzeroCouponBondCashflow</stp>
+        <stp>CT</stp>
+        <tr r="H78" s="1"/>
+        <tr r="H70" s="1"/>
+        <tr r="I72" s="1"/>
+        <tr r="I74" s="1"/>
+        <tr r="I78" s="1"/>
+        <tr r="I67" s="1"/>
+        <tr r="H82" s="1"/>
+        <tr r="H84" s="1"/>
+        <tr r="I83" s="1"/>
+        <tr r="H74" s="1"/>
+        <tr r="H72" s="1"/>
+        <tr r="I64" s="1"/>
+        <tr r="H69" s="1"/>
+        <tr r="H85" s="1"/>
+        <tr r="I69" s="1"/>
+        <tr r="H83" s="1"/>
+        <tr r="H77" s="1"/>
+        <tr r="I85" s="1"/>
+        <tr r="H67" s="1"/>
+        <tr r="H68" s="1"/>
+        <tr r="I70" s="1"/>
+        <tr r="I77" s="1"/>
+        <tr r="I75" s="1"/>
+        <tr r="H64" s="1"/>
+        <tr r="H71" s="1"/>
+        <tr r="H75" s="1"/>
+        <tr r="I82" s="1"/>
+        <tr r="I84" s="1"/>
+        <tr r="H66" s="1"/>
+        <tr r="I65" s="1"/>
+        <tr r="H80" s="1"/>
+        <tr r="H73" s="1"/>
+        <tr r="I66" s="1"/>
+        <tr r="I81" s="1"/>
+        <tr r="I76" s="1"/>
+        <tr r="H81" s="1"/>
+        <tr r="I73" s="1"/>
+        <tr r="H76" s="1"/>
+        <tr r="I79" s="1"/>
+        <tr r="I80" s="1"/>
+        <tr r="H79" s="1"/>
+        <tr r="H65" s="1"/>
+        <tr r="I71" s="1"/>
+        <tr r="I68" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+      <tp t="s">
+        <v>floatingRateBondFixedRateBondzeroCouponBondCashflow</v>
+        <stp/>
+        <stp>floatingRateBondFixedRateBondzeroCouponBondCashflow</stp>
+        <stp>588410313</stp>
+        <tr r="D63" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>FloatingFixedZeroPreviouscoupon</v>
         <stp/>
@@ -2001,101 +2104,13 @@
         <tr r="D60" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
+    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
-        <v>fixedBondSchedule</v>
+        <v>ZeroDirtyPrice</v>
         <stp/>
-        <stp>fixedBondSchedule</stp>
-        <stp>-2089128530</stp>
-        <tr r="B35" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>FloatRedemption</v>
-        <stp/>
-        <stp>FloatRedemption</stp>
-        <stp>1079574528</stp>
-        <tr r="B41" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp>
-        <v>107.66828913260423</v>
-        <stp/>
-        <stp>FixedNPV</stp>
-        <stp/>
-        <tr r="C64" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>FixedDirtyPrice</v>
-        <stp/>
-        <stp>FixedDirtyPrice</stp>
-        <stp>-77321281</stp>
-        <tr r="C58" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f053909ac93b4ea9bf4b7bdd96ace956">
-      <tp t="s">
-        <v>floatingRateBondFixedRateBondzeroCouponBondCashflow</v>
-        <stp/>
-        <stp>floatingRateBondFixedRateBondzeroCouponBondCashflow</stp>
-        <stp>CT</stp>
-        <tr r="H85" s="1"/>
-        <tr r="I74" s="1"/>
-        <tr r="I79" s="1"/>
-        <tr r="I83" s="1"/>
-        <tr r="H68" s="1"/>
-        <tr r="I72" s="1"/>
-        <tr r="H81" s="1"/>
-        <tr r="I77" s="1"/>
-        <tr r="H67" s="1"/>
-        <tr r="H72" s="1"/>
-        <tr r="I67" s="1"/>
-        <tr r="H69" s="1"/>
-        <tr r="I80" s="1"/>
-        <tr r="H66" s="1"/>
-        <tr r="H77" s="1"/>
-        <tr r="I64" s="1"/>
-        <tr r="I85" s="1"/>
-        <tr r="I70" s="1"/>
-        <tr r="H65" s="1"/>
-        <tr r="H70" s="1"/>
-        <tr r="I71" s="1"/>
-        <tr r="I65" s="1"/>
-        <tr r="H79" s="1"/>
-        <tr r="I84" s="1"/>
-        <tr r="H82" s="1"/>
-        <tr r="I81" s="1"/>
-        <tr r="H78" s="1"/>
-        <tr r="H84" s="1"/>
-        <tr r="I76" s="1"/>
-        <tr r="H73" s="1"/>
-        <tr r="H80" s="1"/>
-        <tr r="I66" s="1"/>
-        <tr r="I68" s="1"/>
-        <tr r="H71" s="1"/>
-        <tr r="I75" s="1"/>
-        <tr r="H83" s="1"/>
-        <tr r="H74" s="1"/>
-        <tr r="H76" s="1"/>
-        <tr r="I73" s="1"/>
-        <tr r="I82" s="1"/>
-        <tr r="H64" s="1"/>
-        <tr r="I78" s="1"/>
-        <tr r="I69" s="1"/>
-        <tr r="H75" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4879f5bf3e2748c6967a46182b26b7f2">
-      <tp t="s">
-        <v>todaysDate</v>
-        <stp/>
-        <stp>todaysDate</stp>
-        <stp>-111422835</stp>
-        <tr r="B8" s="1"/>
+        <stp>ZeroDirtyPrice</stp>
+        <stp>1001970241</stp>
+        <tr r="B58" s="1"/>
       </tp>
     </main>
   </volType>
@@ -2435,10 +2450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28025E14-2DBA-4FA2-A060-A0CB22BD8F4F}">
-  <dimension ref="A1:S90"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2489,7 +2504,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="str">
         <f>+_xll._Date1(A3,C3)</f>
@@ -2971,14 +2986,21 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B20" t="str">
-        <f>+_xll._DiscountingBondEngine(A20,B17,TRUE,$B$4)</f>
-        <v>bondEngine</v>
+        <f>+_xll._DiscountingBondEngine(A20,$B$17,TRUE,$B$4)</f>
+        <v>bondEnginez</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="str">
+        <f>+_xll._DiscountingBondEngine(A21,$B$17,TRUE,$B$4)</f>
+        <v>bondEnginefi</v>
+      </c>
       <c r="E21" s="12" t="s">
         <v>23</v>
       </c>
@@ -3002,6 +3024,13 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="str">
+        <f>+_xll._DiscountingBondEngine(A22,$B$17,TRUE,$B$4)</f>
+        <v>bondEnginefl</v>
+      </c>
       <c r="E22" s="7" t="s">
         <v>24</v>
       </c>
@@ -3400,7 +3429,7 @@
         <v>56</v>
       </c>
       <c r="B37" t="str">
-        <f>+_xll._FixedRateBond(A37,B6,B24,B35,B36,E40,"ModifiedFollowing",B32,B34,B2,,,,,B20,B8)</f>
+        <f>+_xll._FixedRateBond(A37,B6,B24,B35,B36,E40,"ModifiedFollowing",B32,B34,B2,,,,,B21,B8)</f>
         <v>FixedRateBond</v>
       </c>
       <c r="E37" t="s">
@@ -3416,7 +3445,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" t="str">
         <f>+_xll._Bond_cashflows(A38,B37)</f>
@@ -3601,7 +3630,7 @@
         <v>71</v>
       </c>
       <c r="B47" t="str">
-        <f>+_xll._FloatingRateBond2(A47,B6,B24,B46,J39,E48,"ModifiedFollowing",2,+B44,B45,,,TRUE,B41,B43,B20,B51,B8)</f>
+        <f>+_xll._FloatingRateBond2(A47,B6,B24,B46,J39,E48,"ModifiedFollowing",2,+B44,B45,,,TRUE,B41,B43,B22,B51,B8)</f>
         <v>floatingRateBond</v>
       </c>
       <c r="E47" t="str">
@@ -3734,7 +3763,7 @@
         <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
         <v>82</v>
@@ -3752,7 +3781,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56" t="str">
         <f>+_xll._Instrument_NPV(B$55&amp;$A56,B54)</f>
@@ -3871,7 +3900,7 @@
       </c>
       <c r="B61" t="str">
         <f>+_xll._Bond_nextCouponRate(B$55&amp;$A61,B54)</f>
-        <v>#no coupon paid at cashflow date 15/08/2013 ,Bond.nextCouponRate</v>
+        <v>#no coupon paid at cashflow date 15/08/2013</v>
       </c>
       <c r="C61" t="str">
         <f>+_xll._Bond_nextCouponRate(C$55&amp;$A61,C54)</f>
@@ -3890,7 +3919,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B62" t="str">
         <f>+_xll._Bond_yield(B$55&amp;$A62,B54,$E$48,"Compounded","Annual")</f>
@@ -3913,7 +3942,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" t="str">
         <f>+_xll._Bond_cashflows(B54&amp;A$63,B54)</f>
@@ -3928,7 +3957,7 @@
         <v>floatingRateBondFixedRateBondzeroCouponBondCashflow</v>
       </c>
       <c r="F63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H63">
         <v>100</v>
@@ -3973,11 +4002,11 @@
       </c>
       <c r="C65">
         <f>+_xll._Value(C57)</f>
-        <v>100.77866082195537</v>
+        <v>106.127528263039</v>
       </c>
       <c r="D65">
         <f>+_xll._Value(D57)</f>
-        <v>107.10617626620862</v>
+        <v>101.75730882512499</v>
       </c>
       <c r="H65" t="str">
         <v>#NA</v>
@@ -3997,11 +4026,11 @@
       </c>
       <c r="C66">
         <f>+_xll._Value(C58)</f>
-        <v>102.3205245054389</v>
+        <v>107.66828913260423</v>
       </c>
       <c r="D66">
         <f>+_xll._Value(D58)</f>
-        <v>107.66828913260423</v>
+        <v>102.3194216915206</v>
       </c>
       <c r="H66" t="str">
         <v>#NA</v>
@@ -4049,7 +4078,7 @@
       </c>
       <c r="D68">
         <f>+_xll._Value(D60)</f>
-        <v>2.8862499999999996E-2</v>
+        <v>2.8862499999999999E-2</v>
       </c>
       <c r="H68" t="str">
         <v>#NA</v>
@@ -4097,7 +4126,7 @@
       </c>
       <c r="D70">
         <f>+_xll._Value(D62)</f>
-        <v>2.201069345427796E-2</v>
+        <v>2.2009365270878184E-2</v>
       </c>
       <c r="H70" t="str">
         <v>#NA</v>
@@ -4108,7 +4137,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B71" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H71" t="str">
         <v>#NA</v>
@@ -4189,7 +4218,7 @@
         <v>40107</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H81">
         <v>0.65014134434928483</v>
       </c>
@@ -4197,7 +4226,7 @@
         <v>40199</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H82">
         <v>0.63602853580461316</v>
       </c>
@@ -4205,7 +4234,7 @@
         <v>40289</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H83">
         <v>0.73560473983753116</v>
       </c>
@@ -4213,7 +4242,7 @@
         <v>40380</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H84">
         <v>0.92793509955574272</v>
       </c>
@@ -4221,241 +4250,15 @@
         <v>40472</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H85">
         <v>100</v>
       </c>
       <c r="I85" s="1">
         <v>40472</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A87" t="e">
-        <f t="array" ref="A87:Q88">+_xll._Value_Range(B54,"RT")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q87" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q88" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A89" t="e">
-        <f t="array" ref="A89:S90">+_xll._Value_Range(C54,"RT")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S89" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S90" t="e">
-        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/Cephei.XL/Bond1.xlsx
+++ b/Cephei.XL/Bond1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\source\repos\Cephei2\Cephei.XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9725F6F9-81C8-4B1E-AB37-36537A22119F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0284BD8-A35D-4364-8F53-4583EE87BAF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{1287AFFA-50F8-48B2-8168-E284DC333339}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{1287AFFA-50F8-48B2-8168-E284DC333339}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,23 +558,14 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>marketQuotes4</v>
+        <v>zc1y</v>
         <stp/>
-        <stp>marketQuotes4</stp>
-        <stp>0</stp>
-        <tr r="K18" s="1"/>
+        <stp>zc1y</stp>
+        <stp>-2050528296</stp>
+        <tr r="H10" s="1"/>
       </tp>
-      <tp t="s">
-        <v>FixedSettlementDatte</v>
-        <stp/>
-        <stp>FixedSettlementDatte</stp>
-        <stp>-798541351</stp>
-        <tr r="B33" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>Semiannual</v>
         <stp/>
@@ -583,48 +574,7 @@
         <tr r="E39" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>marketQuotes1</v>
-        <stp/>
-        <stp>marketQuotes1</stp>
-        <stp>0</stp>
-        <tr r="K15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>marketQuotes0</v>
-        <stp/>
-        <stp>marketQuotes0</stp>
-        <stp>0</stp>
-        <tr r="K14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>zc1y</v>
-        <stp/>
-        <stp>zc1y</stp>
-        <stp>-2050528296</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>couponRate0</v>
-        <stp/>
-        <stp>couponRate0</stp>
-        <stp>-1165563463</stp>
-        <tr r="J14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>marketQuotes3</v>
-        <stp/>
-        <stp>marketQuotes3</stp>
-        <stp>0</stp>
-        <tr r="K17" s="1"/>
-      </tp>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>+settlementDate</v>
         <stp/>
@@ -633,16 +583,50 @@
         <tr r="B3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>marketQuotes2</v>
+        <v>d1mratehelpers</v>
         <stp/>
-        <stp>marketQuotes2</stp>
-        <stp>0</stp>
-        <tr r="K16" s="1"/>
+        <stp>d1mratehelpers</stp>
+        <stp>-1371787608</stp>
+        <tr r="K23" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>floatingRateBond</v>
+        <stp/>
+        <stp>floatingRateBond</stp>
+        <stp>-922790952</stp>
+        <tr r="B47" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>bondDiscountingTermStructure</v>
+        <stp/>
+        <stp>bondDiscountingTermStructure</stp>
+        <stp>-1358081960</stp>
+        <tr r="B17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>zc3m</v>
+        <stp/>
+        <stp>zc3m</stp>
+        <stp>-1010340904</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FixedZeroPreviouscoupon</v>
+        <stp/>
+        <stp>FixedZeroPreviouscoupon</stp>
+        <stp>815396861</stp>
+        <tr r="C60" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>floatcouponpricer2</v>
         <stp/>
@@ -651,34 +635,21 @@
         <tr r="B51" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>0.56211286639560409</v>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>+settlementDateAdjustedSer</v>
         <stp/>
-        <stp>FloatingFixedZeroAccruedcoupon</stp>
+        <stp>+settlementDateAdjustedSer</stp>
+        <stp>-649169906</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>faceAmount</v>
         <stp/>
-        <tr r="D67" s="1"/>
+        <stp>faceAmount</stp>
+        <stp>1079574528</stp>
+        <tr r="B24" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>FixedZeroPreviouscoupon</v>
-        <stp/>
-        <stp>FixedZeroPreviouscoupon</stp>
-        <stp>815396861</stp>
-        <tr r="C60" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>d1mratehelpers</v>
-        <stp/>
-        <stp>d1mratehelpers</stp>
-        <stp>-1371787608</stp>
-        <tr r="K23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>swFloatingLegIndex</v>
         <stp/>
@@ -687,23 +658,7 @@
         <tr r="E46" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>86.317292342665496</v>
-        <stp/>
-        <stp>ZeroDirtyPrice</stp>
-        <stp/>
-        <tr r="B66" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>zc3m</v>
-        <stp/>
-        <stp>zc3m</stp>
-        <stp>-1010340904</stp>
-        <tr r="H8" s="1"/>
-      </tp>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>d9mRate</v>
         <stp/>
@@ -712,11 +667,11 @@
         <tr r="J26" s="1"/>
       </tp>
       <tp t="s">
-        <v>d6mRate</v>
+        <v>d1mRate</v>
         <stp/>
-        <stp>d6mRate</stp>
+        <stp>d1mRate</stp>
         <stp>0</stp>
-        <tr r="J25" s="1"/>
+        <tr r="J23" s="1"/>
       </tp>
       <tp t="s">
         <v>d3mRate</v>
@@ -726,21 +681,23 @@
         <tr r="J24" s="1"/>
       </tp>
       <tp t="s">
-        <v>d1mRate</v>
+        <v>d6mRate</v>
         <stp/>
-        <stp>d1mRate</stp>
+        <stp>d6mRate</stp>
         <stp>0</stp>
-        <tr r="J23" s="1"/>
+        <tr r="J25" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>bondDiscountingTermStructure</v>
+        <v>ZeroNextcoupon</v>
         <stp/>
-        <stp>bondDiscountingTermStructure</stp>
-        <stp>-1358081960</stp>
-        <tr r="B17" s="1"/>
+        <stp>ZeroNextcoupon</stp>
+        <stp>1029105693#</stp>
+        <tr r="B61" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>FloatingFixedZeroAccruedcoupon</v>
         <stp/>
@@ -749,95 +706,7 @@
         <tr r="D59" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>#no coupon paid at cashflow date 15/08/2013</v>
-        <stp/>
-        <stp>ZeroNextcoupon</stp>
-        <stp>1029105693#</stp>
-        <tr r="B61" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>FixedRateCashflow</v>
-        <stp/>
-        <stp>FixedRateCashflow</stp>
-        <stp>-77321281</stp>
-        <tr r="B38" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>+settlementDateAdjustedSer</v>
-        <stp/>
-        <stp>+settlementDateAdjustedSer</stp>
-        <stp>-649169906</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>faceAmount</v>
-        <stp/>
-        <stp>faceAmount</stp>
-        <stp>1079574528</stp>
-        <tr r="B24" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>2.8862499999999999E-2</v>
-        <stp/>
-        <stp>FloatingFixedZeroPreviouscoupon</stp>
-        <stp/>
-        <tr r="D68" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>redemption</v>
-        <stp/>
-        <stp>redemption</stp>
-        <stp>1079574528</stp>
-        <tr r="B13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>bondhelper4</v>
-        <stp/>
-        <stp>bondhelper4</stp>
-        <stp>-1090572417</stp>
-        <tr r="M18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>4.4999999999999998E-2</v>
-        <stp/>
-        <stp>FixedZeroPreviouscoupon</stp>
-        <stp/>
-        <tr r="C68" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>FixedNextcoupon</v>
-        <stp/>
-        <stp>FixedNextcoupon</stp>
-        <stp>815396861</stp>
-        <tr r="C61" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>d1wRate</v>
-        <stp/>
-        <stp>d1wRate</stp>
-        <stp>0</stp>
-        <tr r="J22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>floatingBondSchedule</v>
         <stp/>
@@ -845,12 +714,14 @@
         <stp>-2089128530</stp>
         <tr r="B46" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>ZeroPreviouscoupon</v>
+        <v>redemption</v>
         <stp/>
-        <stp>ZeroPreviouscoupon</stp>
-        <stp>1029105693</stp>
-        <tr r="B60" s="1"/>
+        <stp>redemption</stp>
+        <stp>1079574528</stp>
+        <tr r="B13" s="1"/>
       </tp>
       <tp t="s">
         <v>s2yratehelpers</v>
@@ -860,22 +731,74 @@
         <tr r="K28" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>FloatingDirtyPrice</v>
+        <v>d1wRate</v>
         <stp/>
-        <stp>FloatingDirtyPrice</stp>
-        <stp>588410313</stp>
-        <tr r="D58" s="1"/>
+        <stp>d1wRate</stp>
+        <stp>0</stp>
+        <tr r="J22" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>3.6475570816152846E-2</v>
+        <stp/>
+        <stp>FixedYield</stp>
+        <stp/>
+        <tr r="C70" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>d1yRate</v>
+        <v>ZeroPreviouscoupon</v>
         <stp/>
-        <stp>d1yRate</stp>
+        <stp>ZeroPreviouscoupon</stp>
+        <stp>1029105693</stp>
+        <tr r="B60" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>FixedNextcoupon</v>
+        <stp/>
+        <stp>FixedNextcoupon</stp>
+        <stp>815396861</stp>
+        <tr r="C61" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>ActualActualBond</v>
+        <stp/>
+        <stp>ActualActualBond</stp>
+        <stp>1506851973</stp>
+        <tr r="E40" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>102.3194216915206</v>
+        <stp/>
+        <stp>FloatingNPV</stp>
+        <stp/>
+        <tr r="D64" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>s3yRate</v>
+        <stp/>
+        <stp>s3yRate</stp>
         <stp>0</stp>
-        <tr r="J27" s="1"/>
+        <tr r="J29" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>s2yRate</v>
+        <stp/>
+        <stp>s2yRate</stp>
+        <stp>0</stp>
+        <tr r="J28" s="1"/>
       </tp>
       <tp t="s">
         <v>s5yRate</v>
@@ -885,43 +808,386 @@
         <tr r="J30" s="1"/>
       </tp>
       <tp t="s">
-        <v>s2yRate</v>
+        <v>d1yRate</v>
         <stp/>
-        <stp>s2yRate</stp>
+        <stp>d1yRate</stp>
         <stp>0</stp>
-        <tr r="J28" s="1"/>
+        <tr r="J27" s="1"/>
       </tp>
       <tp t="s">
-        <v>s3yRate</v>
+        <v>FloatingCleanPrice</v>
         <stp/>
-        <stp>s3yRate</stp>
-        <stp>0</stp>
-        <tr r="J29" s="1"/>
+        <stp>FloatingCleanPrice</stp>
+        <stp>588410313</stp>
+        <tr r="D57" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>86.317292342665496</v>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>ZeroIssueDate</v>
         <stp/>
-        <stp>ZeroCleanPrice</stp>
-        <stp/>
-        <tr r="B65" s="1"/>
+        <stp>ZeroIssueDate</stp>
+        <stp>-12167724</stp>
+        <tr r="B28" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>d3m</v>
+        <v>FloatingDirtyPrice</v>
         <stp/>
-        <stp>d3m</stp>
-        <stp>-1226026113</stp>
-        <tr r="H24" s="1"/>
+        <stp>FloatingDirtyPrice</stp>
+        <stp>588410313</stp>
+        <tr r="D58" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>FloatSettlementDatte</v>
+        <stp/>
+        <stp>FloatSettlementDatte</stp>
+        <stp>888501985</stp>
+        <tr r="B42" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>FixedCleanPrice</v>
+        <stp/>
+        <stp>FixedCleanPrice</stp>
+        <stp>-77321281</stp>
+        <tr r="C57" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>bondInstruments</v>
+        <stp/>
+        <stp>bondInstruments</stp>
+        <stp>1882299273</stp>
+        <tr r="B16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>tolerance</v>
+        <stp/>
+        <stp>tolerance</stp>
+        <stp>-1573562951</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>+settlementDateAdjusted</v>
+        <stp/>
+        <stp>+settlementDateAdjusted</stp>
+        <stp>-544419191</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>todaysDate</v>
+        <stp/>
+        <stp>todaysDate</stp>
+        <stp>-111422835</stp>
+        <tr r="B8" s="1"/>
       </tp>
       <tp t="s">
-        <v>d6m</v>
+        <v>s15y</v>
         <stp/>
-        <stp>d6m</stp>
-        <stp>-1226026161</stp>
-        <tr r="H25" s="1"/>
+        <stp>s15y</stp>
+        <stp>772304968</stp>
+        <tr r="H32" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FloatingFixedZeroPreviouscoupon</v>
+        <stp/>
+        <stp>FloatingFixedZeroPreviouscoupon</stp>
+        <stp>-1208119139</stp>
+        <tr r="D60" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>101.75730882512499</v>
+        <stp/>
+        <stp>FloatingCleanPrice</stp>
+        <stp/>
+        <tr r="D65" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>fixedBondSchedule</v>
+        <stp/>
+        <stp>fixedBondSchedule</stp>
+        <stp>-2089128530</stp>
+        <tr r="B35" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>FixedDirtyPrice</v>
+        <stp/>
+        <stp>FixedDirtyPrice</stp>
+        <stp>-77321281</stp>
+        <tr r="C58" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>FloatingYield</v>
+        <stp/>
+        <stp>FloatingYield</stp>
+        <stp>-712193011</stp>
+        <tr r="D62" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>3.4298412186850417E-2</v>
+        <stp/>
+        <stp>FloatingNextcoupon</stp>
+        <stp/>
+        <tr r="D69" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>FloatRedemption</v>
+        <stp/>
+        <stp>FloatRedemption</stp>
+        <stp>1079574528</stp>
+        <tr r="B41" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>Gearing</v>
+        <stp/>
+        <stp>Gearing</stp>
+        <stp>1072693248</stp>
+        <tr r="B44" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>FixedRedemption</v>
+        <stp/>
+        <stp>FixedRedemption</stp>
+        <stp>1079574528</stp>
+        <tr r="B32" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>fixingDays</v>
+        <stp/>
+        <stp>fixingDays</stp>
+        <stp>3</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>bondhelper3</v>
+        <stp/>
+        <stp>bondhelper3</stp>
+        <stp>922693503</stp>
+        <tr r="M17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>termStructureDayCounter</v>
+        <stp/>
+        <stp>termStructureDayCounter</stp>
+        <stp>1443485125</stp>
+        <tr r="E41" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>ZeroNPV</v>
+        <stp/>
+        <stp>ZeroNPV</stp>
+        <stp>1001970241</stp>
+        <tr r="B56" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>fixingDaysNeg</v>
+        <stp/>
+        <stp>fixingDaysNeg</stp>
+        <stp>-3</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>Fixing1</v>
+        <stp/>
+        <stp>Fixing1</stp>
+        <stp>1755687198</stp>
+        <tr r="J39" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>Spreads</v>
+        <stp/>
+        <stp>Spreads</stp>
+        <stp>-308163663</stp>
+        <tr r="B45" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>ZeroPreviouscoupon</stp>
+        <stp/>
+        <tr r="B68" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>102.3194216915206</v>
+        <stp/>
+        <stp>FloatingDirtyPrice</stp>
+        <stp/>
+        <tr r="D66" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>FixedRateBond</v>
+        <stp/>
+        <stp>FixedRateBond</stp>
+        <stp>1820916808</stp>
+        <tr r="B37" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>39706</v>
+        <stp/>
+        <stp>todaysDateSer</stp>
+        <stp/>
+        <tr r="D8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>2.2009365270878184E-2</v>
+        <stp/>
+        <stp>FloatingYield</stp>
+        <stp/>
+        <tr r="D70" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>bondEnginefl</v>
+        <stp/>
+        <stp>bondEnginefl</stp>
+        <stp>246307230</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>actual360</v>
+        <stp/>
+        <stp>actual360</stp>
+        <stp>372029375</stp>
+        <tr r="E48" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>FixedRateCoupon</v>
+        <stp/>
+        <stp>FixedRateCoupon</stp>
+        <stp>1325718839</stp>
+        <tr r="B36" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>bondEnginefi</v>
+        <stp/>
+        <stp>bondEnginefi</stp>
+        <stp>246307230</stp>
+        <tr r="B21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ZeroYield</v>
+        <stp/>
+        <stp>ZeroYield</stp>
+        <stp>-1391670259</stp>
+        <tr r="B62" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>bondhelper0</v>
+        <stp/>
+        <stp>bondhelper0</stp>
+        <stp>1862217599</stp>
+        <tr r="M14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>depoSwapInstruments</v>
+        <stp/>
+        <stp>depoSwapInstruments</stp>
+        <stp>-501517731</stp>
+        <tr r="B18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp t="s">
+        <v>#no coupon paid at cashflow date 15/08/2013 ,Bond.nextCouponRate</v>
+        <stp/>
+        <stp>ZeroNextcoupon</stp>
+        <stp/>
+        <tr r="B69" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>zc1yPeriod</v>
+        <stp/>
+        <stp>zc1yPeriod</stp>
+        <stp>2119925464</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>zeroCouponBond</v>
+        <stp/>
+        <stp>zeroCouponBond</stp>
+        <stp>-762789832</stp>
+        <tr r="B29" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>couponRate1</v>
+        <stp/>
+        <stp>couponRate1</stp>
+        <stp>1162275258</stp>
+        <tr r="J15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>couponRate3</v>
+        <stp/>
+        <stp>couponRate3</stp>
+        <stp>2013949594</stp>
+        <tr r="J17" s="1"/>
       </tp>
       <tp t="s">
         <v>d1m</v>
@@ -931,16 +1197,57 @@
         <tr r="H23" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>FloatingCleanPrice</v>
+        <v>d6m</v>
         <stp/>
-        <stp>FloatingCleanPrice</stp>
-        <stp>588410313</stp>
-        <tr r="D57" s="1"/>
+        <stp>d6m</stp>
+        <stp>-1226026161</stp>
+        <tr r="H25" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>d3m</v>
+        <stp/>
+        <stp>d3m</stp>
+        <stp>-1226026113</stp>
+        <tr r="H24" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>d9m</v>
+        <stp/>
+        <stp>d9m</stp>
+        <stp>-1226026273</stp>
+        <tr r="H26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>bondhelper1</v>
+        <stp/>
+        <stp>bondhelper1</stp>
+        <stp>-738250881</stp>
+        <tr r="M15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>instruments</v>
+        <stp/>
+        <stp>instruments</stp>
+        <stp>-192993751</stp>
+        <tr r="B15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FixedZeroAccruedcoupon</v>
+        <stp/>
+        <stp>FixedZeroAccruedcoupon</stp>
+        <stp>815396861</stp>
+        <tr r="C59" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>bondhelper2</v>
         <stp/>
@@ -949,488 +1256,14 @@
         <tr r="M16" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>FloatSettlementDatte</v>
+        <v>zc1yRate</v>
         <stp/>
-        <stp>FloatSettlementDatte</stp>
-        <stp>888501985</stp>
-        <tr r="B42" s="1"/>
+        <stp>zc1yRate</stp>
+        <stp>0</stp>
+        <tr r="B12" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>d9m</v>
-        <stp/>
-        <stp>d9m</stp>
-        <stp>-1226026273</stp>
-        <tr r="H26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>zc6m</v>
-        <stp/>
-        <stp>zc6m</stp>
-        <stp>-792237096</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>forwardStart</v>
-        <stp/>
-        <stp>forwardStart</stp>
-        <stp>-223693829</stp>
-        <tr r="E47" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>zcBondsDayCounter</v>
-        <stp/>
-        <stp>zcBondsDayCounter</stp>
-        <stp>0</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>107.66828913260423</v>
-        <stp/>
-        <stp>FixedNPV</stp>
-        <stp/>
-        <tr r="C64" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>tolerance</v>
-        <stp/>
-        <stp>tolerance</stp>
-        <stp>-1573562951</stp>
-        <tr r="B14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>FixedCleanPrice</v>
-        <stp/>
-        <stp>FixedCleanPrice</stp>
-        <stp>-77321281</stp>
-        <tr r="C57" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>s10y</v>
-        <stp/>
-        <stp>s10y</stp>
-        <stp>1121190872</stp>
-        <tr r="H31" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>bondInstruments</v>
-        <stp/>
-        <stp>bondInstruments</stp>
-        <stp>1882299273</stp>
-        <tr r="B16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>depositDayCounter</v>
-        <stp/>
-        <stp>depositDayCounter</stp>
-        <stp>372029375</stp>
-        <tr r="E43" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>s15y</v>
-        <stp/>
-        <stp>s15y</stp>
-        <stp>772304968</stp>
-        <tr r="H32" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>FixedDirtyPrice</v>
-        <stp/>
-        <stp>FixedDirtyPrice</stp>
-        <stp>-77321281</stp>
-        <tr r="C58" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>107.66828913260423</v>
-        <stp/>
-        <stp>FixedDirtyPrice</stp>
-        <stp/>
-        <tr r="C66" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>+settlementDateAdjusted</v>
-        <stp/>
-        <stp>+settlementDateAdjusted</stp>
-        <stp>-544419191</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>loglinier</v>
-        <stp/>
-        <stp>loglinier</stp>
-        <stp>0</stp>
-        <tr r="E44" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>fixedBondSchedule</v>
-        <stp/>
-        <stp>fixedBondSchedule</stp>
-        <stp>-2089128530</stp>
-        <tr r="B35" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>39709</v>
-        <stp/>
-        <stp>+settlementDateAdjustedSer</stp>
-        <stp/>
-        <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>todaysDate</v>
-        <stp/>
-        <stp>todaysDate</stp>
-        <stp>-111422835</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>86.317292342665496</v>
-        <stp/>
-        <stp>ZeroNPV</stp>
-        <stp/>
-        <tr r="B64" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>swFixedLegDayCounter</v>
-        <stp/>
-        <stp>swFixedLegDayCounter</stp>
-        <stp>-748456025</stp>
-        <tr r="E45" s="1"/>
-        <tr r="E51" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>FloatRedemption</v>
-        <stp/>
-        <stp>FloatRedemption</stp>
-        <stp>1079574528</stp>
-        <tr r="B41" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>Gearing</v>
-        <stp/>
-        <stp>Gearing</stp>
-        <stp>1072693248</stp>
-        <tr r="B44" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>FixedRedemption</v>
-        <stp/>
-        <stp>FixedRedemption</stp>
-        <stp>1079574528</stp>
-        <tr r="B32" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>FloatingYield</v>
-        <stp/>
-        <stp>FloatingYield</stp>
-        <stp>-712193011</stp>
-        <tr r="D62" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>termStructureDayCounter</v>
-        <stp/>
-        <stp>termStructureDayCounter</stp>
-        <stp>1443485125</stp>
-        <tr r="E41" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>FixedRateBond</v>
-        <stp/>
-        <stp>FixedRateBond</stp>
-        <stp>1820916808</stp>
-        <tr r="B37" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>Fixing1</v>
-        <stp/>
-        <stp>Fixing1</stp>
-        <stp>1755687198</stp>
-        <tr r="J39" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>bondhelper3</v>
-        <stp/>
-        <stp>bondhelper3</stp>
-        <stp>922693503</stp>
-        <tr r="M17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>ZeroNPV</v>
-        <stp/>
-        <stp>ZeroNPV</stp>
-        <stp>1001970241</stp>
-        <tr r="B56" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>Spreads</v>
-        <stp/>
-        <stp>Spreads</stp>
-        <stp>-308163663</stp>
-        <tr r="B45" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>2.2009365270878184E-2</v>
-        <stp/>
-        <stp>FloatingYield</stp>
-        <stp/>
-        <tr r="D70" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>106.127528263039</v>
-        <stp/>
-        <stp>FixedCleanPrice</stp>
-        <stp/>
-        <tr r="C65" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>fixingDaysNeg</v>
-        <stp/>
-        <stp>fixingDaysNeg</stp>
-        <stp>-3</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>fixingDays</v>
-        <stp/>
-        <stp>fixingDays</stp>
-        <stp>3</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>4.4999999999999998E-2</v>
-        <stp/>
-        <stp>FixedNextcoupon</stp>
-        <stp/>
-        <tr r="C69" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>39706</v>
-        <stp/>
-        <stp>todaysDateSer</stp>
-        <stp/>
-        <tr r="D8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>bondEnginefl</v>
-        <stp/>
-        <stp>bondEnginefl</stp>
-        <stp>246307230</stp>
-        <tr r="B22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>1.5407608695652275</v>
-        <stp/>
-        <stp>FixedZeroAccruedcoupon</stp>
-        <stp/>
-        <tr r="C67" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>ZeroYield</v>
-        <stp/>
-        <stp>ZeroYield</stp>
-        <stp>-1391670259</stp>
-        <tr r="B62" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>bondEnginefi</v>
-        <stp/>
-        <stp>bondEnginefi</stp>
-        <stp>246307230</stp>
-        <tr r="B21" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>FixedRateCoupon</v>
-        <stp/>
-        <stp>FixedRateCoupon</stp>
-        <stp>1325718839</stp>
-        <tr r="B36" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>zeroCouponBond</v>
-        <stp/>
-        <stp>zeroCouponBond</stp>
-        <stp>-762789832</stp>
-        <tr r="B29" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>bondhelper0</v>
-        <stp/>
-        <stp>bondhelper0</stp>
-        <stp>1862217599</stp>
-        <tr r="M14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>floatcouponpricer</v>
-        <stp/>
-        <stp>floatcouponpricer</stp>
-        <stp>1741592878</stp>
-        <tr r="B48" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>ActualActualBond</v>
-        <stp/>
-        <stp>ActualActualBond</stp>
-        <stp>1506851973</stp>
-        <tr r="E40" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>FixedZeroAccruedcoupon</v>
-        <stp/>
-        <stp>FixedZeroAccruedcoupon</stp>
-        <stp>815396861</stp>
-        <tr r="C59" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>zc1yPeriod</v>
-        <stp/>
-        <stp>zc1yPeriod</stp>
-        <stp>2119925464</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>couponRate1</v>
-        <stp/>
-        <stp>couponRate1</stp>
-        <stp>1162275258</stp>
-        <tr r="J15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>depoSwapInstruments</v>
-        <stp/>
-        <stp>depoSwapInstruments</stp>
-        <stp>-501517731</stp>
-        <tr r="B18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>ZeroIssueDate</v>
-        <stp/>
-        <stp>ZeroIssueDate</stp>
-        <stp>-12167724</stp>
-        <tr r="B28" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>couponRate3</v>
-        <stp/>
-        <stp>couponRate3</stp>
-        <stp>2013949594</stp>
-        <tr r="J17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>couponRate2</v>
-        <stp/>
-        <stp>couponRate2</stp>
-        <stp>1067450368</stp>
-        <tr r="J16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>3.6475570816152846E-2</v>
-        <stp/>
-        <stp>FixedYield</stp>
-        <stp/>
-        <tr r="C70" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>s10yRate</v>
         <stp/>
@@ -1446,41 +1279,50 @@
         <tr r="J32" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>zc1yRate</v>
+        <v>floatcouponpricer</v>
         <stp/>
-        <stp>zc1yRate</stp>
-        <stp>0</stp>
-        <tr r="B12" s="1"/>
+        <stp>floatcouponpricer</stp>
+        <stp>1741592878</stp>
+        <tr r="B48" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>couponRate2</v>
+        <stp/>
+        <stp>couponRate2</stp>
+        <stp>1067450368</stp>
+        <tr r="J16" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>instruments</v>
+        <v>libor3mPeriod</v>
         <stp/>
-        <stp>instruments</stp>
-        <stp>-192993751</stp>
-        <tr r="B15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>bondhelper1</v>
-        <stp/>
-        <stp>bondhelper1</stp>
-        <stp>-738250881</stp>
-        <tr r="M15" s="1"/>
+        <stp>libor3mPeriod</stp>
+        <stp>-1226026113</stp>
+        <tr r="B40" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
       <tp>
-        <v>102.3194216915206</v>
+        <v>4.4999999999999998E-2</v>
         <stp/>
-        <stp>FloatingNPV</stp>
+        <stp>FixedZeroPreviouscoupon</stp>
         <stp/>
-        <tr r="D64" s="1"/>
+        <tr r="C68" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>settlementDays</v>
+        <stp/>
+        <stp>settlementDays</stp>
+        <stp>3</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>depoSwapTermStructure</v>
         <stp/>
@@ -1489,16 +1331,7 @@
         <tr r="B19" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>libor3mPeriod</v>
-        <stp/>
-        <stp>libor3mPeriod</stp>
-        <stp>-1226026113</stp>
-        <tr r="B40" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>discount</v>
         <stp/>
@@ -1507,15 +1340,6 @@
         <tr r="E42" s="1"/>
       </tp>
       <tp t="s">
-        <v>settlementDays</v>
-        <stp/>
-        <stp>settlementDays</stp>
-        <stp>3</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
         <v>calendar</v>
         <stp/>
         <stp>calendar</stp>
@@ -1523,7 +1347,16 @@
         <tr r="B2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>bondhelper4</v>
+        <stp/>
+        <stp>bondhelper4</stp>
+        <stp>-1090572417</stp>
+        <tr r="M18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>couponRate4</v>
         <stp/>
@@ -1532,25 +1365,62 @@
         <tr r="J18" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>floatingRateBond</v>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>86.317292342665496</v>
         <stp/>
-        <stp>floatingRateBond</stp>
-        <stp>-922790952</stp>
-        <tr r="B47" s="1"/>
+        <stp>ZeroCleanPrice</stp>
+        <stp/>
+        <tr r="B65" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
       <tp>
-        <v>0</v>
+        <v>2.8862499999999999E-2</v>
         <stp/>
-        <stp>ZeroAccruedcoupon</stp>
+        <stp>FloatingFixedZeroPreviouscoupon</stp>
         <stp/>
-        <tr r="B67" s="1"/>
+        <tr r="D68" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>schedule2</v>
+        <stp/>
+        <stp>schedule2</stp>
+        <stp>1913417000</stp>
+        <tr r="L16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule3</v>
+        <stp/>
+        <stp>schedule3</stp>
+        <stp>1913417000</stp>
+        <tr r="L17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule0</v>
+        <stp/>
+        <stp>schedule0</stp>
+        <stp>1913417000</stp>
+        <tr r="L14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule1</v>
+        <stp/>
+        <stp>schedule1</stp>
+        <stp>1913417000</stp>
+        <tr r="L15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule4</v>
+        <stp/>
+        <stp>schedule4</stp>
+        <stp>1913417000</stp>
+        <tr r="L18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>zc3mRate</v>
         <stp/>
@@ -1565,8 +1435,6 @@
         <stp>0</stp>
         <tr r="B11" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>Quarterly</v>
         <stp/>
@@ -1575,44 +1443,46 @@
         <tr r="E49" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>3.0000642156600955E-2</v>
+        <stp/>
+        <stp>ZeroYield</stp>
+        <stp/>
+        <tr r="B70" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>schedule3</v>
+        <v>s2y</v>
         <stp/>
-        <stp>schedule3</stp>
-        <stp>1913417000</stp>
-        <tr r="L17" s="1"/>
+        <stp>s2y</stp>
+        <stp>2119925512</stp>
+        <tr r="H28" s="1"/>
       </tp>
       <tp t="s">
-        <v>schedule2</v>
+        <v>FixedRateCashflow</v>
         <stp/>
-        <stp>schedule2</stp>
-        <stp>1913417000</stp>
-        <tr r="L16" s="1"/>
+        <stp>FixedRateCashflow</stp>
+        <stp>-77321281</stp>
+        <tr r="B38" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>s5y</v>
+        <stp/>
+        <stp>s5y</stp>
+        <stp>2119925400</stp>
+        <tr r="H30" s="1"/>
       </tp>
       <tp t="s">
-        <v>schedule1</v>
+        <v>s3y</v>
         <stp/>
-        <stp>schedule1</stp>
-        <stp>1913417000</stp>
-        <tr r="L15" s="1"/>
+        <stp>s3y</stp>
+        <stp>2119925496</stp>
+        <tr r="H29" s="1"/>
       </tp>
-      <tp t="s">
-        <v>schedule0</v>
-        <stp/>
-        <stp>schedule0</stp>
-        <stp>1913417000</stp>
-        <tr r="L14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>schedule4</v>
-        <stp/>
-        <stp>schedule4</stp>
-        <stp>1913417000</stp>
-        <tr r="L18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
       <tp t="s">
         <v>d1y</v>
         <stp/>
@@ -1621,32 +1491,39 @@
         <tr r="H27" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>s3y</v>
+        <v>FixedSettlementDatte</v>
         <stp/>
-        <stp>s3y</stp>
-        <stp>2119925496</stp>
-        <tr r="H29" s="1"/>
+        <stp>FixedSettlementDatte</stp>
+        <stp>-798541351</stp>
+        <tr r="B33" s="1"/>
       </tp>
       <tp t="s">
-        <v>s5y</v>
+        <v>marketQuotes4</v>
         <stp/>
-        <stp>s5y</stp>
-        <stp>2119925400</stp>
-        <tr r="H30" s="1"/>
+        <stp>marketQuotes4</stp>
+        <stp>0</stp>
+        <tr r="K18" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>s2y</v>
+        <v>s10yratehelpers</v>
         <stp/>
-        <stp>s2y</stp>
-        <stp>2119925512</stp>
-        <tr r="H28" s="1"/>
+        <stp>s10yratehelpers</stp>
+        <stp>154939048</stp>
+        <tr r="K31" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>FloatingNPV</v>
+        <stp/>
+        <stp>FloatingNPV</stp>
+        <stp>588410313</stp>
+        <tr r="D56" s="1"/>
+      </tp>
       <tp t="s">
         <v>todaysDateSer</v>
         <stp/>
@@ -1655,32 +1532,7 @@
         <tr r="C8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>3.0000642156600955E-2</v>
-        <stp/>
-        <stp>ZeroYield</stp>
-        <stp/>
-        <tr r="B70" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>ZeroAccruedcoupon</v>
-        <stp/>
-        <stp>ZeroAccruedcoupon</stp>
-        <stp>1029105693</stp>
-        <tr r="B59" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>FloatingNPV</v>
-        <stp/>
-        <stp>FloatingNPV</stp>
-        <stp>588410313</stp>
-        <tr r="D56" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>d1w</v>
         <stp/>
@@ -1689,16 +1541,84 @@
         <tr r="H22" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>s10yratehelpers</v>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>0.56211286639560409</v>
         <stp/>
-        <stp>s10yratehelpers</stp>
-        <stp>154939048</stp>
-        <tr r="K31" s="1"/>
+        <stp>FloatingFixedZeroAccruedcoupon</stp>
+        <stp/>
+        <tr r="D67" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>marketQuotes0</v>
+        <stp/>
+        <stp>marketQuotes0</stp>
+        <stp>0</stp>
+        <tr r="K14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>marketQuotes1</v>
+        <stp/>
+        <stp>marketQuotes1</stp>
+        <stp>0</stp>
+        <tr r="K15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>marketQuotes2</v>
+        <stp/>
+        <stp>marketQuotes2</stp>
+        <stp>0</stp>
+        <tr r="K16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ZeroAccruedcoupon</v>
+        <stp/>
+        <stp>ZeroAccruedcoupon</stp>
+        <stp>1029105693</stp>
+        <tr r="B59" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>86.317292342665496</v>
+        <stp/>
+        <stp>ZeroDirtyPrice</stp>
+        <stp/>
+        <tr r="B66" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>couponRate0</v>
+        <stp/>
+        <stp>couponRate0</stp>
+        <stp>-1165563463</stp>
+        <tr r="J14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>marketQuotes3</v>
+        <stp/>
+        <stp>marketQuotes3</stp>
+        <stp>0</stp>
+        <tr r="K17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>ZeroAccruedcoupon</stp>
+        <stp/>
+        <tr r="B67" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>s15yratehelpers</v>
         <stp/>
@@ -1707,7 +1627,86 @@
         <tr r="K32" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>Actual365Fixed</v>
+        <stp/>
+        <stp>Actual365Fixed</stp>
+        <stp>0</stp>
+        <tr r="E50" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>USDLibor</v>
+        <stp/>
+        <stp>USDLibor</stp>
+        <stp>172051658</stp>
+        <tr r="J37" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp t="s">
+        <v>FixedRateBondzeroCouponBondCashflow</v>
+        <stp/>
+        <stp>FixedRateBondzeroCouponBondCashflow</stp>
+        <stp>CT</stp>
+        <tr r="H45" s="1"/>
+        <tr r="H48" s="1"/>
+        <tr r="I51" s="1"/>
+        <tr r="I54" s="1"/>
+        <tr r="I63" s="1"/>
+        <tr r="I52" s="1"/>
+        <tr r="I42" s="1"/>
+        <tr r="H58" s="1"/>
+        <tr r="H51" s="1"/>
+        <tr r="H55" s="1"/>
+        <tr r="I46" s="1"/>
+        <tr r="H46" s="1"/>
+        <tr r="I56" s="1"/>
+        <tr r="H56" s="1"/>
+        <tr r="I59" s="1"/>
+        <tr r="H49" s="1"/>
+        <tr r="I55" s="1"/>
+        <tr r="I45" s="1"/>
+        <tr r="H42" s="1"/>
+        <tr r="H50" s="1"/>
+        <tr r="I60" s="1"/>
+        <tr r="H61" s="1"/>
+        <tr r="I44" s="1"/>
+        <tr r="H43" s="1"/>
+        <tr r="I62" s="1"/>
+        <tr r="H53" s="1"/>
+        <tr r="H63" s="1"/>
+        <tr r="H54" s="1"/>
+        <tr r="H44" s="1"/>
+        <tr r="H52" s="1"/>
+        <tr r="H47" s="1"/>
+        <tr r="I58" s="1"/>
+        <tr r="I50" s="1"/>
+        <tr r="I57" s="1"/>
+        <tr r="I53" s="1"/>
+        <tr r="H57" s="1"/>
+        <tr r="H59" s="1"/>
+        <tr r="H60" s="1"/>
+        <tr r="I47" s="1"/>
+        <tr r="I61" s="1"/>
+        <tr r="H62" s="1"/>
+        <tr r="I48" s="1"/>
+        <tr r="I49" s="1"/>
+        <tr r="I43" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>optionletvolitility</v>
+        <stp/>
+        <stp>optionletvolitility</stp>
+        <stp>0</stp>
+        <tr r="B49" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>ConstantOptionletVolatility</v>
         <stp/>
@@ -1716,34 +1715,16 @@
         <tr r="B50" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>USDLibor</v>
+        <v>s5yratehelpers</v>
         <stp/>
-        <stp>USDLibor</stp>
-        <stp>172051658</stp>
-        <tr r="J37" s="1"/>
+        <stp>s5yratehelpers</stp>
+        <stp>1362898600</stp>
+        <tr r="K30" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>optionletvolitility</v>
-        <stp/>
-        <stp>optionletvolitility</stp>
-        <stp>0</stp>
-        <tr r="B49" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>actual360</v>
-        <stp/>
-        <stp>actual360</stp>
-        <stp>372029375</stp>
-        <tr r="E48" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>s3yratehelpers</v>
         <stp/>
@@ -1752,16 +1733,7 @@
         <tr r="K29" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>102.3194216915206</v>
-        <stp/>
-        <stp>FloatingDirtyPrice</stp>
-        <stp/>
-        <tr r="D66" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>FloatingNextcoupon</v>
         <stp/>
@@ -1770,43 +1742,25 @@
         <tr r="D61" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>s5yratehelpers</v>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>4.4999999999999998E-2</v>
         <stp/>
-        <stp>s5yratehelpers</stp>
-        <stp>1362898600</stp>
-        <tr r="K30" s="1"/>
+        <stp>FixedNextcoupon</stp>
+        <stp/>
+        <tr r="C69" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>Actual365Fixed</v>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>1.5407608695652275</v>
         <stp/>
-        <stp>Actual365Fixed</stp>
-        <stp>0</stp>
-        <tr r="E50" s="1"/>
+        <stp>FixedZeroAccruedcoupon</stp>
+        <stp/>
+        <tr r="C67" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>ZeroPreviouscoupon</stp>
-        <stp/>
-        <tr r="B68" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>FixedIssueDate</v>
-        <stp/>
-        <stp>FixedIssueDate</stp>
-        <stp>996172436</stp>
-        <tr r="B34" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>ZeroCleanPrice</v>
         <stp/>
@@ -1822,7 +1776,7 @@
         <tr r="K27" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>FixedRateBondzeroCouponBondCashflow</v>
         <stp/>
@@ -1831,7 +1785,52 @@
         <tr r="C63" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>FloatIssueDate</v>
+        <stp/>
+        <stp>FloatIssueDate</stp>
+        <stp>451725283</stp>
+        <tr r="B43" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>106.127528263039</v>
+        <stp/>
+        <stp>FixedCleanPrice</stp>
+        <stp/>
+        <tr r="C65" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>RemptionAmount</v>
+        <stp/>
+        <stp>RemptionAmount</stp>
+        <stp>1079574528</stp>
+        <tr r="B25" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>d1wratehelpers</v>
+        <stp/>
+        <stp>d1wratehelpers</stp>
+        <stp>1144794792</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>FixedNPV</v>
+        <stp/>
+        <stp>FixedNPV</stp>
+        <stp>-77321281</stp>
+        <tr r="C56" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>zeroCouponBondCashflow</v>
         <stp/>
@@ -1840,95 +1839,126 @@
         <tr r="B63" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>FixedRateBondzeroCouponBondCashflow</v>
+        <v>FixedIssueDate</v>
         <stp/>
-        <stp>FixedRateBondzeroCouponBondCashflow</stp>
-        <stp>CT</stp>
-        <tr r="I56" s="1"/>
-        <tr r="H63" s="1"/>
-        <tr r="I60" s="1"/>
-        <tr r="H58" s="1"/>
-        <tr r="H47" s="1"/>
-        <tr r="H49" s="1"/>
-        <tr r="I46" s="1"/>
-        <tr r="H56" s="1"/>
-        <tr r="H61" s="1"/>
-        <tr r="H46" s="1"/>
-        <tr r="I52" s="1"/>
-        <tr r="I62" s="1"/>
-        <tr r="H60" s="1"/>
-        <tr r="H44" s="1"/>
-        <tr r="I58" s="1"/>
-        <tr r="H48" s="1"/>
-        <tr r="I55" s="1"/>
-        <tr r="H57" s="1"/>
-        <tr r="H45" s="1"/>
-        <tr r="I42" s="1"/>
-        <tr r="H54" s="1"/>
-        <tr r="H50" s="1"/>
-        <tr r="I44" s="1"/>
-        <tr r="I59" s="1"/>
-        <tr r="H62" s="1"/>
-        <tr r="I47" s="1"/>
-        <tr r="H52" s="1"/>
-        <tr r="H42" s="1"/>
-        <tr r="I57" s="1"/>
-        <tr r="I61" s="1"/>
-        <tr r="I51" s="1"/>
-        <tr r="H53" s="1"/>
-        <tr r="H43" s="1"/>
-        <tr r="I63" s="1"/>
-        <tr r="I45" s="1"/>
-        <tr r="I50" s="1"/>
-        <tr r="H59" s="1"/>
-        <tr r="I53" s="1"/>
-        <tr r="H51" s="1"/>
-        <tr r="H55" s="1"/>
-        <tr r="I49" s="1"/>
-        <tr r="I54" s="1"/>
-        <tr r="I48" s="1"/>
-        <tr r="I43" s="1"/>
+        <stp>FixedIssueDate</stp>
+        <stp>996172436</stp>
+        <tr r="B34" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>FloatIssueDate</v>
+        <v>swFixedLegDayCounter</v>
         <stp/>
-        <stp>FloatIssueDate</stp>
-        <stp>451725283</stp>
-        <tr r="B43" s="1"/>
+        <stp>swFixedLegDayCounter</stp>
+        <stp>-748456025</stp>
+        <tr r="E45" s="1"/>
+        <tr r="E51" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>FixedNPV</v>
+        <v>bondEnginez</v>
         <stp/>
-        <stp>FixedNPV</stp>
-        <stp>-77321281</stp>
-        <tr r="C56" s="1"/>
+        <stp>bondEnginez</stp>
+        <stp>246307230</stp>
+        <tr r="B20" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>RemptionAmount</v>
+        <v>ZeroSettlementDate</v>
         <stp/>
-        <stp>RemptionAmount</stp>
-        <stp>1079574528</stp>
-        <tr r="B25" s="1"/>
+        <stp>ZeroSettlementDate</stp>
+        <stp>-1699218839</stp>
+        <tr r="B27" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>d1wratehelpers</v>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>39709</v>
         <stp/>
-        <stp>d1wratehelpers</stp>
-        <stp>1144794792</stp>
-        <tr r="K22" s="1"/>
+        <stp>+settlementDateAdjustedSer</stp>
+        <stp/>
+        <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp t="s">
+        <v>floatingRateBondFixedRateBondzeroCouponBondCashflow</v>
+        <stp/>
+        <stp>floatingRateBondFixedRateBondzeroCouponBondCashflow</stp>
+        <stp>CT</stp>
+        <tr r="I70" s="1"/>
+        <tr r="I72" s="1"/>
+        <tr r="H72" s="1"/>
+        <tr r="H66" s="1"/>
+        <tr r="H69" s="1"/>
+        <tr r="H83" s="1"/>
+        <tr r="I65" s="1"/>
+        <tr r="H84" s="1"/>
+        <tr r="I82" s="1"/>
+        <tr r="I81" s="1"/>
+        <tr r="H85" s="1"/>
+        <tr r="H65" s="1"/>
+        <tr r="H76" s="1"/>
+        <tr r="H75" s="1"/>
+        <tr r="H68" s="1"/>
+        <tr r="I80" s="1"/>
+        <tr r="H80" s="1"/>
+        <tr r="H73" s="1"/>
+        <tr r="H71" s="1"/>
+        <tr r="H77" s="1"/>
+        <tr r="I83" s="1"/>
+        <tr r="I77" s="1"/>
+        <tr r="H67" s="1"/>
+        <tr r="I74" s="1"/>
+        <tr r="I84" s="1"/>
+        <tr r="I85" s="1"/>
+        <tr r="I75" s="1"/>
+        <tr r="I73" s="1"/>
+        <tr r="I66" s="1"/>
+        <tr r="I67" s="1"/>
+        <tr r="H74" s="1"/>
+        <tr r="H79" s="1"/>
+        <tr r="I79" s="1"/>
+        <tr r="I64" s="1"/>
+        <tr r="I78" s="1"/>
+        <tr r="H82" s="1"/>
+        <tr r="H78" s="1"/>
+        <tr r="I68" s="1"/>
+        <tr r="H81" s="1"/>
+        <tr r="I71" s="1"/>
+        <tr r="H70" s="1"/>
+        <tr r="H64" s="1"/>
+        <tr r="I69" s="1"/>
+        <tr r="I76" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>USgovi</v>
+        <stp/>
+        <stp>USgovi</stp>
+        <stp>814714544</stp>
+        <tr r="E38" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FixedYield</v>
+        <stp/>
+        <stp>FixedYield</stp>
+        <stp>-1293104115</stp>
+        <tr r="C62" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d3mratehelpers</v>
+        <stp/>
+        <stp>d3mratehelpers</stp>
+        <stp>1144794792</stp>
+        <tr r="K24" s="1"/>
+      </tp>
       <tp t="s">
         <v>USDLibor1</v>
         <stp/>
@@ -1937,52 +1967,7 @@
         <tr r="J39" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>USgovi</v>
-        <stp/>
-        <stp>USgovi</stp>
-        <stp>814714544</stp>
-        <tr r="E38" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>bondEnginez</v>
-        <stp/>
-        <stp>bondEnginez</stp>
-        <stp>246307230</stp>
-        <tr r="B20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>ZeroSettlementDate</v>
-        <stp/>
-        <stp>ZeroSettlementDate</stp>
-        <stp>-1699218839</stp>
-        <tr r="B27" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>d3mratehelpers</v>
-        <stp/>
-        <stp>d3mratehelpers</stp>
-        <stp>1144794792</stp>
-        <tr r="K24" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>101.75730882512499</v>
-        <stp/>
-        <stp>FloatingCleanPrice</stp>
-        <stp/>
-        <tr r="D65" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>zc6mPeriod</v>
         <stp/>
@@ -1990,6 +1975,8 @@
         <stp>-1226026161</stp>
         <tr r="E9" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>zc3mPeriod</v>
         <stp/>
@@ -1998,25 +1985,48 @@
         <tr r="E8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>FixedYield</v>
+        <v>zc6m</v>
         <stp/>
-        <stp>FixedYield</stp>
-        <stp>-1293104115</stp>
-        <tr r="C62" s="1"/>
+        <stp>zc6m</stp>
+        <stp>-792237096</stp>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d9mratehelpers</v>
+        <stp/>
+        <stp>d9mratehelpers</stp>
+        <stp>-969134424</stp>
+        <tr r="K26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>forwardStart</v>
+        <stp/>
+        <stp>forwardStart</stp>
+        <stp>-223693829</stp>
+        <tr r="E47" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
-      <tp>
-        <v>3.4298412186850417E-2</v>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>zcBondsDayCounter</v>
         <stp/>
-        <stp>FloatingNextcoupon</stp>
-        <stp/>
-        <tr r="D69" s="1"/>
+        <stp>zcBondsDayCounter</stp>
+        <stp>0</stp>
+        <tr r="B9" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>86.317292342665496</v>
+        <stp/>
+        <stp>ZeroNPV</stp>
+        <stp/>
+        <tr r="B64" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>d6mratehelpers</v>
         <stp/>
@@ -2025,92 +2035,67 @@
         <tr r="K25" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>d9mratehelpers</v>
+        <v>s10y</v>
         <stp/>
-        <stp>d9mratehelpers</stp>
-        <stp>-969134424</stp>
-        <tr r="K26" s="1"/>
+        <stp>s10y</stp>
+        <stp>1121190872</stp>
+        <tr r="H31" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.afca8c951de84249a6b2e7527de93d34">
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
-        <v>floatingRateBondFixedRateBondzeroCouponBondCashflow</v>
+        <v>depositDayCounter</v>
         <stp/>
-        <stp>floatingRateBondFixedRateBondzeroCouponBondCashflow</stp>
-        <stp>CT</stp>
-        <tr r="H78" s="1"/>
-        <tr r="H70" s="1"/>
-        <tr r="I72" s="1"/>
-        <tr r="I74" s="1"/>
-        <tr r="I78" s="1"/>
-        <tr r="I67" s="1"/>
-        <tr r="H82" s="1"/>
-        <tr r="H84" s="1"/>
-        <tr r="I83" s="1"/>
-        <tr r="H74" s="1"/>
-        <tr r="H72" s="1"/>
-        <tr r="I64" s="1"/>
-        <tr r="H69" s="1"/>
-        <tr r="H85" s="1"/>
-        <tr r="I69" s="1"/>
-        <tr r="H83" s="1"/>
-        <tr r="H77" s="1"/>
-        <tr r="I85" s="1"/>
-        <tr r="H67" s="1"/>
-        <tr r="H68" s="1"/>
-        <tr r="I70" s="1"/>
-        <tr r="I77" s="1"/>
-        <tr r="I75" s="1"/>
-        <tr r="H64" s="1"/>
-        <tr r="H71" s="1"/>
-        <tr r="H75" s="1"/>
-        <tr r="I82" s="1"/>
-        <tr r="I84" s="1"/>
-        <tr r="H66" s="1"/>
-        <tr r="I65" s="1"/>
-        <tr r="H80" s="1"/>
-        <tr r="H73" s="1"/>
-        <tr r="I66" s="1"/>
-        <tr r="I81" s="1"/>
-        <tr r="I76" s="1"/>
-        <tr r="H81" s="1"/>
-        <tr r="I73" s="1"/>
-        <tr r="H76" s="1"/>
-        <tr r="I79" s="1"/>
-        <tr r="I80" s="1"/>
-        <tr r="H79" s="1"/>
-        <tr r="H65" s="1"/>
-        <tr r="I71" s="1"/>
-        <tr r="I68" s="1"/>
+        <stp>depositDayCounter</stp>
+        <stp>372029375</stp>
+        <tr r="E43" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>107.66828913260423</v>
+        <stp/>
+        <stp>FixedDirtyPrice</stp>
+        <stp/>
+        <tr r="C66" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>loglinier</v>
+        <stp/>
+        <stp>loglinier</stp>
+        <stp>0</stp>
+        <tr r="E44" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+      <tp>
+        <v>107.66828913260423</v>
+        <stp/>
+        <stp>FixedNPV</stp>
+        <stp/>
+        <tr r="C64" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+      <tp t="s">
+        <v>ZeroDirtyPrice</v>
+        <stp/>
+        <stp>ZeroDirtyPrice</stp>
+        <stp>1001970241</stp>
+        <tr r="B58" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>floatingRateBondFixedRateBondzeroCouponBondCashflow</v>
         <stp/>
         <stp>floatingRateBondFixedRateBondzeroCouponBondCashflow</stp>
         <stp>588410313</stp>
         <tr r="D63" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>FloatingFixedZeroPreviouscoupon</v>
-        <stp/>
-        <stp>FloatingFixedZeroPreviouscoupon</stp>
-        <stp>-1208119139</stp>
-        <tr r="D60" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a299567c0f8b4fec933b2b6f314f9629">
-      <tp t="s">
-        <v>ZeroDirtyPrice</v>
-        <stp/>
-        <stp>ZeroDirtyPrice</stp>
-        <stp>1001970241</stp>
-        <tr r="B58" s="1"/>
       </tp>
     </main>
   </volType>
@@ -2452,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28025E14-2DBA-4FA2-A060-A0CB22BD8F4F}">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3900,7 +3885,7 @@
       </c>
       <c r="B61" t="str">
         <f>+_xll._Bond_nextCouponRate(B$55&amp;$A61,B54)</f>
-        <v>#no coupon paid at cashflow date 15/08/2013</v>
+        <v>ZeroNextcoupon</v>
       </c>
       <c r="C61" t="str">
         <f>+_xll._Bond_nextCouponRate(C$55&amp;$A61,C54)</f>
@@ -4094,7 +4079,7 @@
       </c>
       <c r="B69" t="str">
         <f>+_xll._Value(B61)</f>
-        <v>#NA</v>
+        <v>#no coupon paid at cashflow date 15/08/2013 ,Bond.nextCouponRate</v>
       </c>
       <c r="C69">
         <f>+_xll._Value(C61)</f>

--- a/Cephei.XL/Bond1.xlsx
+++ b/Cephei.XL/Bond1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\source\repos\Cephei2\Cephei.XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0284BD8-A35D-4364-8F53-4583EE87BAF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66AB403-043B-4B07-9235-ABD4574C7D08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{1287AFFA-50F8-48B2-8168-E284DC333339}"/>
   </bookViews>
@@ -558,23 +558,123 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>zc1y</v>
+        <v>FloatingFixedZeroAccruedcoupon</v>
         <stp/>
-        <stp>zc1y</stp>
-        <stp>-2050528296</stp>
-        <tr r="H10" s="1"/>
+        <stp>FloatingFixedZeroAccruedcoupon</stp>
+        <stp>-1208119139</stp>
+        <tr r="D59" s="1"/>
       </tp>
       <tp t="s">
-        <v>Semiannual</v>
+        <v>floatingRateBond</v>
         <stp/>
-        <stp>Semiannual</stp>
-        <stp>1704154923</stp>
-        <tr r="E39" s="1"/>
+        <stp>floatingRateBond</stp>
+        <stp>-922790952</stp>
+        <tr r="B47" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>d1mratehelpers</v>
+        <stp/>
+        <stp>d1mratehelpers</stp>
+        <stp>-1371787608</stp>
+        <tr r="K23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>3.0058566999435425E-2</v>
+        <stp/>
+        <stp>ZeroYield</stp>
+        <stp/>
+        <tr r="B70" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>ZeroAccruedcoupon</v>
+        <stp/>
+        <stp>ZeroAccruedcoupon</stp>
+        <stp>1029105693</stp>
+        <tr r="B59" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>Quarterly</v>
+        <stp/>
+        <stp>Quarterly</stp>
+        <stp>-302169631</stp>
+        <tr r="E49" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>s10yratehelpers</v>
+        <stp/>
+        <stp>s10yratehelpers</stp>
+        <stp>154939048</stp>
+        <tr r="K31" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>schedule1</v>
+        <stp/>
+        <stp>schedule1</stp>
+        <stp>1913417000</stp>
+        <tr r="L15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule0</v>
+        <stp/>
+        <stp>schedule0</stp>
+        <stp>1913417000</stp>
+        <tr r="L14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule3</v>
+        <stp/>
+        <stp>schedule3</stp>
+        <stp>1913417000</stp>
+        <tr r="L17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule2</v>
+        <stp/>
+        <stp>schedule2</stp>
+        <stp>1913417000</stp>
+        <tr r="L16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>schedule4</v>
+        <stp/>
+        <stp>schedule4</stp>
+        <stp>1913417000</stp>
+        <tr r="L18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FloatingNPV</v>
+        <stp/>
+        <stp>FloatingNPV</stp>
+        <stp>588410313</stp>
+        <tr r="D56" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>todaysDateSer</v>
+        <stp/>
+        <stp>todaysDateSer</stp>
+        <stp>-1204259704</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
         <v>+settlementDate</v>
         <stp/>
@@ -583,139 +683,617 @@
         <tr r="B3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>d1mratehelpers</v>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>0</v>
         <stp/>
-        <stp>d1mratehelpers</stp>
-        <stp>-1371787608</stp>
-        <tr r="K23" s="1"/>
+        <stp>ZeroAccruedcoupon</stp>
+        <stp/>
+        <tr r="B67" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>floatingRateBond</v>
+        <v>s15yratehelpers</v>
         <stp/>
-        <stp>floatingRateBond</stp>
-        <stp>-922790952</stp>
-        <tr r="B47" s="1"/>
+        <stp>s15yratehelpers</stp>
+        <stp>-96719192</stp>
+        <tr r="K32" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>bondDiscountingTermStructure</v>
+        <v>settlementDays</v>
         <stp/>
-        <stp>bondDiscountingTermStructure</stp>
-        <stp>-1358081960</stp>
-        <tr r="B17" s="1"/>
+        <stp>settlementDays</stp>
+        <stp>3</stp>
+        <tr r="B6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>zc3m</v>
+        <v>zc1yPeriod</v>
         <stp/>
-        <stp>zc3m</stp>
-        <stp>-1010340904</stp>
-        <tr r="H8" s="1"/>
+        <stp>zc1yPeriod</stp>
+        <stp>2119925464</stp>
+        <tr r="E10" s="1"/>
       </tp>
       <tp t="s">
-        <v>FixedZeroPreviouscoupon</v>
+        <v>zeroCouponBond</v>
         <stp/>
-        <stp>FixedZeroPreviouscoupon</stp>
-        <stp>815396861</stp>
-        <tr r="C60" s="1"/>
+        <stp>zeroCouponBond</stp>
+        <stp>-762789832</stp>
+        <tr r="B29" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>floatcouponpricer2</v>
+        <v>ActualActualBond</v>
         <stp/>
-        <stp>floatcouponpricer2</stp>
-        <stp>1878722209</stp>
-        <tr r="B51" s="1"/>
+        <stp>ActualActualBond</stp>
+        <stp>1506851973</stp>
+        <tr r="E40" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FloatSettlementDatte</v>
+        <stp/>
+        <stp>FloatSettlementDatte</stp>
+        <stp>888501985</stp>
+        <tr r="B42" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>+settlementDateAdjustedSer</v>
+        <v>ZeroIssueDate</v>
         <stp/>
-        <stp>+settlementDateAdjustedSer</stp>
-        <stp>-649169906</stp>
-        <tr r="C4" s="1"/>
+        <stp>ZeroIssueDate</stp>
+        <stp>-12167724</stp>
+        <tr r="B28" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>102.3194216915206</v>
+        <stp/>
+        <stp>FloatingNPV</stp>
+        <stp/>
+        <tr r="D64" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>libor3mPeriod</v>
+        <stp/>
+        <stp>libor3mPeriod</stp>
+        <stp>-1226026113</stp>
+        <tr r="B40" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>depoSwapTermStructure</v>
+        <stp/>
+        <stp>depoSwapTermStructure</stp>
+        <stp>-1492299688</stp>
+        <tr r="B19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>3.6475570816152846E-2</v>
+        <stp/>
+        <stp>FixedYield</stp>
+        <stp/>
+        <tr r="C70" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>floatcouponpricer</v>
+        <stp/>
+        <stp>floatcouponpricer</stp>
+        <stp>1741592878</stp>
+        <tr r="B48" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FixedZeroAccruedcoupon</v>
+        <stp/>
+        <stp>FixedZeroAccruedcoupon</stp>
+        <stp>815396861</stp>
+        <tr r="C59" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>Gearing</v>
+        <stp/>
+        <stp>Gearing</stp>
+        <stp>1072693248</stp>
+        <tr r="B44" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>107.66828913260423</v>
+        <stp/>
+        <stp>FixedNPV</stp>
+        <stp/>
+        <tr r="C64" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>bondEnginez</v>
+        <stp/>
+        <stp>bondEnginez</stp>
+        <stp>246307230</stp>
+        <tr r="B20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>3.4298412186850417E-2</v>
+        <stp/>
+        <stp>FloatingNextcoupon</stp>
+        <stp/>
+        <tr r="D69" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FixedRedemption</v>
+        <stp/>
+        <stp>FixedRedemption</stp>
+        <stp>1079574528</stp>
+        <tr r="B32" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FloatRedemption</v>
+        <stp/>
+        <stp>FloatRedemption</stp>
+        <stp>1079574528</stp>
+        <tr r="B41" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>d3mratehelpers</v>
+        <stp/>
+        <stp>d3mratehelpers</stp>
+        <stp>1144794792</stp>
+        <tr r="K24" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp t="s">
+        <v>floatingRateBondFixedRateBondzeroCouponBondCashflow</v>
+        <stp/>
+        <stp>floatingRateBondFixedRateBondzeroCouponBondCashflow</stp>
+        <stp>CT</stp>
+        <tr r="I84" s="1"/>
+        <tr r="H70" s="1"/>
+        <tr r="H74" s="1"/>
+        <tr r="H66" s="1"/>
+        <tr r="I80" s="1"/>
+        <tr r="I76" s="1"/>
+        <tr r="H64" s="1"/>
+        <tr r="I77" s="1"/>
+        <tr r="I81" s="1"/>
+        <tr r="I65" s="1"/>
+        <tr r="I72" s="1"/>
+        <tr r="H81" s="1"/>
+        <tr r="H80" s="1"/>
+        <tr r="I82" s="1"/>
+        <tr r="I66" s="1"/>
+        <tr r="I68" s="1"/>
+        <tr r="H69" s="1"/>
+        <tr r="I71" s="1"/>
+        <tr r="H85" s="1"/>
+        <tr r="H82" s="1"/>
+        <tr r="I67" s="1"/>
+        <tr r="H84" s="1"/>
+        <tr r="H76" s="1"/>
+        <tr r="H65" s="1"/>
+        <tr r="I74" s="1"/>
+        <tr r="H67" s="1"/>
+        <tr r="H79" s="1"/>
+        <tr r="H78" s="1"/>
+        <tr r="I75" s="1"/>
+        <tr r="H71" s="1"/>
+        <tr r="I64" s="1"/>
+        <tr r="H77" s="1"/>
+        <tr r="I70" s="1"/>
+        <tr r="H72" s="1"/>
+        <tr r="I79" s="1"/>
+        <tr r="H83" s="1"/>
+        <tr r="I85" s="1"/>
+        <tr r="H73" s="1"/>
+        <tr r="H68" s="1"/>
+        <tr r="I78" s="1"/>
+        <tr r="H75" s="1"/>
+        <tr r="I83" s="1"/>
+        <tr r="I69" s="1"/>
+        <tr r="I73" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>+settlementDateAdjusted</v>
+        <stp/>
+        <stp>+settlementDateAdjusted</stp>
+        <stp>-544419191</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>d9mratehelpers</v>
+        <stp/>
+        <stp>d9mratehelpers</stp>
+        <stp>-969134424</stp>
+        <tr r="K26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>s15y</v>
+        <stp/>
+        <stp>s15y</stp>
+        <stp>772304968</stp>
+        <tr r="H32" s="1"/>
       </tp>
       <tp t="s">
-        <v>faceAmount</v>
+        <v>d6mratehelpers</v>
         <stp/>
-        <stp>faceAmount</stp>
-        <stp>1079574528</stp>
-        <tr r="B24" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>swFloatingLegIndex</v>
-        <stp/>
-        <stp>swFloatingLegIndex</stp>
-        <stp>0</stp>
-        <tr r="E46" s="1"/>
+        <stp>d6mratehelpers</stp>
+        <stp>-449040728</stp>
+        <tr r="K25" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>d9mRate</v>
-        <stp/>
-        <stp>d9mRate</stp>
-        <stp>0</stp>
-        <tr r="J26" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d1mRate</v>
-        <stp/>
-        <stp>d1mRate</stp>
-        <stp>0</stp>
-        <tr r="J23" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d3mRate</v>
-        <stp/>
-        <stp>d3mRate</stp>
-        <stp>0</stp>
-        <tr r="J24" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d6mRate</v>
-        <stp/>
-        <stp>d6mRate</stp>
-        <stp>0</stp>
-        <tr r="J25" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>ZeroNextcoupon</v>
+        <v>#no coupon paid at cashflow date 15/08/2013</v>
         <stp/>
         <stp>ZeroNextcoupon</stp>
-        <stp>1029105693#</stp>
+        <stp>1029105693</stp>
         <tr r="B61" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>FloatingFixedZeroAccruedcoupon</v>
+        <v>USDLibor1</v>
         <stp/>
-        <stp>FloatingFixedZeroAccruedcoupon</stp>
-        <stp>-1208119139</stp>
-        <tr r="D59" s="1"/>
+        <stp>USDLibor1</stp>
+        <stp>2003614270</stp>
+        <tr r="J39" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>floatingBondSchedule</v>
+        <v>ZeroDirtyPrice</v>
         <stp/>
-        <stp>floatingBondSchedule</stp>
-        <stp>-2089128530</stp>
-        <tr r="B46" s="1"/>
+        <stp>ZeroDirtyPrice</stp>
+        <stp>1001970241</stp>
+        <tr r="B58" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>USgovi</v>
+        <stp/>
+        <stp>USgovi</stp>
+        <stp>814714544</stp>
+        <tr r="E38" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>101.75730882512499</v>
+        <stp/>
+        <stp>FloatingCleanPrice</stp>
+        <stp/>
+        <tr r="D65" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FloatingFixedZeroPreviouscoupon</v>
+        <stp/>
+        <stp>FloatingFixedZeroPreviouscoupon</stp>
+        <stp>-1208119139</stp>
+        <tr r="D60" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>bondInstruments</v>
+        <stp/>
+        <stp>bondInstruments</stp>
+        <stp>1882299273</stp>
+        <tr r="B16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>floatingRateBondFixedRateBondzeroCouponBondCashflow</v>
+        <stp/>
+        <stp>floatingRateBondFixedRateBondzeroCouponBondCashflow</stp>
+        <stp>588410313</stp>
+        <tr r="D63" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FloatIssueDate</v>
+        <stp/>
+        <stp>FloatIssueDate</stp>
+        <stp>451725283</stp>
+        <tr r="B43" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp t="s">
+        <v>FixedRateBondzeroCouponBondCashflow</v>
+        <stp/>
+        <stp>FixedRateBondzeroCouponBondCashflow</stp>
+        <stp>CT</stp>
+        <tr r="H42" s="1"/>
+        <tr r="H60" s="1"/>
+        <tr r="I47" s="1"/>
+        <tr r="H61" s="1"/>
+        <tr r="H52" s="1"/>
+        <tr r="H48" s="1"/>
+        <tr r="H43" s="1"/>
+        <tr r="I52" s="1"/>
+        <tr r="H45" s="1"/>
+        <tr r="I57" s="1"/>
+        <tr r="I55" s="1"/>
+        <tr r="H59" s="1"/>
+        <tr r="I60" s="1"/>
+        <tr r="I49" s="1"/>
+        <tr r="I45" s="1"/>
+        <tr r="I58" s="1"/>
+        <tr r="I63" s="1"/>
+        <tr r="H46" s="1"/>
+        <tr r="H63" s="1"/>
+        <tr r="H51" s="1"/>
+        <tr r="I59" s="1"/>
+        <tr r="H62" s="1"/>
+        <tr r="I43" s="1"/>
+        <tr r="I42" s="1"/>
+        <tr r="I51" s="1"/>
+        <tr r="H56" s="1"/>
+        <tr r="H55" s="1"/>
+        <tr r="I56" s="1"/>
+        <tr r="H44" s="1"/>
+        <tr r="H54" s="1"/>
+        <tr r="I54" s="1"/>
+        <tr r="H49" s="1"/>
+        <tr r="I48" s="1"/>
+        <tr r="I50" s="1"/>
+        <tr r="H57" s="1"/>
+        <tr r="H50" s="1"/>
+        <tr r="H53" s="1"/>
+        <tr r="H58" s="1"/>
+        <tr r="I46" s="1"/>
+        <tr r="I61" s="1"/>
+        <tr r="H47" s="1"/>
+        <tr r="I53" s="1"/>
+        <tr r="I62" s="1"/>
+        <tr r="I44" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>actual360</v>
+        <stp/>
+        <stp>actual360</stp>
+        <stp>372029375</stp>
+        <tr r="E48" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>optionletvolitility</v>
+        <stp/>
+        <stp>optionletvolitility</stp>
+        <stp>0</stp>
+        <tr r="B49" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FixedRateCoupon</v>
+        <stp/>
+        <stp>FixedRateCoupon</stp>
+        <stp>1325718839</stp>
+        <tr r="B36" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>bondEnginefi</v>
+        <stp/>
+        <stp>bondEnginefi</stp>
+        <stp>246307230</stp>
+        <tr r="B21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ConstantOptionletVolatility</v>
+        <stp/>
+        <stp>ConstantOptionletVolatility</stp>
+        <stp>315382730</stp>
+        <tr r="B50" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FixedIssueDate</v>
+        <stp/>
+        <stp>FixedIssueDate</stp>
+        <stp>996172436</stp>
+        <tr r="B34" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>s5yratehelpers</v>
+        <stp/>
+        <stp>s5yratehelpers</stp>
+        <stp>1362898600</stp>
+        <tr r="K30" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>bondEnginefl</v>
+        <stp/>
+        <stp>bondEnginefl</stp>
+        <stp>246307230</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>s3yratehelpers</v>
+        <stp/>
+        <stp>s3yratehelpers</stp>
+        <stp>-751030616</stp>
+        <tr r="K29" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>Spreads</v>
+        <stp/>
+        <stp>Spreads</stp>
+        <stp>-308163663</stp>
+        <tr r="B45" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>d1yratehelpers</v>
+        <stp/>
+        <stp>d1yratehelpers</stp>
+        <stp>-499372376</stp>
+        <tr r="K27" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ZeroCleanPrice</v>
+        <stp/>
+        <stp>ZeroCleanPrice</stp>
+        <stp>1001970241</stp>
+        <tr r="B57" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FixedRateBondzeroCouponBondCashflow</v>
+        <stp/>
+        <stp>FixedRateBondzeroCouponBondCashflow</stp>
+        <stp>-77321281</stp>
+        <tr r="C63" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>Actual365Fixed</v>
+        <stp/>
+        <stp>Actual365Fixed</stp>
+        <stp>0</stp>
+        <tr r="E50" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>RemptionAmount</v>
+        <stp/>
+        <stp>RemptionAmount</stp>
+        <stp>1079574528</stp>
+        <tr r="B25" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d1wratehelpers</v>
+        <stp/>
+        <stp>d1wratehelpers</stp>
+        <stp>1144794792</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>termStructureDayCounter</v>
+        <stp/>
+        <stp>termStructureDayCounter</stp>
+        <stp>1443485125</stp>
+        <tr r="E41" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>ZeroPreviouscoupon</stp>
+        <stp/>
+        <tr r="B68" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>102.3194216915206</v>
+        <stp/>
+        <stp>FloatingDirtyPrice</stp>
+        <stp/>
+        <tr r="D66" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>ZeroNPV</v>
+        <stp/>
+        <stp>ZeroNPV</stp>
+        <stp>1001970241</stp>
+        <tr r="B56" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>zeroCouponBondCashflow</v>
+        <stp/>
+        <stp>zeroCouponBondCashflow</stp>
+        <stp>1001970241</stp>
+        <tr r="B63" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>Fixing1</v>
+        <stp/>
+        <stp>Fixing1</stp>
+        <stp>1755687198</stp>
+        <tr r="J39" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>discount</v>
+        <stp/>
+        <stp>discount</stp>
+        <stp>0</stp>
+        <tr r="E42" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>calendar</v>
+        <stp/>
+        <stp>calendar</stp>
+        <stp>0</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
         <v>redemption</v>
         <stp/>
@@ -723,15 +1301,26 @@
         <stp>1079574528</stp>
         <tr r="B13" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>s2yratehelpers</v>
+        <v>FloatingCleanPrice</v>
         <stp/>
-        <stp>s2yratehelpers</stp>
-        <stp>-63164760</stp>
-        <tr r="K28" s="1"/>
+        <stp>FloatingCleanPrice</stp>
+        <stp>588410313</stp>
+        <tr r="D57" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>couponRate4</v>
+        <stp/>
+        <stp>couponRate4</stp>
+        <stp>1325718839</stp>
+        <tr r="J18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
         <v>d1wRate</v>
         <stp/>
@@ -740,16 +1329,16 @@
         <tr r="J22" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>3.6475570816152846E-2</v>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FloatingDirtyPrice</v>
         <stp/>
-        <stp>FixedYield</stp>
-        <stp/>
-        <tr r="C70" s="1"/>
+        <stp>FloatingDirtyPrice</stp>
+        <stp>588410313</stp>
+        <tr r="D58" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
         <v>ZeroPreviouscoupon</v>
         <stp/>
@@ -758,7 +1347,25 @@
         <tr r="B60" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>bondhelper4</v>
+        <stp/>
+        <stp>bondhelper4</stp>
+        <stp>-1090572417</stp>
+        <tr r="M18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>86.317292342665496</v>
+        <stp/>
+        <stp>ZeroCleanPrice</stp>
+        <stp/>
+        <tr r="B65" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
         <v>FixedNextcoupon</v>
         <stp/>
@@ -767,38 +1374,29 @@
         <tr r="C61" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>ActualActualBond</v>
+        <v>couponRate3</v>
         <stp/>
-        <stp>ActualActualBond</stp>
-        <stp>1506851973</stp>
-        <tr r="E40" s="1"/>
+        <stp>couponRate3</stp>
+        <stp>2013949594</stp>
+        <tr r="J17" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>102.3194216915206</v>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>s2yRate</v>
         <stp/>
-        <stp>FloatingNPV</stp>
-        <stp/>
-        <tr r="D64" s="1"/>
+        <stp>s2yRate</stp>
+        <stp>0</stp>
+        <tr r="J28" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>s3yRate</v>
         <stp/>
         <stp>s3yRate</stp>
         <stp>0</stp>
         <tr r="J29" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>s2yRate</v>
-        <stp/>
-        <stp>s2yRate</stp>
-        <stp>0</stp>
-        <tr r="J28" s="1"/>
       </tp>
       <tp t="s">
         <v>s5yRate</v>
@@ -814,415 +1412,8 @@
         <stp>0</stp>
         <tr r="J27" s="1"/>
       </tp>
-      <tp t="s">
-        <v>FloatingCleanPrice</v>
-        <stp/>
-        <stp>FloatingCleanPrice</stp>
-        <stp>588410313</stp>
-        <tr r="D57" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>ZeroIssueDate</v>
-        <stp/>
-        <stp>ZeroIssueDate</stp>
-        <stp>-12167724</stp>
-        <tr r="B28" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>FloatingDirtyPrice</v>
-        <stp/>
-        <stp>FloatingDirtyPrice</stp>
-        <stp>588410313</stp>
-        <tr r="D58" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>FloatSettlementDatte</v>
-        <stp/>
-        <stp>FloatSettlementDatte</stp>
-        <stp>888501985</stp>
-        <tr r="B42" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>FixedCleanPrice</v>
-        <stp/>
-        <stp>FixedCleanPrice</stp>
-        <stp>-77321281</stp>
-        <tr r="C57" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>bondInstruments</v>
-        <stp/>
-        <stp>bondInstruments</stp>
-        <stp>1882299273</stp>
-        <tr r="B16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>tolerance</v>
-        <stp/>
-        <stp>tolerance</stp>
-        <stp>-1573562951</stp>
-        <tr r="B14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>+settlementDateAdjusted</v>
-        <stp/>
-        <stp>+settlementDateAdjusted</stp>
-        <stp>-544419191</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>todaysDate</v>
-        <stp/>
-        <stp>todaysDate</stp>
-        <stp>-111422835</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>s15y</v>
-        <stp/>
-        <stp>s15y</stp>
-        <stp>772304968</stp>
-        <tr r="H32" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>FloatingFixedZeroPreviouscoupon</v>
-        <stp/>
-        <stp>FloatingFixedZeroPreviouscoupon</stp>
-        <stp>-1208119139</stp>
-        <tr r="D60" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>101.75730882512499</v>
-        <stp/>
-        <stp>FloatingCleanPrice</stp>
-        <stp/>
-        <tr r="D65" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>fixedBondSchedule</v>
-        <stp/>
-        <stp>fixedBondSchedule</stp>
-        <stp>-2089128530</stp>
-        <tr r="B35" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>FixedDirtyPrice</v>
-        <stp/>
-        <stp>FixedDirtyPrice</stp>
-        <stp>-77321281</stp>
-        <tr r="C58" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>FloatingYield</v>
-        <stp/>
-        <stp>FloatingYield</stp>
-        <stp>-712193011</stp>
-        <tr r="D62" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>3.4298412186850417E-2</v>
-        <stp/>
-        <stp>FloatingNextcoupon</stp>
-        <stp/>
-        <tr r="D69" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>FloatRedemption</v>
-        <stp/>
-        <stp>FloatRedemption</stp>
-        <stp>1079574528</stp>
-        <tr r="B41" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>Gearing</v>
-        <stp/>
-        <stp>Gearing</stp>
-        <stp>1072693248</stp>
-        <tr r="B44" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>FixedRedemption</v>
-        <stp/>
-        <stp>FixedRedemption</stp>
-        <stp>1079574528</stp>
-        <tr r="B32" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>fixingDays</v>
-        <stp/>
-        <stp>fixingDays</stp>
-        <stp>3</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>bondhelper3</v>
-        <stp/>
-        <stp>bondhelper3</stp>
-        <stp>922693503</stp>
-        <tr r="M17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>termStructureDayCounter</v>
-        <stp/>
-        <stp>termStructureDayCounter</stp>
-        <stp>1443485125</stp>
-        <tr r="E41" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>ZeroNPV</v>
-        <stp/>
-        <stp>ZeroNPV</stp>
-        <stp>1001970241</stp>
-        <tr r="B56" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>fixingDaysNeg</v>
-        <stp/>
-        <stp>fixingDaysNeg</stp>
-        <stp>-3</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>Fixing1</v>
-        <stp/>
-        <stp>Fixing1</stp>
-        <stp>1755687198</stp>
-        <tr r="J39" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>Spreads</v>
-        <stp/>
-        <stp>Spreads</stp>
-        <stp>-308163663</stp>
-        <tr r="B45" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>ZeroPreviouscoupon</stp>
-        <stp/>
-        <tr r="B68" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>102.3194216915206</v>
-        <stp/>
-        <stp>FloatingDirtyPrice</stp>
-        <stp/>
-        <tr r="D66" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>FixedRateBond</v>
-        <stp/>
-        <stp>FixedRateBond</stp>
-        <stp>1820916808</stp>
-        <tr r="B37" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>39706</v>
-        <stp/>
-        <stp>todaysDateSer</stp>
-        <stp/>
-        <tr r="D8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>2.2009365270878184E-2</v>
-        <stp/>
-        <stp>FloatingYield</stp>
-        <stp/>
-        <tr r="D70" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>bondEnginefl</v>
-        <stp/>
-        <stp>bondEnginefl</stp>
-        <stp>246307230</stp>
-        <tr r="B22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>actual360</v>
-        <stp/>
-        <stp>actual360</stp>
-        <stp>372029375</stp>
-        <tr r="E48" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>FixedRateCoupon</v>
-        <stp/>
-        <stp>FixedRateCoupon</stp>
-        <stp>1325718839</stp>
-        <tr r="B36" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>bondEnginefi</v>
-        <stp/>
-        <stp>bondEnginefi</stp>
-        <stp>246307230</stp>
-        <tr r="B21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ZeroYield</v>
-        <stp/>
-        <stp>ZeroYield</stp>
-        <stp>-1391670259</stp>
-        <tr r="B62" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>bondhelper0</v>
-        <stp/>
-        <stp>bondhelper0</stp>
-        <stp>1862217599</stp>
-        <tr r="M14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>depoSwapInstruments</v>
-        <stp/>
-        <stp>depoSwapInstruments</stp>
-        <stp>-501517731</stp>
-        <tr r="B18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp t="s">
-        <v>#no coupon paid at cashflow date 15/08/2013 ,Bond.nextCouponRate</v>
-        <stp/>
-        <stp>ZeroNextcoupon</stp>
-        <stp/>
-        <tr r="B69" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>zc1yPeriod</v>
-        <stp/>
-        <stp>zc1yPeriod</stp>
-        <stp>2119925464</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>zeroCouponBond</v>
-        <stp/>
-        <stp>zeroCouponBond</stp>
-        <stp>-762789832</stp>
-        <tr r="B29" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>couponRate1</v>
-        <stp/>
-        <stp>couponRate1</stp>
-        <stp>1162275258</stp>
-        <tr r="J15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>couponRate3</v>
-        <stp/>
-        <stp>couponRate3</stp>
-        <stp>2013949594</stp>
-        <tr r="J17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d1m</v>
-        <stp/>
-        <stp>d1m</stp>
-        <stp>-1226026145</stp>
-        <tr r="H23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>d6m</v>
-        <stp/>
-        <stp>d6m</stp>
-        <stp>-1226026161</stp>
-        <tr r="H25" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>d3m</v>
-        <stp/>
-        <stp>d3m</stp>
-        <stp>-1226026113</stp>
-        <tr r="H24" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>d9m</v>
-        <stp/>
-        <stp>d9m</stp>
-        <stp>-1226026273</stp>
-        <tr r="H26" s="1"/>
-      </tp>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
         <v>bondhelper1</v>
         <stp/>
@@ -1231,7 +1422,7 @@
         <tr r="M15" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
         <v>instruments</v>
         <stp/>
@@ -1239,30 +1430,23 @@
         <stp>-192993751</stp>
         <tr r="B15" s="1"/>
       </tp>
-      <tp t="s">
-        <v>FixedZeroAccruedcoupon</v>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>4.4999999999999998E-2</v>
         <stp/>
-        <stp>FixedZeroAccruedcoupon</stp>
-        <stp>815396861</stp>
-        <tr r="C59" s="1"/>
+        <stp>FixedZeroPreviouscoupon</stp>
+        <stp/>
+        <tr r="C68" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>bondhelper2</v>
+        <v>floatingBondSchedule</v>
         <stp/>
-        <stp>bondhelper2</stp>
-        <stp>-1677774977</stp>
-        <tr r="M16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>zc1yRate</v>
-        <stp/>
-        <stp>zc1yRate</stp>
-        <stp>0</stp>
-        <tr r="B12" s="1"/>
+        <stp>floatingBondSchedule</stp>
+        <stp>-2089128530</stp>
+        <tr r="B46" s="1"/>
       </tp>
       <tp t="s">
         <v>s10yRate</v>
@@ -1279,14 +1463,23 @@
         <tr r="J32" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>floatcouponpricer</v>
+        <v>zc1yRate</v>
         <stp/>
-        <stp>floatcouponpricer</stp>
-        <stp>1741592878</stp>
-        <tr r="B48" s="1"/>
+        <stp>zc1yRate</stp>
+        <stp>0</stp>
+        <tr r="B12" s="1"/>
       </tp>
+      <tp t="s">
+        <v>s2yratehelpers</v>
+        <stp/>
+        <stp>s2yratehelpers</stp>
+        <stp>-63164760</stp>
+        <tr r="K28" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
         <v>couponRate2</v>
         <stp/>
@@ -1295,132 +1488,326 @@
         <tr r="J16" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>libor3mPeriod</v>
+        <v>bondhelper2</v>
         <stp/>
-        <stp>libor3mPeriod</stp>
-        <stp>-1226026113</stp>
-        <tr r="B40" s="1"/>
+        <stp>bondhelper2</stp>
+        <stp>-1677774977</stp>
+        <tr r="M16" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>4.4999999999999998E-2</v>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>d9m</v>
         <stp/>
-        <stp>FixedZeroPreviouscoupon</stp>
-        <stp/>
-        <tr r="C68" s="1"/>
+        <stp>d9m</stp>
+        <stp>-1226026273</stp>
+        <tr r="H26" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>settlementDays</v>
+        <v>bondhelper0</v>
         <stp/>
-        <stp>settlementDays</stp>
-        <stp>3</stp>
-        <tr r="B6" s="1"/>
+        <stp>bondhelper0</stp>
+        <stp>1862217599</stp>
+        <tr r="M14" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>depoSwapTermStructure</v>
-        <stp/>
-        <stp>depoSwapTermStructure</stp>
-        <stp>-1492299688</stp>
-        <tr r="B19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>discount</v>
-        <stp/>
-        <stp>discount</stp>
-        <stp>0</stp>
-        <tr r="E42" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>calendar</v>
-        <stp/>
-        <stp>calendar</stp>
-        <stp>0</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>bondhelper4</v>
-        <stp/>
-        <stp>bondhelper4</stp>
-        <stp>-1090572417</stp>
-        <tr r="M18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>couponRate4</v>
-        <stp/>
-        <stp>couponRate4</stp>
-        <stp>1325718839</stp>
-        <tr r="J18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
       <tp>
-        <v>86.317292342665496</v>
-        <stp/>
-        <stp>ZeroCleanPrice</stp>
-        <stp/>
-        <tr r="B65" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>2.8862499999999999E-2</v>
+        <v>3.4298412186850417E-2</v>
         <stp/>
         <stp>FloatingFixedZeroPreviouscoupon</stp>
         <stp/>
         <tr r="D68" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>schedule2</v>
+        <v>d1m</v>
         <stp/>
-        <stp>schedule2</stp>
-        <stp>1913417000</stp>
-        <tr r="L16" s="1"/>
+        <stp>d1m</stp>
+        <stp>-1226026145</stp>
+        <tr r="H23" s="1"/>
       </tp>
       <tp t="s">
-        <v>schedule3</v>
+        <v>d3m</v>
         <stp/>
-        <stp>schedule3</stp>
-        <stp>1913417000</stp>
-        <tr r="L17" s="1"/>
+        <stp>d3m</stp>
+        <stp>-1226026113</stp>
+        <tr r="H24" s="1"/>
       </tp>
       <tp t="s">
-        <v>schedule0</v>
+        <v>d6m</v>
         <stp/>
-        <stp>schedule0</stp>
-        <stp>1913417000</stp>
-        <tr r="L14" s="1"/>
+        <stp>d6m</stp>
+        <stp>-1226026161</stp>
+        <tr r="H25" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>depoSwapInstruments</v>
+        <stp/>
+        <stp>depoSwapInstruments</stp>
+        <stp>-501517731</stp>
+        <tr r="B18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>couponRate1</v>
+        <stp/>
+        <stp>couponRate1</stp>
+        <stp>1162275258</stp>
+        <tr r="J15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>zc3m</v>
+        <stp/>
+        <stp>zc3m</stp>
+        <stp>-1010340904</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>bondDiscountingTermStructure</v>
+        <stp/>
+        <stp>bondDiscountingTermStructure</stp>
+        <stp>-1358081960</stp>
+        <tr r="B17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>Semiannual</v>
+        <stp/>
+        <stp>Semiannual</stp>
+        <stp>1704154923</stp>
+        <tr r="E39" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>0.60974954998845188</v>
+        <stp/>
+        <stp>FloatingFixedZeroAccruedcoupon</stp>
+        <stp/>
+        <tr r="D67" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>marketQuotes4</v>
+        <stp/>
+        <stp>marketQuotes4</stp>
+        <stp>0</stp>
+        <tr r="K18" s="1"/>
       </tp>
       <tp t="s">
-        <v>schedule1</v>
+        <v>FixedSettlementDatte</v>
         <stp/>
-        <stp>schedule1</stp>
-        <stp>1913417000</stp>
-        <tr r="L15" s="1"/>
+        <stp>FixedSettlementDatte</stp>
+        <stp>-798541351</stp>
+        <tr r="B33" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>couponRate0</v>
+        <stp/>
+        <stp>couponRate0</stp>
+        <stp>-1165563463</stp>
+        <tr r="J14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>marketQuotes3</v>
+        <stp/>
+        <stp>marketQuotes3</stp>
+        <stp>0</stp>
+        <tr r="K17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>marketQuotes2</v>
+        <stp/>
+        <stp>marketQuotes2</stp>
+        <stp>0</stp>
+        <tr r="K16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>swFloatingLegIndex</v>
+        <stp/>
+        <stp>swFloatingLegIndex</stp>
+        <stp>0</stp>
+        <tr r="E46" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>86.317292342665496</v>
+        <stp/>
+        <stp>ZeroDirtyPrice</stp>
+        <stp/>
+        <tr r="B66" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>marketQuotes1</v>
+        <stp/>
+        <stp>marketQuotes1</stp>
+        <stp>0</stp>
+        <tr r="K15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>d1w</v>
+        <stp/>
+        <stp>d1w</stp>
+        <stp>-303078293</stp>
+        <tr r="H22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>marketQuotes0</v>
+        <stp/>
+        <stp>marketQuotes0</stp>
+        <stp>0</stp>
+        <tr r="K14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FixedZeroPreviouscoupon</v>
+        <stp/>
+        <stp>FixedZeroPreviouscoupon</stp>
+        <stp>815396861</stp>
+        <tr r="C60" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>s2y</v>
+        <stp/>
+        <stp>s2y</stp>
+        <stp>2119925512</stp>
+        <tr r="H28" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>zc1y</v>
+        <stp/>
+        <stp>zc1y</stp>
+        <stp>-2050528296</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>s3y</v>
+        <stp/>
+        <stp>s3y</stp>
+        <stp>2119925496</stp>
+        <tr r="H29" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>s5y</v>
+        <stp/>
+        <stp>s5y</stp>
+        <stp>2119925400</stp>
+        <tr r="H30" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>d1y</v>
+        <stp/>
+        <stp>d1y</stp>
+        <stp>2119925464</stp>
+        <tr r="H27" s="1"/>
       </tp>
       <tp t="s">
-        <v>schedule4</v>
+        <v>floatcouponpricer2</v>
         <stp/>
-        <stp>schedule4</stp>
-        <stp>1913417000</stp>
-        <tr r="L18" s="1"/>
+        <stp>floatcouponpricer2</stp>
+        <stp>1878722209</stp>
+        <tr r="B51" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>+settlementDateAdjustedSer</v>
+        <stp/>
+        <stp>+settlementDateAdjustedSer</stp>
+        <stp>-649169906</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>faceAmount</v>
+        <stp/>
+        <stp>faceAmount</stp>
+        <stp>1079574528</stp>
+        <tr r="B24" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FixedRateCashflow</v>
+        <stp/>
+        <stp>FixedRateCashflow</stp>
+        <stp>-77321281</stp>
+        <tr r="B38" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>d3mRate</v>
+        <stp/>
+        <stp>d3mRate</stp>
+        <stp>0</stp>
+        <tr r="J24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d1mRate</v>
+        <stp/>
+        <stp>d1mRate</stp>
+        <stp>0</stp>
+        <tr r="J23" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d6mRate</v>
+        <stp/>
+        <stp>d6mRate</stp>
+        <stp>0</stp>
+        <tr r="J25" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>d9mRate</v>
+        <stp/>
+        <stp>d9mRate</stp>
+        <stp>0</stp>
+        <tr r="J26" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
         <v>zc3mRate</v>
         <stp/>
@@ -1435,208 +1822,107 @@
         <stp>0</stp>
         <tr r="B11" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>Quarterly</v>
+        <v>bondhelper3</v>
         <stp/>
-        <stp>Quarterly</stp>
-        <stp>-302169631</stp>
-        <tr r="E49" s="1"/>
+        <stp>bondhelper3</stp>
+        <stp>922693503</stp>
+        <tr r="M17" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>3.0000642156600955E-2</v>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FixedNPV</v>
         <stp/>
-        <stp>ZeroYield</stp>
-        <stp/>
-        <tr r="B70" s="1"/>
+        <stp>FixedNPV</stp>
+        <stp>-77321281</stp>
+        <tr r="C56" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>s2y</v>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>1.5407608695652275</v>
         <stp/>
-        <stp>s2y</stp>
-        <stp>2119925512</stp>
-        <tr r="H28" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>FixedRateCashflow</v>
+        <stp>FixedZeroAccruedcoupon</stp>
         <stp/>
-        <stp>FixedRateCashflow</stp>
-        <stp>-77321281</stp>
-        <tr r="B38" s="1"/>
+        <tr r="C67" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>s5y</v>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>4.4999999999999998E-2</v>
         <stp/>
-        <stp>s5y</stp>
-        <stp>2119925400</stp>
-        <tr r="H30" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>s3y</v>
+        <stp>FixedNextcoupon</stp>
         <stp/>
-        <stp>s3y</stp>
-        <stp>2119925496</stp>
-        <tr r="H29" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d1y</v>
-        <stp/>
-        <stp>d1y</stp>
-        <stp>2119925464</stp>
-        <tr r="H27" s="1"/>
+        <tr r="C69" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>FixedSettlementDatte</v>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>39706</v>
         <stp/>
-        <stp>FixedSettlementDatte</stp>
-        <stp>-798541351</stp>
-        <tr r="B33" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>marketQuotes4</v>
+        <stp>todaysDateSer</stp>
         <stp/>
-        <stp>marketQuotes4</stp>
-        <stp>0</stp>
-        <tr r="K18" s="1"/>
+        <tr r="D8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>s10yratehelpers</v>
+        <v>fixingDaysNeg</v>
         <stp/>
-        <stp>s10yratehelpers</stp>
-        <stp>154939048</stp>
-        <tr r="K31" s="1"/>
+        <stp>fixingDaysNeg</stp>
+        <stp>-3</stp>
+        <tr r="B7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>FloatingNPV</v>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>2.2009365270878184E-2</v>
         <stp/>
-        <stp>FloatingNPV</stp>
-        <stp>588410313</stp>
-        <tr r="D56" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>todaysDateSer</v>
+        <stp>FloatingYield</stp>
         <stp/>
-        <stp>todaysDateSer</stp>
-        <stp>-1204259704</stp>
-        <tr r="C8" s="1"/>
+        <tr r="D70" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>d1w</v>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>106.127528263039</v>
         <stp/>
-        <stp>d1w</stp>
-        <stp>-303078293</stp>
-        <tr r="H22" s="1"/>
+        <stp>FixedCleanPrice</stp>
+        <stp/>
+        <tr r="C65" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>0.56211286639560409</v>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FloatingNextcoupon</v>
         <stp/>
-        <stp>FloatingFixedZeroAccruedcoupon</stp>
-        <stp/>
-        <tr r="D67" s="1"/>
+        <stp>FloatingNextcoupon</stp>
+        <stp>-1208119139</stp>
+        <tr r="D61" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>marketQuotes0</v>
+        <v>fixingDays</v>
         <stp/>
-        <stp>marketQuotes0</stp>
-        <stp>0</stp>
-        <tr r="K14" s="1"/>
+        <stp>fixingDays</stp>
+        <stp>3</stp>
+        <tr r="B5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>marketQuotes1</v>
+        <v>FixedRateBond</v>
         <stp/>
-        <stp>marketQuotes1</stp>
-        <stp>0</stp>
-        <tr r="K15" s="1"/>
+        <stp>FixedRateBond</stp>
+        <stp>1820916808</stp>
+        <tr r="B37" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>marketQuotes2</v>
-        <stp/>
-        <stp>marketQuotes2</stp>
-        <stp>0</stp>
-        <tr r="K16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ZeroAccruedcoupon</v>
-        <stp/>
-        <stp>ZeroAccruedcoupon</stp>
-        <stp>1029105693</stp>
-        <tr r="B59" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>86.317292342665496</v>
-        <stp/>
-        <stp>ZeroDirtyPrice</stp>
-        <stp/>
-        <tr r="B66" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>couponRate0</v>
-        <stp/>
-        <stp>couponRate0</stp>
-        <stp>-1165563463</stp>
-        <tr r="J14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>marketQuotes3</v>
-        <stp/>
-        <stp>marketQuotes3</stp>
-        <stp>0</stp>
-        <tr r="K17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>ZeroAccruedcoupon</stp>
-        <stp/>
-        <tr r="B67" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>s15yratehelpers</v>
-        <stp/>
-        <stp>s15yratehelpers</stp>
-        <stp>-96719192</stp>
-        <tr r="K32" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>Actual365Fixed</v>
-        <stp/>
-        <stp>Actual365Fixed</stp>
-        <stp>0</stp>
-        <tr r="E50" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
         <v>USDLibor</v>
         <stp/>
@@ -1645,210 +1931,161 @@
         <tr r="J37" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>FixedRateBondzeroCouponBondCashflow</v>
+        <v>ZeroYield</v>
         <stp/>
-        <stp>FixedRateBondzeroCouponBondCashflow</stp>
-        <stp>CT</stp>
-        <tr r="H45" s="1"/>
-        <tr r="H48" s="1"/>
-        <tr r="I51" s="1"/>
-        <tr r="I54" s="1"/>
-        <tr r="I63" s="1"/>
-        <tr r="I52" s="1"/>
-        <tr r="I42" s="1"/>
-        <tr r="H58" s="1"/>
-        <tr r="H51" s="1"/>
-        <tr r="H55" s="1"/>
-        <tr r="I46" s="1"/>
-        <tr r="H46" s="1"/>
-        <tr r="I56" s="1"/>
-        <tr r="H56" s="1"/>
-        <tr r="I59" s="1"/>
-        <tr r="H49" s="1"/>
-        <tr r="I55" s="1"/>
-        <tr r="I45" s="1"/>
-        <tr r="H42" s="1"/>
-        <tr r="H50" s="1"/>
-        <tr r="I60" s="1"/>
-        <tr r="H61" s="1"/>
-        <tr r="I44" s="1"/>
-        <tr r="H43" s="1"/>
-        <tr r="I62" s="1"/>
-        <tr r="H53" s="1"/>
-        <tr r="H63" s="1"/>
-        <tr r="H54" s="1"/>
-        <tr r="H44" s="1"/>
-        <tr r="H52" s="1"/>
-        <tr r="H47" s="1"/>
-        <tr r="I58" s="1"/>
-        <tr r="I50" s="1"/>
-        <tr r="I57" s="1"/>
-        <tr r="I53" s="1"/>
-        <tr r="H57" s="1"/>
-        <tr r="H59" s="1"/>
-        <tr r="H60" s="1"/>
-        <tr r="I47" s="1"/>
-        <tr r="I61" s="1"/>
-        <tr r="H62" s="1"/>
-        <tr r="I48" s="1"/>
-        <tr r="I49" s="1"/>
-        <tr r="I43" s="1"/>
+        <stp>ZeroYield</stp>
+        <stp>-1391670259</stp>
+        <tr r="B62" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>optionletvolitility</v>
+        <v>depositDayCounter</v>
         <stp/>
-        <stp>optionletvolitility</stp>
-        <stp>0</stp>
-        <tr r="B49" s="1"/>
+        <stp>depositDayCounter</stp>
+        <stp>372029375</stp>
+        <tr r="E43" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>s10y</v>
+        <stp/>
+        <stp>s10y</stp>
+        <stp>1121190872</stp>
+        <tr r="H31" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>ConstantOptionletVolatility</v>
+        <v>zcBondsDayCounter</v>
         <stp/>
-        <stp>ConstantOptionletVolatility</stp>
-        <stp>315382730</stp>
-        <tr r="B50" s="1"/>
+        <stp>zcBondsDayCounter</stp>
+        <stp>0</stp>
+        <tr r="B9" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>s5yratehelpers</v>
+        <v>FloatingYield</v>
         <stp/>
-        <stp>s5yratehelpers</stp>
-        <stp>1362898600</stp>
-        <tr r="K30" s="1"/>
+        <stp>FloatingYield</stp>
+        <stp>-712193011</stp>
+        <tr r="D62" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FixedCleanPrice</v>
+        <stp/>
+        <stp>FixedCleanPrice</stp>
+        <stp>-77321281</stp>
+        <tr r="C57" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>s3yratehelpers</v>
+        <v>forwardStart</v>
         <stp/>
-        <stp>s3yratehelpers</stp>
-        <stp>-751030616</stp>
-        <tr r="K29" s="1"/>
+        <stp>forwardStart</stp>
+        <stp>-223693829</stp>
+        <tr r="E47" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>FloatingNextcoupon</v>
+        <v>zc6m</v>
         <stp/>
-        <stp>FloatingNextcoupon</stp>
-        <stp>-1208119139</stp>
-        <tr r="D61" s="1"/>
+        <stp>zc6m</stp>
+        <stp>-792237096</stp>
+        <tr r="H9" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>4.4999999999999998E-2</v>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>tolerance</v>
         <stp/>
-        <stp>FixedNextcoupon</stp>
-        <stp/>
-        <tr r="C69" s="1"/>
+        <stp>tolerance</stp>
+        <stp>-1573562951</stp>
+        <tr r="B14" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>1.5407608695652275</v>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>todaysDate</v>
         <stp/>
-        <stp>FixedZeroAccruedcoupon</stp>
-        <stp/>
-        <tr r="C67" s="1"/>
+        <stp>todaysDate</stp>
+        <stp>-111422835</stp>
+        <tr r="B8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>ZeroCleanPrice</v>
+        <v>fixedBondSchedule</v>
         <stp/>
-        <stp>ZeroCleanPrice</stp>
-        <stp>1001970241</stp>
-        <tr r="B57" s="1"/>
+        <stp>fixedBondSchedule</stp>
+        <stp>-2089128530</stp>
+        <tr r="B35" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>loglinier</v>
+        <stp/>
+        <stp>loglinier</stp>
+        <stp>0</stp>
+        <tr r="E44" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FixedDirtyPrice</v>
+        <stp/>
+        <stp>FixedDirtyPrice</stp>
+        <stp>-77321281</stp>
+        <tr r="C58" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>86.317292342665496</v>
+        <stp/>
+        <stp>ZeroNPV</stp>
+        <stp/>
+        <tr r="B64" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
+      <tp>
+        <v>107.66828913260423</v>
+        <stp/>
+        <stp>FixedDirtyPrice</stp>
+        <stp/>
+        <tr r="C66" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>FixedYield</v>
+        <stp/>
+        <stp>FixedYield</stp>
+        <stp>-1293104115</stp>
+        <tr r="C62" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
+      <tp t="s">
+        <v>zc6mPeriod</v>
+        <stp/>
+        <stp>zc6mPeriod</stp>
+        <stp>-1226026161</stp>
+        <tr r="E9" s="1"/>
       </tp>
       <tp t="s">
-        <v>d1yratehelpers</v>
+        <v>zc3mPeriod</v>
         <stp/>
-        <stp>d1yratehelpers</stp>
-        <stp>-499372376</stp>
-        <tr r="K27" s="1"/>
+        <stp>zc3mPeriod</stp>
+        <stp>-1226026113</stp>
+        <tr r="E8" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>FixedRateBondzeroCouponBondCashflow</v>
-        <stp/>
-        <stp>FixedRateBondzeroCouponBondCashflow</stp>
-        <stp>-77321281</stp>
-        <tr r="C63" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>FloatIssueDate</v>
-        <stp/>
-        <stp>FloatIssueDate</stp>
-        <stp>451725283</stp>
-        <tr r="B43" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>106.127528263039</v>
-        <stp/>
-        <stp>FixedCleanPrice</stp>
-        <stp/>
-        <tr r="C65" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>RemptionAmount</v>
-        <stp/>
-        <stp>RemptionAmount</stp>
-        <stp>1079574528</stp>
-        <tr r="B25" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>d1wratehelpers</v>
-        <stp/>
-        <stp>d1wratehelpers</stp>
-        <stp>1144794792</stp>
-        <tr r="K22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>FixedNPV</v>
-        <stp/>
-        <stp>FixedNPV</stp>
-        <stp>-77321281</stp>
-        <tr r="C56" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>zeroCouponBondCashflow</v>
-        <stp/>
-        <stp>zeroCouponBondCashflow</stp>
-        <stp>1001970241</stp>
-        <tr r="B63" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>FixedIssueDate</v>
-        <stp/>
-        <stp>FixedIssueDate</stp>
-        <stp>996172436</stp>
-        <tr r="B34" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
       <tp t="s">
         <v>swFixedLegDayCounter</v>
         <stp/>
@@ -1858,25 +2095,7 @@
         <tr r="E51" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>bondEnginez</v>
-        <stp/>
-        <stp>bondEnginez</stp>
-        <stp>246307230</stp>
-        <tr r="B20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>ZeroSettlementDate</v>
-        <stp/>
-        <stp>ZeroSettlementDate</stp>
-        <stp>-1699218839</stp>
-        <tr r="B27" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+    <main first="rtdsrv.bd21e641ad4a453fb7ffb814610b8360">
       <tp>
         <v>39709</v>
         <stp/>
@@ -1885,217 +2104,13 @@
         <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
+    <main first="rtdsrv.bd714e49b28c452ebccede730ffe499a">
       <tp t="s">
-        <v>floatingRateBondFixedRateBondzeroCouponBondCashflow</v>
+        <v>ZeroSettlementDate</v>
         <stp/>
-        <stp>floatingRateBondFixedRateBondzeroCouponBondCashflow</stp>
-        <stp>CT</stp>
-        <tr r="I70" s="1"/>
-        <tr r="I72" s="1"/>
-        <tr r="H72" s="1"/>
-        <tr r="H66" s="1"/>
-        <tr r="H69" s="1"/>
-        <tr r="H83" s="1"/>
-        <tr r="I65" s="1"/>
-        <tr r="H84" s="1"/>
-        <tr r="I82" s="1"/>
-        <tr r="I81" s="1"/>
-        <tr r="H85" s="1"/>
-        <tr r="H65" s="1"/>
-        <tr r="H76" s="1"/>
-        <tr r="H75" s="1"/>
-        <tr r="H68" s="1"/>
-        <tr r="I80" s="1"/>
-        <tr r="H80" s="1"/>
-        <tr r="H73" s="1"/>
-        <tr r="H71" s="1"/>
-        <tr r="H77" s="1"/>
-        <tr r="I83" s="1"/>
-        <tr r="I77" s="1"/>
-        <tr r="H67" s="1"/>
-        <tr r="I74" s="1"/>
-        <tr r="I84" s="1"/>
-        <tr r="I85" s="1"/>
-        <tr r="I75" s="1"/>
-        <tr r="I73" s="1"/>
-        <tr r="I66" s="1"/>
-        <tr r="I67" s="1"/>
-        <tr r="H74" s="1"/>
-        <tr r="H79" s="1"/>
-        <tr r="I79" s="1"/>
-        <tr r="I64" s="1"/>
-        <tr r="I78" s="1"/>
-        <tr r="H82" s="1"/>
-        <tr r="H78" s="1"/>
-        <tr r="I68" s="1"/>
-        <tr r="H81" s="1"/>
-        <tr r="I71" s="1"/>
-        <tr r="H70" s="1"/>
-        <tr r="H64" s="1"/>
-        <tr r="I69" s="1"/>
-        <tr r="I76" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>USgovi</v>
-        <stp/>
-        <stp>USgovi</stp>
-        <stp>814714544</stp>
-        <tr r="E38" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>FixedYield</v>
-        <stp/>
-        <stp>FixedYield</stp>
-        <stp>-1293104115</stp>
-        <tr r="C62" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d3mratehelpers</v>
-        <stp/>
-        <stp>d3mratehelpers</stp>
-        <stp>1144794792</stp>
-        <tr r="K24" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>USDLibor1</v>
-        <stp/>
-        <stp>USDLibor1</stp>
-        <stp>2003614270</stp>
-        <tr r="J39" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>zc6mPeriod</v>
-        <stp/>
-        <stp>zc6mPeriod</stp>
-        <stp>-1226026161</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>zc3mPeriod</v>
-        <stp/>
-        <stp>zc3mPeriod</stp>
-        <stp>-1226026113</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>zc6m</v>
-        <stp/>
-        <stp>zc6m</stp>
-        <stp>-792237096</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>d9mratehelpers</v>
-        <stp/>
-        <stp>d9mratehelpers</stp>
-        <stp>-969134424</stp>
-        <tr r="K26" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>forwardStart</v>
-        <stp/>
-        <stp>forwardStart</stp>
-        <stp>-223693829</stp>
-        <tr r="E47" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>zcBondsDayCounter</v>
-        <stp/>
-        <stp>zcBondsDayCounter</stp>
-        <stp>0</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>86.317292342665496</v>
-        <stp/>
-        <stp>ZeroNPV</stp>
-        <stp/>
-        <tr r="B64" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>d6mratehelpers</v>
-        <stp/>
-        <stp>d6mratehelpers</stp>
-        <stp>-449040728</stp>
-        <tr r="K25" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>s10y</v>
-        <stp/>
-        <stp>s10y</stp>
-        <stp>1121190872</stp>
-        <tr r="H31" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>depositDayCounter</v>
-        <stp/>
-        <stp>depositDayCounter</stp>
-        <stp>372029375</stp>
-        <tr r="E43" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>107.66828913260423</v>
-        <stp/>
-        <stp>FixedDirtyPrice</stp>
-        <stp/>
-        <tr r="C66" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>loglinier</v>
-        <stp/>
-        <stp>loglinier</stp>
-        <stp>0</stp>
-        <tr r="E44" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.aa0dc8c721934bdc8ed25b6f816d1c25">
-      <tp>
-        <v>107.66828913260423</v>
-        <stp/>
-        <stp>FixedNPV</stp>
-        <stp/>
-        <tr r="C64" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>ZeroDirtyPrice</v>
-        <stp/>
-        <stp>ZeroDirtyPrice</stp>
-        <stp>1001970241</stp>
-        <tr r="B58" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32e84632adf54530927886b6879595f3">
-      <tp t="s">
-        <v>floatingRateBondFixedRateBondzeroCouponBondCashflow</v>
-        <stp/>
-        <stp>floatingRateBondFixedRateBondzeroCouponBondCashflow</stp>
-        <stp>588410313</stp>
-        <tr r="D63" s="1"/>
+        <stp>ZeroSettlementDate</stp>
+        <stp>-1699218839</stp>
+        <tr r="B27" s="1"/>
       </tp>
     </main>
   </volType>
@@ -2437,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28025E14-2DBA-4FA2-A060-A0CB22BD8F4F}">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3885,7 +3900,7 @@
       </c>
       <c r="B61" t="str">
         <f>+_xll._Bond_nextCouponRate(B$55&amp;$A61,B54)</f>
-        <v>ZeroNextcoupon</v>
+        <v>#no coupon paid at cashflow date 15/08/2013</v>
       </c>
       <c r="C61" t="str">
         <f>+_xll._Bond_nextCouponRate(C$55&amp;$A61,C54)</f>
@@ -4039,7 +4054,7 @@
       </c>
       <c r="D67">
         <f>+_xll._Value(D59)</f>
-        <v>0.56211286639560409</v>
+        <v>0.60974954998845188</v>
       </c>
       <c r="H67" t="str">
         <v>#NA</v>
@@ -4063,7 +4078,7 @@
       </c>
       <c r="D68">
         <f>+_xll._Value(D60)</f>
-        <v>2.8862499999999999E-2</v>
+        <v>3.4298412186850417E-2</v>
       </c>
       <c r="H68" t="str">
         <v>#NA</v>
@@ -4079,7 +4094,7 @@
       </c>
       <c r="B69" t="str">
         <f>+_xll._Value(B61)</f>
-        <v>#no coupon paid at cashflow date 15/08/2013 ,Bond.nextCouponRate</v>
+        <v>#NA</v>
       </c>
       <c r="C69">
         <f>+_xll._Value(C61)</f>
@@ -4103,7 +4118,7 @@
       </c>
       <c r="B70">
         <f>+_xll._Value(B62)</f>
-        <v>3.0000642156600955E-2</v>
+        <v>3.0058566999435425E-2</v>
       </c>
       <c r="C70">
         <f>+_xll._Value(C62)</f>
